--- a/2022-12/PSE-2022-12-28.xlsx
+++ b/2022-12/PSE-2022-12-28.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26024"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8C3321F-44B9-48FD-B706-3EC44945353C}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFBDE409-A6F9-4864-BE99-C1996FBD5E50}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="774">
   <si>
     <t>2GO</t>
   </si>
@@ -2445,19 +2445,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2774,20 +2774,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H361"/>
+  <dimension ref="A1:G361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="C1" s="2">
         <v>6.8</v>
@@ -2798,17 +2798,14 @@
       <c r="E1" s="2">
         <v>6.8</v>
       </c>
-      <c r="F1" s="2">
-        <v>6.8</v>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2825,16 +2822,13 @@
         <v>97.95</v>
       </c>
       <c r="F2" s="4">
-        <v>97.95</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2851,16 +2845,13 @@
         <v>101.1</v>
       </c>
       <c r="F3" s="4">
-        <v>101.1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2877,42 +2868,36 @@
         <v>1.61</v>
       </c>
       <c r="F4" s="4">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>7.2</v>
+        <v>7.19</v>
       </c>
       <c r="C5" s="4">
-        <v>7.19</v>
+        <v>7.39</v>
       </c>
       <c r="D5" s="4">
+        <v>7.18</v>
+      </c>
+      <c r="E5" s="4">
         <v>7.39</v>
       </c>
-      <c r="E5" s="4">
-        <v>7.18</v>
-      </c>
-      <c r="F5" s="4">
-        <v>7.39</v>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2920,25 +2905,22 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="C6" s="4">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D6" s="4">
         <v>2.0099999999999998</v>
       </c>
-      <c r="D6" s="4">
-        <v>2.0699999999999998</v>
-      </c>
       <c r="E6" s="4">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="F6" s="4">
         <v>2.06</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -2955,42 +2937,36 @@
         <v>3.53</v>
       </c>
       <c r="F7" s="4">
-        <v>3.53</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="4">
-        <v>7.35</v>
+        <v>7.4</v>
       </c>
       <c r="C8" s="4">
         <v>7.4</v>
       </c>
       <c r="D8" s="4">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="E8" s="4">
-        <v>7.3</v>
-      </c>
-      <c r="F8" s="4">
         <v>7.35</v>
       </c>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -3007,42 +2983,36 @@
         <v>7.5</v>
       </c>
       <c r="F9" s="4">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C10" s="4">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="D10" s="4">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="E10" s="4">
-        <v>690</v>
-      </c>
-      <c r="F10" s="4">
         <v>707</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -3059,16 +3029,13 @@
         <v>1.4</v>
       </c>
       <c r="F11" s="4">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
       </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -3076,25 +3043,22 @@
         <v>7.58</v>
       </c>
       <c r="C12" s="4">
-        <v>7.58</v>
+        <v>7.64</v>
       </c>
       <c r="D12" s="4">
+        <v>7.47</v>
+      </c>
+      <c r="E12" s="4">
         <v>7.64</v>
       </c>
-      <c r="E12" s="4">
-        <v>7.47</v>
-      </c>
-      <c r="F12" s="4">
-        <v>7.64</v>
+      <c r="F12" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -3111,16 +3075,13 @@
         <v>500</v>
       </c>
       <c r="F13" s="4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
       </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -3137,21 +3098,18 @@
         <v>478</v>
       </c>
       <c r="F14" s="4">
-        <v>478</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
       </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="4">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="C15" s="4">
         <v>0.78</v>
@@ -3162,17 +3120,14 @@
       <c r="E15" s="4">
         <v>0.78</v>
       </c>
-      <c r="F15" s="4">
-        <v>0.78</v>
+      <c r="F15" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -3180,51 +3135,45 @@
         <v>56.2</v>
       </c>
       <c r="C16" s="4">
+        <v>57.75</v>
+      </c>
+      <c r="D16" s="4">
         <v>56.2</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>57.75</v>
       </c>
-      <c r="E16" s="4">
-        <v>56.2</v>
-      </c>
-      <c r="F16" s="4">
-        <v>57.75</v>
+      <c r="F16" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="4">
-        <v>11.6</v>
+        <v>11.58</v>
       </c>
       <c r="C17" s="4">
-        <v>11.58</v>
+        <v>11.7</v>
       </c>
       <c r="D17" s="4">
+        <v>11.54</v>
+      </c>
+      <c r="E17" s="4">
         <v>11.7</v>
       </c>
-      <c r="E17" s="4">
-        <v>11.54</v>
-      </c>
-      <c r="F17" s="4">
-        <v>11.7</v>
+      <c r="F17" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -3235,22 +3184,19 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="D18" s="4">
-        <v>0.56000000000000005</v>
+        <v>0.54</v>
       </c>
       <c r="E18" s="4">
         <v>0.54</v>
       </c>
-      <c r="F18" s="4">
-        <v>0.54</v>
+      <c r="F18" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -3267,16 +3213,13 @@
         <v>102.3</v>
       </c>
       <c r="F19" s="4">
-        <v>102.3</v>
+        <v>0</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
       </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
@@ -3293,16 +3236,13 @@
         <v>102</v>
       </c>
       <c r="F20" s="4">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
       </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
@@ -3319,16 +3259,13 @@
         <v>499</v>
       </c>
       <c r="F21" s="4">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
       </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
@@ -3345,16 +3282,13 @@
         <v>5.89</v>
       </c>
       <c r="F22" s="4">
-        <v>5.89</v>
+        <v>0</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
       </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
@@ -3362,25 +3296,22 @@
         <v>30</v>
       </c>
       <c r="C23" s="4">
-        <v>30</v>
+        <v>30.05</v>
       </c>
       <c r="D23" s="4">
+        <v>29.55</v>
+      </c>
+      <c r="E23" s="4">
         <v>30.05</v>
       </c>
-      <c r="E23" s="4">
-        <v>29.55</v>
-      </c>
-      <c r="F23" s="4">
-        <v>30.05</v>
+      <c r="F23" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
@@ -3388,25 +3319,22 @@
         <v>0.223</v>
       </c>
       <c r="C24" s="4">
-        <v>0.223</v>
+        <v>0.23</v>
       </c>
       <c r="D24" s="4">
-        <v>0.23</v>
+        <v>0.222</v>
       </c>
       <c r="E24" s="4">
-        <v>0.222</v>
-      </c>
-      <c r="F24" s="4">
         <v>0.22800000000000001</v>
       </c>
+      <c r="F24" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="G24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
@@ -3414,25 +3342,22 @@
         <v>2.94</v>
       </c>
       <c r="C25" s="4">
-        <v>2.94</v>
+        <v>2.97</v>
       </c>
       <c r="D25" s="4">
-        <v>2.97</v>
+        <v>2.92</v>
       </c>
       <c r="E25" s="4">
-        <v>2.92</v>
-      </c>
-      <c r="F25" s="4">
         <v>2.95</v>
       </c>
+      <c r="F25" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="G25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
         <v>51</v>
       </c>
@@ -3443,48 +3368,42 @@
         <v>7.06</v>
       </c>
       <c r="D26" s="4">
-        <v>7.06</v>
+        <v>6.75</v>
       </c>
       <c r="E26" s="4">
-        <v>6.75</v>
-      </c>
-      <c r="F26" s="4">
         <v>7.03</v>
       </c>
+      <c r="F26" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="4">
-        <v>8.83</v>
+        <v>8.84</v>
       </c>
       <c r="C27" s="4">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="D27" s="4">
         <v>8.84</v>
       </c>
-      <c r="D27" s="4">
+      <c r="E27" s="4">
         <v>9.0500000000000007</v>
       </c>
-      <c r="E27" s="4">
-        <v>8.84</v>
-      </c>
-      <c r="F27" s="4">
-        <v>9.0500000000000007</v>
+      <c r="F27" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
         <v>57</v>
       </c>
@@ -3492,56 +3411,50 @@
         <v>33.700000000000003</v>
       </c>
       <c r="C28" s="4">
+        <v>34</v>
+      </c>
+      <c r="D28" s="4">
         <v>33.700000000000003</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>34</v>
       </c>
-      <c r="E28" s="4">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="F28" s="4">
-        <v>34</v>
+      <c r="F28" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="4">
-        <v>468</v>
+        <v>469.8</v>
       </c>
       <c r="C29" s="4">
+        <v>470</v>
+      </c>
+      <c r="D29" s="4">
         <v>469.8</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>470</v>
       </c>
-      <c r="E29" s="4">
-        <v>469.8</v>
-      </c>
-      <c r="F29" s="4">
-        <v>470</v>
+      <c r="F29" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H29" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:7">
       <c r="A30" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B30" s="4">
-        <v>0.20899999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="C30" s="4">
         <v>0.20699999999999999</v>
@@ -3552,17 +3465,14 @@
       <c r="E30" s="4">
         <v>0.20699999999999999</v>
       </c>
-      <c r="F30" s="4">
-        <v>0.20699999999999999</v>
+      <c r="F30" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H30" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:7">
       <c r="A31" s="3" t="s">
         <v>66</v>
       </c>
@@ -3570,25 +3480,22 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="C31" s="4">
-        <v>3.5999999999999997E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D31" s="4">
-        <v>3.6999999999999998E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E31" s="4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="F31" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
+      <c r="F31" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="G31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:7">
       <c r="A32" s="3" t="s">
         <v>69</v>
       </c>
@@ -3605,16 +3512,13 @@
         <v>0.66</v>
       </c>
       <c r="F32" s="4">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="G32" s="4">
         <v>0</v>
       </c>
-      <c r="H32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
         <v>70</v>
       </c>
@@ -3631,42 +3535,36 @@
         <v>11.82</v>
       </c>
       <c r="F33" s="4">
-        <v>11.82</v>
-      </c>
-      <c r="G33" s="4">
         <v>600</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:7">
       <c r="A34" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="4">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="C34" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="D34" s="4">
         <v>1.8</v>
       </c>
-      <c r="D34" s="4">
-        <v>1.85</v>
-      </c>
       <c r="E34" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="F34" s="4">
         <v>1.84</v>
       </c>
+      <c r="F34" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="G34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
         <v>75</v>
       </c>
@@ -3683,68 +3581,59 @@
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="F35" s="4">
-        <v>4.5999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G35" s="4">
         <v>0</v>
       </c>
-      <c r="H35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B36" s="4">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="C36" s="4">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="D36" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="E36" s="4">
         <v>1.06</v>
       </c>
-      <c r="E36" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="F36" s="4">
-        <v>1.06</v>
+      <c r="F36" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H36" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:7">
       <c r="A37" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B37" s="4">
-        <v>34.85</v>
+        <v>35.4</v>
       </c>
       <c r="C37" s="4">
-        <v>35.4</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="D37" s="4">
-        <v>35.700000000000003</v>
+        <v>35.1</v>
       </c>
       <c r="E37" s="4">
-        <v>35.1</v>
-      </c>
-      <c r="F37" s="4">
         <v>35.5</v>
       </c>
+      <c r="F37" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="G37" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H37" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
         <v>82</v>
       </c>
@@ -3755,48 +3644,42 @@
         <v>1.67</v>
       </c>
       <c r="D38" s="4">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="E38" s="4">
-        <v>1.64</v>
-      </c>
-      <c r="F38" s="4">
         <v>1.65</v>
       </c>
+      <c r="F38" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="G38" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H38" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B39" s="4">
-        <v>3.51</v>
+        <v>3.56</v>
       </c>
       <c r="C39" s="4">
         <v>3.56</v>
       </c>
       <c r="D39" s="4">
-        <v>3.56</v>
+        <v>3.54</v>
       </c>
       <c r="E39" s="4">
         <v>3.54</v>
       </c>
-      <c r="F39" s="4">
-        <v>3.54</v>
+      <c r="F39" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H39" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
         <v>88</v>
       </c>
@@ -3813,42 +3696,36 @@
         <v>14</v>
       </c>
       <c r="F40" s="4">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
       </c>
-      <c r="H40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B41" s="4">
-        <v>0.36499999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="C41" s="4">
         <v>0.36</v>
       </c>
       <c r="D41" s="4">
-        <v>0.36</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="E41" s="4">
         <v>0.35499999999999998</v>
       </c>
-      <c r="F41" s="4">
-        <v>0.35499999999999998</v>
+      <c r="F41" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H41" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:7">
       <c r="A42" s="3" t="s">
         <v>92</v>
       </c>
@@ -3865,16 +3742,13 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="F42" s="4">
-        <v>0.38500000000000001</v>
+        <v>0</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
       </c>
-      <c r="H42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
         <v>93</v>
       </c>
@@ -3891,16 +3765,13 @@
         <v>41.45</v>
       </c>
       <c r="F43" s="4">
-        <v>41.45</v>
+        <v>0</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
       </c>
-      <c r="H43" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="3" t="s">
         <v>94</v>
       </c>
@@ -3908,25 +3779,22 @@
         <v>2.5</v>
       </c>
       <c r="C44" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="D44" s="4">
         <v>2.5</v>
       </c>
-      <c r="D44" s="4">
-        <v>2.52</v>
-      </c>
       <c r="E44" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F44" s="4">
         <v>2.5099999999999998</v>
       </c>
+      <c r="F44" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="G44" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H44" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
         <v>97</v>
       </c>
@@ -3934,82 +3802,73 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="C45" s="4">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="D45" s="4">
-        <v>0.59</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E45" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F45" s="4">
         <v>0.56999999999999995</v>
       </c>
+      <c r="F45" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="G45" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H45" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B46" s="4">
-        <v>4.17</v>
+        <v>4.16</v>
       </c>
       <c r="C46" s="4">
         <v>4.16</v>
       </c>
       <c r="D46" s="4">
-        <v>4.16</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="E46" s="4">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="F46" s="4">
         <v>4.12</v>
       </c>
+      <c r="F46" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="G46" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H46" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B47" s="4">
-        <v>4.0999999999999996</v>
+        <v>4.18</v>
       </c>
       <c r="C47" s="4">
         <v>4.18</v>
       </c>
       <c r="D47" s="4">
-        <v>4.18</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E47" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F47" s="4">
         <v>4.1100000000000003</v>
       </c>
+      <c r="F47" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="G47" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H47" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:7">
       <c r="A48" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="4">
-        <v>7.9</v>
+        <v>7.04</v>
       </c>
       <c r="C48" s="4">
         <v>7.04</v>
@@ -4020,17 +3879,14 @@
       <c r="E48" s="4">
         <v>7.04</v>
       </c>
-      <c r="F48" s="4">
-        <v>7.04</v>
+      <c r="F48" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H48" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:7">
       <c r="A49" s="3" t="s">
         <v>109</v>
       </c>
@@ -4047,68 +3903,59 @@
         <v>23.3</v>
       </c>
       <c r="F49" s="4">
-        <v>23.3</v>
+        <v>0</v>
       </c>
       <c r="G49" s="4">
         <v>0</v>
       </c>
-      <c r="H49" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B50" s="4">
-        <v>105.9</v>
+        <v>108</v>
       </c>
       <c r="C50" s="4">
         <v>108</v>
       </c>
       <c r="D50" s="4">
-        <v>108</v>
+        <v>105.7</v>
       </c>
       <c r="E50" s="4">
-        <v>105.7</v>
-      </c>
-      <c r="F50" s="4">
         <v>105.9</v>
       </c>
+      <c r="F50" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="G50" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H50" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B51" s="4">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="C51" s="4">
+        <v>1.24</v>
+      </c>
+      <c r="D51" s="4">
         <v>1.21</v>
       </c>
-      <c r="D51" s="4">
+      <c r="E51" s="4">
         <v>1.24</v>
       </c>
-      <c r="E51" s="4">
-        <v>1.21</v>
-      </c>
-      <c r="F51" s="4">
-        <v>1.24</v>
+      <c r="F51" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H51" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
         <v>116</v>
       </c>
@@ -4125,16 +3972,13 @@
         <v>662</v>
       </c>
       <c r="F52" s="4">
-        <v>662</v>
+        <v>0</v>
       </c>
       <c r="G52" s="4">
         <v>0</v>
       </c>
-      <c r="H52" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
         <v>117</v>
       </c>
@@ -4151,21 +3995,18 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="F53" s="4">
-        <v>5.0999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="G53" s="4">
         <v>0</v>
       </c>
-      <c r="H53" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B54" s="4">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="C54" s="4">
         <v>1.5</v>
@@ -4176,43 +4017,37 @@
       <c r="E54" s="4">
         <v>1.5</v>
       </c>
-      <c r="F54" s="4">
-        <v>1.5</v>
+      <c r="F54" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H54" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:7">
       <c r="A55" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B55" s="4">
+        <v>7.48</v>
+      </c>
+      <c r="C55" s="4">
+        <v>7.55</v>
+      </c>
+      <c r="D55" s="4">
+        <v>7.35</v>
+      </c>
+      <c r="E55" s="4">
         <v>7.5</v>
       </c>
-      <c r="C55" s="4">
-        <v>7.48</v>
-      </c>
-      <c r="D55" s="4">
-        <v>7.55</v>
-      </c>
-      <c r="E55" s="4">
-        <v>7.35</v>
-      </c>
-      <c r="F55" s="4">
-        <v>7.5</v>
+      <c r="F55" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H55" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:7">
       <c r="A56" s="3" t="s">
         <v>124</v>
       </c>
@@ -4229,73 +4064,64 @@
         <v>52</v>
       </c>
       <c r="F56" s="4">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G56" s="4">
         <v>0</v>
       </c>
-      <c r="H56" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B57" s="4">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="C57" s="4">
         <v>7.9</v>
       </c>
       <c r="D57" s="4">
-        <v>7.9</v>
+        <v>7.75</v>
       </c>
       <c r="E57" s="4">
-        <v>7.75</v>
-      </c>
-      <c r="F57" s="4">
         <v>7.8</v>
       </c>
+      <c r="F57" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="G57" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H57" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:7">
       <c r="A58" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B58" s="4">
-        <v>99</v>
+        <v>99.8</v>
       </c>
       <c r="C58" s="4">
         <v>99.8</v>
       </c>
       <c r="D58" s="4">
-        <v>99.8</v>
+        <v>98.65</v>
       </c>
       <c r="E58" s="4">
-        <v>98.65</v>
-      </c>
-      <c r="F58" s="4">
         <v>99</v>
       </c>
+      <c r="F58" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="G58" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H58" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:7">
       <c r="A59" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B59" s="4">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="C59" s="4">
         <v>0.72</v>
@@ -4306,22 +4132,19 @@
       <c r="E59" s="4">
         <v>0.72</v>
       </c>
-      <c r="F59" s="4">
-        <v>0.72</v>
+      <c r="F59" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H59" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:7">
       <c r="A60" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B60" s="4">
-        <v>100.5</v>
+        <v>100</v>
       </c>
       <c r="C60" s="4">
         <v>100</v>
@@ -4333,68 +4156,59 @@
         <v>100</v>
       </c>
       <c r="F60" s="4">
-        <v>100</v>
-      </c>
-      <c r="G60" s="4">
         <v>800</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:7">
       <c r="A61" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B61" s="4">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="C61" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C61" s="4">
+      <c r="D61" s="4">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D61" s="4">
+      <c r="E61" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E61" s="4">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="F61" s="4">
-        <v>0.28000000000000003</v>
+      <c r="F61" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H61" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:7">
       <c r="A62" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B62" s="4">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="C62" s="4">
         <v>1.1599999999999999</v>
       </c>
       <c r="D62" s="4">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E62" s="4">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F62" s="4">
-        <v>1.1499999999999999</v>
+      <c r="F62" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H62" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:7">
       <c r="A63" s="3" t="s">
         <v>142</v>
       </c>
@@ -4411,16 +4225,13 @@
         <v>32</v>
       </c>
       <c r="F63" s="4">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G63" s="4">
         <v>0</v>
       </c>
-      <c r="H63" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="3" t="s">
         <v>143</v>
       </c>
@@ -4437,16 +4248,13 @@
         <v>32.4</v>
       </c>
       <c r="F64" s="4">
-        <v>32.4</v>
+        <v>0</v>
       </c>
       <c r="G64" s="4">
         <v>0</v>
       </c>
-      <c r="H64" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="3" t="s">
         <v>144</v>
       </c>
@@ -4463,16 +4271,13 @@
         <v>9.77</v>
       </c>
       <c r="F65" s="4">
-        <v>9.77</v>
+        <v>0</v>
       </c>
       <c r="G65" s="4">
         <v>0</v>
       </c>
-      <c r="H65" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="3" t="s">
         <v>145</v>
       </c>
@@ -4489,68 +4294,59 @@
         <v>0.65</v>
       </c>
       <c r="F66" s="4">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="G66" s="4">
         <v>0</v>
       </c>
-      <c r="H66" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B67" s="4">
-        <v>38.4</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="C67" s="4">
-        <v>38.450000000000003</v>
+        <v>39</v>
       </c>
       <c r="D67" s="4">
-        <v>39</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="E67" s="4">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="F67" s="4">
         <v>38.799999999999997</v>
       </c>
+      <c r="F67" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="G67" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H67" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:7">
       <c r="A68" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B68" s="4">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="C68" s="4">
         <v>38</v>
       </c>
-      <c r="C68" s="4">
+      <c r="D68" s="4">
         <v>37.700000000000003</v>
       </c>
-      <c r="D68" s="4">
+      <c r="E68" s="4">
         <v>38</v>
       </c>
-      <c r="E68" s="4">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="F68" s="4">
-        <v>38</v>
+      <c r="F68" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H68" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:7">
       <c r="A69" s="3" t="s">
         <v>152</v>
       </c>
@@ -4567,16 +4363,13 @@
         <v>0.08</v>
       </c>
       <c r="F69" s="4">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G69" s="4">
         <v>0</v>
       </c>
-      <c r="H69" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="3" t="s">
         <v>153</v>
       </c>
@@ -4587,22 +4380,19 @@
         <v>6.54</v>
       </c>
       <c r="D70" s="4">
-        <v>6.54</v>
+        <v>6.5</v>
       </c>
       <c r="E70" s="4">
         <v>6.5</v>
       </c>
-      <c r="F70" s="4">
-        <v>6.5</v>
+      <c r="F70" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H70" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:7">
       <c r="A71" s="3" t="s">
         <v>156</v>
       </c>
@@ -4619,42 +4409,36 @@
         <v>6.12</v>
       </c>
       <c r="F71" s="4">
-        <v>6.12</v>
+        <v>0</v>
       </c>
       <c r="G71" s="4">
         <v>0</v>
       </c>
-      <c r="H71" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B72" s="4">
-        <v>27.45</v>
+        <v>27.4</v>
       </c>
       <c r="C72" s="4">
+        <v>27.8</v>
+      </c>
+      <c r="D72" s="4">
         <v>27.4</v>
       </c>
-      <c r="D72" s="4">
+      <c r="E72" s="4">
         <v>27.8</v>
       </c>
-      <c r="E72" s="4">
-        <v>27.4</v>
-      </c>
-      <c r="F72" s="4">
-        <v>27.8</v>
+      <c r="F72" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H72" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
         <v>160</v>
       </c>
@@ -4662,25 +4446,22 @@
         <v>0.62</v>
       </c>
       <c r="C73" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="D73" s="4">
         <v>0.62</v>
       </c>
-      <c r="D73" s="4">
-        <v>0.64</v>
-      </c>
       <c r="E73" s="4">
-        <v>0.62</v>
-      </c>
-      <c r="F73" s="4">
         <v>0.63</v>
       </c>
+      <c r="F73" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="G73" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H73" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
         <v>163</v>
       </c>
@@ -4697,16 +4478,13 @@
         <v>17.100000000000001</v>
       </c>
       <c r="F74" s="4">
-        <v>17.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="G74" s="4">
         <v>0</v>
       </c>
-      <c r="H74" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
         <v>164</v>
       </c>
@@ -4723,42 +4501,36 @@
         <v>150</v>
       </c>
       <c r="F75" s="4">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G75" s="4">
         <v>0</v>
       </c>
-      <c r="H75" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B76" s="4">
-        <v>2.7</v>
+        <v>2.71</v>
       </c>
       <c r="C76" s="4">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="D76" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="E76" s="4">
         <v>2.75</v>
       </c>
-      <c r="E76" s="4">
-        <v>2.68</v>
-      </c>
-      <c r="F76" s="4">
-        <v>2.75</v>
+      <c r="F76" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H76" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
         <v>168</v>
       </c>
@@ -4766,25 +4538,22 @@
         <v>25</v>
       </c>
       <c r="C77" s="4">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="D77" s="4">
-        <v>25.4</v>
+        <v>24.5</v>
       </c>
       <c r="E77" s="4">
-        <v>24.5</v>
-      </c>
-      <c r="F77" s="4">
         <v>25.35</v>
       </c>
+      <c r="F77" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="G77" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H77" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:7">
       <c r="A78" s="3" t="s">
         <v>171</v>
       </c>
@@ -4792,51 +4561,45 @@
         <v>14.7</v>
       </c>
       <c r="C78" s="4">
-        <v>14.7</v>
+        <v>15.66</v>
       </c>
       <c r="D78" s="4">
+        <v>14.3</v>
+      </c>
+      <c r="E78" s="4">
         <v>15.66</v>
       </c>
-      <c r="E78" s="4">
-        <v>14.3</v>
-      </c>
-      <c r="F78" s="4">
-        <v>15.66</v>
+      <c r="F78" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H78" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:7">
       <c r="A79" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B79" s="4">
-        <v>0.23</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="C79" s="4">
         <v>0.20200000000000001</v>
       </c>
       <c r="D79" s="4">
-        <v>0.20200000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E79" s="4">
         <v>0.2</v>
       </c>
-      <c r="F79" s="4">
-        <v>0.2</v>
+      <c r="F79" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H79" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:7">
       <c r="A80" s="3" t="s">
         <v>177</v>
       </c>
@@ -4853,16 +4616,13 @@
         <v>3.21</v>
       </c>
       <c r="F80" s="4">
-        <v>3.21</v>
+        <v>0</v>
       </c>
       <c r="G80" s="4">
         <v>0</v>
       </c>
-      <c r="H80" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="3" t="s">
         <v>178</v>
       </c>
@@ -4873,22 +4633,19 @@
         <v>4.63</v>
       </c>
       <c r="D81" s="4">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="E81" s="4">
         <v>4.63</v>
       </c>
-      <c r="E81" s="4">
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="F81" s="4">
-        <v>4.63</v>
+      <c r="F81" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H81" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:7">
       <c r="A82" s="3" t="s">
         <v>181</v>
       </c>
@@ -4896,25 +4653,22 @@
         <v>0.37</v>
       </c>
       <c r="C82" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="D82" s="4">
         <v>0.37</v>
       </c>
-      <c r="D82" s="4">
+      <c r="E82" s="4">
         <v>0.38</v>
       </c>
-      <c r="E82" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="F82" s="4">
-        <v>0.38</v>
+      <c r="F82" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H82" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:7">
       <c r="A83" s="3" t="s">
         <v>184</v>
       </c>
@@ -4925,48 +4679,42 @@
         <v>101.8</v>
       </c>
       <c r="D83" s="4">
-        <v>101.8</v>
+        <v>101.5</v>
       </c>
       <c r="E83" s="4">
         <v>101.5</v>
       </c>
-      <c r="F83" s="4">
-        <v>101.5</v>
+      <c r="F83" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H83" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:7">
       <c r="A84" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B84" s="4">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="C84" s="4">
+        <v>3.14</v>
+      </c>
+      <c r="D84" s="4">
         <v>2.8</v>
       </c>
-      <c r="D84" s="4">
+      <c r="E84" s="4">
         <v>3.14</v>
       </c>
-      <c r="E84" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="F84" s="4">
-        <v>3.14</v>
+      <c r="F84" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H84" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:7">
       <c r="A85" s="3" t="s">
         <v>190</v>
       </c>
@@ -4974,30 +4722,27 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C85" s="4">
+        <v>2.23</v>
+      </c>
+      <c r="D85" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D85" s="4">
-        <v>2.23</v>
-      </c>
       <c r="E85" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F85" s="4">
         <v>2.2200000000000002</v>
       </c>
+      <c r="F85" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="G85" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H85" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:7">
       <c r="A86" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B86" s="4">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="C86" s="4">
         <v>1.54</v>
@@ -5008,17 +4753,14 @@
       <c r="E86" s="4">
         <v>1.54</v>
       </c>
-      <c r="F86" s="4">
-        <v>1.54</v>
+      <c r="F86" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H86" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:7">
       <c r="A87" s="3" t="s">
         <v>195</v>
       </c>
@@ -5026,51 +4768,45 @@
         <v>8</v>
       </c>
       <c r="C87" s="4">
+        <v>8.49</v>
+      </c>
+      <c r="D87" s="4">
         <v>8</v>
       </c>
-      <c r="D87" s="4">
+      <c r="E87" s="4">
         <v>8.49</v>
       </c>
-      <c r="E87" s="4">
-        <v>8</v>
-      </c>
       <c r="F87" s="4">
-        <v>8.49</v>
-      </c>
-      <c r="G87" s="4">
         <v>200</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="G87" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:7">
       <c r="A88" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B88" s="4">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="C88" s="4">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="D88" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="E88" s="4">
         <v>0.98</v>
       </c>
-      <c r="E88" s="4">
-        <v>0.94</v>
-      </c>
-      <c r="F88" s="4">
-        <v>0.98</v>
+      <c r="F88" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H88" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:7">
       <c r="A89" s="3" t="s">
         <v>200</v>
       </c>
@@ -5087,73 +4823,64 @@
         <v>0.33</v>
       </c>
       <c r="F89" s="4">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G89" s="4">
         <v>0</v>
       </c>
-      <c r="H89" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B90" s="4">
-        <v>6.58</v>
+        <v>6.6</v>
       </c>
       <c r="C90" s="4">
+        <v>6.74</v>
+      </c>
+      <c r="D90" s="4">
         <v>6.6</v>
       </c>
-      <c r="D90" s="4">
-        <v>6.74</v>
-      </c>
       <c r="E90" s="4">
-        <v>6.6</v>
-      </c>
-      <c r="F90" s="4">
         <v>6.7</v>
       </c>
+      <c r="F90" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="G90" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H90" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:7">
       <c r="A91" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B91" s="4">
+        <v>1.29</v>
+      </c>
+      <c r="C91" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D91" s="4">
         <v>1.28</v>
       </c>
-      <c r="C91" s="4">
+      <c r="E91" s="4">
         <v>1.29</v>
       </c>
-      <c r="D91" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="E91" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="F91" s="4">
-        <v>1.29</v>
+      <c r="F91" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H91" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:7">
       <c r="A92" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B92" s="4">
-        <v>97.55</v>
+        <v>98</v>
       </c>
       <c r="C92" s="4">
         <v>98</v>
@@ -5164,17 +4891,14 @@
       <c r="E92" s="4">
         <v>98</v>
       </c>
-      <c r="F92" s="4">
-        <v>98</v>
+      <c r="F92" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H92" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:7">
       <c r="A93" s="3" t="s">
         <v>210</v>
       </c>
@@ -5185,27 +4909,24 @@
         <v>14.1</v>
       </c>
       <c r="D93" s="4">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="E93" s="4">
-        <v>13.8</v>
-      </c>
-      <c r="F93" s="4">
         <v>14</v>
       </c>
+      <c r="F93" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="G93" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="H93" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:7">
       <c r="A94" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B94" s="4">
-        <v>3.5</v>
+        <v>3.32</v>
       </c>
       <c r="C94" s="4">
         <v>3.32</v>
@@ -5216,17 +4937,14 @@
       <c r="E94" s="4">
         <v>3.32</v>
       </c>
-      <c r="F94" s="4">
-        <v>3.32</v>
+      <c r="F94" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H94" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:7">
       <c r="A95" s="3" t="s">
         <v>216</v>
       </c>
@@ -5243,42 +4961,36 @@
         <v>3.16</v>
       </c>
       <c r="F95" s="4">
-        <v>3.16</v>
+        <v>0</v>
       </c>
       <c r="G95" s="4">
         <v>0</v>
       </c>
-      <c r="H95" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B96" s="4">
-        <v>2.83</v>
+        <v>2.88</v>
       </c>
       <c r="C96" s="4">
         <v>2.88</v>
       </c>
       <c r="D96" s="4">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="E96" s="4">
-        <v>2.75</v>
-      </c>
-      <c r="F96" s="4">
         <v>2.79</v>
       </c>
+      <c r="F96" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="G96" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="H96" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:7">
       <c r="A97" s="3" t="s">
         <v>220</v>
       </c>
@@ -5295,16 +5007,13 @@
         <v>4</v>
       </c>
       <c r="F97" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G97" s="4">
         <v>0</v>
       </c>
-      <c r="H97" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="3" t="s">
         <v>221</v>
       </c>
@@ -5312,25 +5021,22 @@
         <v>11.4</v>
       </c>
       <c r="C98" s="4">
-        <v>11.4</v>
+        <v>11.62</v>
       </c>
       <c r="D98" s="4">
-        <v>11.62</v>
+        <v>11.38</v>
       </c>
       <c r="E98" s="4">
-        <v>11.38</v>
-      </c>
-      <c r="F98" s="4">
         <v>11.42</v>
       </c>
+      <c r="F98" s="4" t="s">
+        <v>222</v>
+      </c>
       <c r="G98" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="H98" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:7">
       <c r="A99" s="3" t="s">
         <v>224</v>
       </c>
@@ -5346,17 +5052,14 @@
       <c r="E99" s="5">
         <v>1400</v>
       </c>
-      <c r="F99" s="5">
-        <v>1400</v>
+      <c r="F99" s="4">
+        <v>0</v>
       </c>
       <c r="G99" s="4">
         <v>0</v>
       </c>
-      <c r="H99" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="3" t="s">
         <v>225</v>
       </c>
@@ -5373,16 +5076,13 @@
         <v>10</v>
       </c>
       <c r="F100" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G100" s="4">
         <v>0</v>
       </c>
-      <c r="H100" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="3" t="s">
         <v>226</v>
       </c>
@@ -5399,16 +5099,13 @@
         <v>9.7100000000000009</v>
       </c>
       <c r="F101" s="4">
-        <v>9.7100000000000009</v>
+        <v>0</v>
       </c>
       <c r="G101" s="4">
         <v>0</v>
       </c>
-      <c r="H101" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="3" t="s">
         <v>227</v>
       </c>
@@ -5430,37 +5127,31 @@
       <c r="G102" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="H102" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B103" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="C103" s="4">
         <v>6.71</v>
       </c>
-      <c r="C103" s="4">
+      <c r="D103" s="4">
         <v>6.7</v>
       </c>
-      <c r="D103" s="4">
+      <c r="E103" s="4">
         <v>6.71</v>
       </c>
-      <c r="E103" s="4">
-        <v>6.7</v>
-      </c>
-      <c r="F103" s="4">
-        <v>6.71</v>
+      <c r="F103" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H103" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:7">
       <c r="A104" s="3" t="s">
         <v>232</v>
       </c>
@@ -5477,42 +5168,36 @@
         <v>2.86</v>
       </c>
       <c r="F104" s="4">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="G104" s="4">
         <v>0</v>
       </c>
-      <c r="H104" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B105" s="4">
-        <v>7.8</v>
+        <v>7.85</v>
       </c>
       <c r="C105" s="4">
         <v>7.85</v>
       </c>
       <c r="D105" s="4">
-        <v>7.85</v>
+        <v>7.7</v>
       </c>
       <c r="E105" s="4">
-        <v>7.7</v>
-      </c>
-      <c r="F105" s="4">
         <v>7.81</v>
       </c>
+      <c r="F105" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="G105" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H105" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:7">
       <c r="A106" s="3" t="s">
         <v>235</v>
       </c>
@@ -5529,21 +5214,18 @@
         <v>10.25</v>
       </c>
       <c r="F106" s="4">
-        <v>10.25</v>
+        <v>0</v>
       </c>
       <c r="G106" s="4">
         <v>0</v>
       </c>
-      <c r="H106" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B107" s="4">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="C107" s="4">
         <v>1.3</v>
@@ -5554,17 +5236,14 @@
       <c r="E107" s="4">
         <v>1.3</v>
       </c>
-      <c r="F107" s="4">
-        <v>1.3</v>
+      <c r="F107" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="H107" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:7">
       <c r="A108" s="3" t="s">
         <v>239</v>
       </c>
@@ -5581,16 +5260,13 @@
         <v>17</v>
       </c>
       <c r="F108" s="4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G108" s="4">
         <v>0</v>
       </c>
-      <c r="H108" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="3" t="s">
         <v>240</v>
       </c>
@@ -5607,42 +5283,36 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F109" s="4">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G109" s="4">
         <v>0</v>
       </c>
-      <c r="H109" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B110" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="C110" s="4">
         <v>2.85</v>
       </c>
-      <c r="C110" s="4">
-        <v>2.83</v>
-      </c>
       <c r="D110" s="4">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="E110" s="4">
         <v>2.8</v>
       </c>
-      <c r="F110" s="4">
-        <v>2.8</v>
+      <c r="F110" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="H110" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:7">
       <c r="A111" s="3" t="s">
         <v>244</v>
       </c>
@@ -5659,16 +5329,13 @@
         <v>96.1</v>
       </c>
       <c r="F111" s="4">
-        <v>96.1</v>
+        <v>0</v>
       </c>
       <c r="G111" s="4">
         <v>0</v>
       </c>
-      <c r="H111" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="3" t="s">
         <v>245</v>
       </c>
@@ -5684,17 +5351,14 @@
       <c r="E112" s="4">
         <v>100</v>
       </c>
-      <c r="F112" s="4">
-        <v>100</v>
+      <c r="F112" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H112" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:7">
       <c r="A113" s="3" t="s">
         <v>248</v>
       </c>
@@ -5711,42 +5375,36 @@
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="F113" s="4">
-        <v>9.4000000000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="G113" s="4">
         <v>0</v>
       </c>
-      <c r="H113" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B114" s="4">
-        <v>0.188</v>
+        <v>0.186</v>
       </c>
       <c r="C114" s="4">
+        <v>0.189</v>
+      </c>
+      <c r="D114" s="4">
+        <v>0.185</v>
+      </c>
+      <c r="E114" s="4">
         <v>0.186</v>
       </c>
-      <c r="D114" s="4">
-        <v>0.189</v>
-      </c>
-      <c r="E114" s="4">
-        <v>0.185</v>
-      </c>
-      <c r="F114" s="4">
-        <v>0.186</v>
+      <c r="F114" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="H114" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:7">
       <c r="A115" s="3" t="s">
         <v>252</v>
       </c>
@@ -5754,25 +5412,22 @@
         <v>20.7</v>
       </c>
       <c r="C115" s="4">
-        <v>20.7</v>
+        <v>20.75</v>
       </c>
       <c r="D115" s="4">
-        <v>20.75</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="E115" s="4">
-        <v>20.350000000000001</v>
-      </c>
-      <c r="F115" s="4">
         <v>20.65</v>
       </c>
+      <c r="F115" s="4" t="s">
+        <v>253</v>
+      </c>
       <c r="G115" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="H115" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:7">
       <c r="A116" s="3" t="s">
         <v>255</v>
       </c>
@@ -5780,25 +5435,22 @@
         <v>13.24</v>
       </c>
       <c r="C116" s="4">
+        <v>13.28</v>
+      </c>
+      <c r="D116" s="4">
+        <v>13.02</v>
+      </c>
+      <c r="E116" s="4">
         <v>13.24</v>
       </c>
-      <c r="D116" s="4">
-        <v>13.28</v>
-      </c>
-      <c r="E116" s="4">
-        <v>13.02</v>
-      </c>
-      <c r="F116" s="4">
-        <v>13.24</v>
+      <c r="F116" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="H116" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:7">
       <c r="A117" s="3" t="s">
         <v>258</v>
       </c>
@@ -5814,43 +5466,37 @@
       <c r="E117" s="4">
         <v>0.84</v>
       </c>
-      <c r="F117" s="4">
-        <v>0.84</v>
+      <c r="F117" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H117" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:7">
       <c r="A118" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B118" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C118" s="4">
         <v>0.26</v>
       </c>
-      <c r="C118" s="4">
+      <c r="D118" s="4">
         <v>0.25</v>
       </c>
-      <c r="D118" s="4">
+      <c r="E118" s="4">
         <v>0.26</v>
       </c>
-      <c r="E118" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F118" s="4">
-        <v>0.26</v>
+      <c r="F118" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H118" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:7">
       <c r="A119" s="3" t="s">
         <v>262</v>
       </c>
@@ -5861,22 +5507,19 @@
         <v>6.68</v>
       </c>
       <c r="D119" s="4">
-        <v>6.68</v>
+        <v>6.62</v>
       </c>
       <c r="E119" s="4">
-        <v>6.62</v>
-      </c>
-      <c r="F119" s="4">
         <v>6.67</v>
       </c>
+      <c r="F119" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="G119" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="H119" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:7">
       <c r="A120" s="3" t="s">
         <v>264</v>
       </c>
@@ -5893,42 +5536,36 @@
         <v>0.6</v>
       </c>
       <c r="F120" s="4">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G120" s="4">
         <v>0</v>
       </c>
-      <c r="H120" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="3" t="s">
         <v>265</v>
       </c>
       <c r="B121" s="4">
-        <v>38.6</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="C121" s="4">
         <v>38.700000000000003</v>
       </c>
       <c r="D121" s="4">
-        <v>38.700000000000003</v>
+        <v>38.049999999999997</v>
       </c>
       <c r="E121" s="4">
-        <v>38.049999999999997</v>
-      </c>
-      <c r="F121" s="4">
         <v>38.5</v>
       </c>
+      <c r="F121" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="G121" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="H121" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:7">
       <c r="A122" s="3" t="s">
         <v>268</v>
       </c>
@@ -5944,17 +5581,14 @@
       <c r="E122" s="5">
         <v>1011</v>
       </c>
-      <c r="F122" s="5">
-        <v>1011</v>
+      <c r="F122" s="4">
+        <v>0</v>
       </c>
       <c r="G122" s="4">
         <v>0</v>
       </c>
-      <c r="H122" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="3" t="s">
         <v>269</v>
       </c>
@@ -5970,17 +5604,14 @@
       <c r="E123" s="5">
         <v>1005</v>
       </c>
-      <c r="F123" s="5">
-        <v>1005</v>
+      <c r="F123" s="4">
+        <v>0</v>
       </c>
       <c r="G123" s="4">
         <v>0</v>
       </c>
-      <c r="H123" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="3" t="s">
         <v>270</v>
       </c>
@@ -5988,25 +5619,22 @@
         <v>0.61</v>
       </c>
       <c r="C124" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="D124" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E124" s="4">
         <v>0.61</v>
       </c>
-      <c r="D124" s="4">
-        <v>0.62</v>
-      </c>
-      <c r="E124" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F124" s="4">
-        <v>0.61</v>
+      <c r="F124" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H124" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:7">
       <c r="A125" s="3" t="s">
         <v>273</v>
       </c>
@@ -6023,42 +5651,36 @@
         <v>6.42</v>
       </c>
       <c r="F125" s="4">
-        <v>6.42</v>
+        <v>0</v>
       </c>
       <c r="G125" s="4">
         <v>0</v>
       </c>
-      <c r="H125" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="3" t="s">
         <v>274</v>
       </c>
       <c r="B126" s="4">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="C126" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="D126" s="4">
         <v>2.34</v>
       </c>
-      <c r="D126" s="4">
+      <c r="E126" s="4">
         <v>2.44</v>
       </c>
-      <c r="E126" s="4">
-        <v>2.34</v>
-      </c>
-      <c r="F126" s="4">
-        <v>2.44</v>
+      <c r="F126" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="H126" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:7">
       <c r="A127" s="3" t="s">
         <v>277</v>
       </c>
@@ -6075,16 +5697,13 @@
         <v>540</v>
       </c>
       <c r="F127" s="4">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="G127" s="4">
         <v>0</v>
       </c>
-      <c r="H127" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="3" t="s">
         <v>278</v>
       </c>
@@ -6101,16 +5720,13 @@
         <v>3.66</v>
       </c>
       <c r="F128" s="4">
-        <v>3.66</v>
+        <v>0</v>
       </c>
       <c r="G128" s="4">
         <v>0</v>
       </c>
-      <c r="H128" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="3" t="s">
         <v>279</v>
       </c>
@@ -6118,25 +5734,22 @@
         <v>16.38</v>
       </c>
       <c r="C129" s="4">
-        <v>16.38</v>
+        <v>16.7</v>
       </c>
       <c r="D129" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="E129" s="4">
         <v>16.7</v>
       </c>
-      <c r="E129" s="4">
-        <v>16.3</v>
-      </c>
-      <c r="F129" s="4">
-        <v>16.7</v>
+      <c r="F129" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="H129" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:7">
       <c r="A130" s="3" t="s">
         <v>282</v>
       </c>
@@ -6153,42 +5766,36 @@
         <v>100.4</v>
       </c>
       <c r="F130" s="4">
-        <v>100.4</v>
+        <v>0</v>
       </c>
       <c r="G130" s="4">
         <v>0</v>
       </c>
-      <c r="H130" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="3" t="s">
         <v>283</v>
       </c>
       <c r="B131" s="4">
-        <v>5.35</v>
+        <v>5.36</v>
       </c>
       <c r="C131" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D131" s="4">
         <v>5.36</v>
       </c>
-      <c r="D131" s="4">
+      <c r="E131" s="4">
         <v>5.5</v>
       </c>
-      <c r="E131" s="4">
-        <v>5.36</v>
-      </c>
-      <c r="F131" s="4">
-        <v>5.5</v>
+      <c r="F131" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H131" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:7">
       <c r="A132" s="3" t="s">
         <v>286</v>
       </c>
@@ -6205,16 +5812,13 @@
         <v>2.1</v>
       </c>
       <c r="F132" s="4">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="G132" s="4">
         <v>0</v>
       </c>
-      <c r="H132" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="3" t="s">
         <v>287</v>
       </c>
@@ -6231,16 +5835,13 @@
         <v>1.88</v>
       </c>
       <c r="F133" s="4">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="G133" s="4">
         <v>0</v>
       </c>
-      <c r="H133" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="3" t="s">
         <v>288</v>
       </c>
@@ -6248,129 +5849,114 @@
         <v>0.87</v>
       </c>
       <c r="C134" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="D134" s="4">
         <v>0.87</v>
-      </c>
-      <c r="D134" s="4">
-        <v>0.88</v>
       </c>
       <c r="E134" s="4">
         <v>0.87</v>
       </c>
-      <c r="F134" s="4">
-        <v>0.87</v>
+      <c r="F134" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="H134" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:7">
       <c r="A135" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B135" s="4">
-        <v>101</v>
+        <v>101.4</v>
       </c>
       <c r="C135" s="4">
         <v>101.4</v>
       </c>
       <c r="D135" s="4">
-        <v>101.4</v>
+        <v>100.5</v>
       </c>
       <c r="E135" s="4">
-        <v>100.5</v>
-      </c>
-      <c r="F135" s="4">
         <v>101</v>
       </c>
+      <c r="F135" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="G135" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="H135" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:7">
       <c r="A136" s="3" t="s">
         <v>294</v>
       </c>
       <c r="B136" s="4">
-        <v>2.48</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="C136" s="4">
-        <v>2.4700000000000002</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="D136" s="4">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E136" s="4">
         <v>2.4900000000000002</v>
       </c>
-      <c r="E136" s="4">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="F136" s="4">
-        <v>2.4900000000000002</v>
+      <c r="F136" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="H136" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:7">
       <c r="A137" s="3" t="s">
         <v>297</v>
       </c>
       <c r="B137" s="4">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="C137" s="4">
         <v>0.54</v>
       </c>
       <c r="D137" s="4">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="E137" s="4">
         <v>0.52</v>
       </c>
-      <c r="F137" s="4">
-        <v>0.52</v>
+      <c r="F137" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="H137" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:7">
       <c r="A138" s="3" t="s">
         <v>300</v>
       </c>
       <c r="B138" s="4">
-        <v>60.95</v>
+        <v>60.55</v>
       </c>
       <c r="C138" s="4">
+        <v>60.9</v>
+      </c>
+      <c r="D138" s="4">
         <v>60.55</v>
       </c>
-      <c r="D138" s="4">
+      <c r="E138" s="4">
         <v>60.9</v>
       </c>
-      <c r="E138" s="4">
-        <v>60.55</v>
-      </c>
-      <c r="F138" s="4">
-        <v>60.9</v>
+      <c r="F138" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H138" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:7">
       <c r="A139" s="3" t="s">
         <v>303</v>
       </c>
@@ -6386,17 +5972,14 @@
       <c r="E139" s="4">
         <v>0.23</v>
       </c>
-      <c r="F139" s="4">
-        <v>0.23</v>
+      <c r="F139" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="H139" s="4" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:7">
       <c r="A140" s="3" t="s">
         <v>306</v>
       </c>
@@ -6407,22 +5990,19 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="D140" s="4">
-        <v>1.1499999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E140" s="4">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="F140" s="4">
         <v>1.1200000000000001</v>
       </c>
+      <c r="F140" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="G140" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="H140" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:7">
       <c r="A141" s="3" t="s">
         <v>309</v>
       </c>
@@ -6439,16 +6019,13 @@
         <v>3</v>
       </c>
       <c r="F141" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G141" s="4">
         <v>0</v>
       </c>
-      <c r="H141" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="3" t="s">
         <v>310</v>
       </c>
@@ -6465,16 +6042,13 @@
         <v>5</v>
       </c>
       <c r="F142" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G142" s="4">
         <v>0</v>
       </c>
-      <c r="H142" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="3" t="s">
         <v>311</v>
       </c>
@@ -6491,16 +6065,13 @@
         <v>0.185</v>
       </c>
       <c r="F143" s="4">
-        <v>0.185</v>
+        <v>0</v>
       </c>
       <c r="G143" s="4">
         <v>0</v>
       </c>
-      <c r="H143" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="3" t="s">
         <v>312</v>
       </c>
@@ -6516,43 +6087,37 @@
       <c r="E144" s="4">
         <v>0.91</v>
       </c>
-      <c r="F144" s="4">
-        <v>0.91</v>
+      <c r="F144" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H144" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:7">
       <c r="A145" s="3" t="s">
         <v>315</v>
       </c>
       <c r="B145" s="5">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="C145" s="5">
-        <v>2166</v>
+        <v>2236</v>
       </c>
       <c r="D145" s="5">
+        <v>2162</v>
+      </c>
+      <c r="E145" s="5">
         <v>2236</v>
       </c>
-      <c r="E145" s="5">
-        <v>2162</v>
-      </c>
-      <c r="F145" s="5">
-        <v>2236</v>
+      <c r="F145" s="4" t="s">
+        <v>316</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="H145" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:7">
       <c r="A146" s="3" t="s">
         <v>318</v>
       </c>
@@ -6569,16 +6134,13 @@
         <v>5</v>
       </c>
       <c r="F146" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G146" s="4">
         <v>0</v>
       </c>
-      <c r="H146" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="3" t="s">
         <v>319</v>
       </c>
@@ -6595,47 +6157,41 @@
         <v>505.5</v>
       </c>
       <c r="F147" s="4">
-        <v>505.5</v>
+        <v>0</v>
       </c>
       <c r="G147" s="4">
         <v>0</v>
       </c>
-      <c r="H147" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="3" t="s">
         <v>320</v>
       </c>
       <c r="B148" s="4">
+        <v>11.12</v>
+      </c>
+      <c r="C148" s="4">
+        <v>11.22</v>
+      </c>
+      <c r="D148" s="4">
         <v>11.08</v>
       </c>
-      <c r="C148" s="4">
-        <v>11.12</v>
-      </c>
-      <c r="D148" s="4">
-        <v>11.22</v>
-      </c>
       <c r="E148" s="4">
-        <v>11.08</v>
-      </c>
-      <c r="F148" s="4">
         <v>11.16</v>
       </c>
+      <c r="F148" s="4" t="s">
+        <v>321</v>
+      </c>
       <c r="G148" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="H148" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:7">
       <c r="A149" s="3" t="s">
         <v>323</v>
       </c>
       <c r="B149" s="4">
-        <v>10.88</v>
+        <v>10.7</v>
       </c>
       <c r="C149" s="4">
         <v>10.7</v>
@@ -6647,16 +6203,13 @@
         <v>10.7</v>
       </c>
       <c r="F149" s="4">
-        <v>10.7</v>
-      </c>
-      <c r="G149" s="4">
         <v>700</v>
       </c>
-      <c r="H149" s="4" t="s">
+      <c r="G149" s="4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:7">
       <c r="A150" s="3" t="s">
         <v>325</v>
       </c>
@@ -6673,94 +6226,82 @@
         <v>11.98</v>
       </c>
       <c r="F150" s="4">
-        <v>11.98</v>
+        <v>0</v>
       </c>
       <c r="G150" s="4">
         <v>0</v>
       </c>
-      <c r="H150" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="3" t="s">
         <v>326</v>
       </c>
       <c r="B151" s="4">
+        <v>1.46</v>
+      </c>
+      <c r="C151" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="D151" s="4">
+        <v>1.43</v>
+      </c>
+      <c r="E151" s="4">
         <v>1.48</v>
       </c>
-      <c r="C151" s="4">
-        <v>1.46</v>
-      </c>
-      <c r="D151" s="4">
-        <v>1.49</v>
-      </c>
-      <c r="E151" s="4">
-        <v>1.43</v>
-      </c>
-      <c r="F151" s="4">
-        <v>1.48</v>
+      <c r="F151" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="H151" s="4" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:7">
       <c r="A152" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B152" s="4">
-        <v>106</v>
+        <v>105.1</v>
       </c>
       <c r="C152" s="4">
+        <v>106.5</v>
+      </c>
+      <c r="D152" s="4">
         <v>105.1</v>
       </c>
-      <c r="D152" s="4">
+      <c r="E152" s="4">
         <v>106.5</v>
       </c>
-      <c r="E152" s="4">
-        <v>105.1</v>
-      </c>
-      <c r="F152" s="4">
-        <v>106.5</v>
+      <c r="F152" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H152" s="4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:7">
       <c r="A153" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B153" s="4">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C153" s="4">
-        <v>439</v>
+        <v>441.6</v>
       </c>
       <c r="D153" s="4">
+        <v>432.2</v>
+      </c>
+      <c r="E153" s="4">
         <v>441.6</v>
       </c>
-      <c r="E153" s="4">
-        <v>432.2</v>
-      </c>
-      <c r="F153" s="4">
-        <v>441.6</v>
+      <c r="F153" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="H153" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:7">
       <c r="A154" s="3" t="s">
         <v>335</v>
       </c>
@@ -6777,16 +6318,13 @@
         <v>950</v>
       </c>
       <c r="F154" s="4">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="G154" s="4">
         <v>0</v>
       </c>
-      <c r="H154" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="3" t="s">
         <v>336</v>
       </c>
@@ -6803,21 +6341,18 @@
         <v>984.5</v>
       </c>
       <c r="F155" s="4">
-        <v>984.5</v>
+        <v>0</v>
       </c>
       <c r="G155" s="4">
         <v>0</v>
       </c>
-      <c r="H155" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B156" s="4">
-        <v>3.55</v>
+        <v>3.58</v>
       </c>
       <c r="C156" s="4">
         <v>3.58</v>
@@ -6828,147 +6363,129 @@
       <c r="E156" s="4">
         <v>3.58</v>
       </c>
-      <c r="F156" s="4">
-        <v>3.58</v>
+      <c r="F156" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="H156" s="4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:7">
       <c r="A157" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B157" s="4">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="C157" s="4">
         <v>3.9</v>
       </c>
       <c r="D157" s="4">
+        <v>3.85</v>
+      </c>
+      <c r="E157" s="4">
         <v>3.9</v>
       </c>
-      <c r="E157" s="4">
-        <v>3.85</v>
-      </c>
-      <c r="F157" s="4">
-        <v>3.9</v>
+      <c r="F157" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H157" s="4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:7">
       <c r="A158" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B158" s="4">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="C158" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="D158" s="4">
         <v>1.54</v>
       </c>
-      <c r="D158" s="4">
-        <v>1.7</v>
-      </c>
       <c r="E158" s="4">
-        <v>1.54</v>
-      </c>
-      <c r="F158" s="4">
         <v>1.69</v>
       </c>
+      <c r="F158" s="4" t="s">
+        <v>344</v>
+      </c>
       <c r="G158" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="H158" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:7">
       <c r="A159" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B159" s="4">
-        <v>9.8800000000000008</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="C159" s="4">
+        <v>9.86</v>
+      </c>
+      <c r="D159" s="4">
         <v>9.2200000000000006</v>
       </c>
-      <c r="D159" s="4">
-        <v>9.86</v>
-      </c>
       <c r="E159" s="4">
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="F159" s="4">
         <v>9.5</v>
       </c>
+      <c r="F159" s="4" t="s">
+        <v>347</v>
+      </c>
       <c r="G159" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="H159" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:7">
       <c r="A160" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B160" s="4">
+        <v>1</v>
+      </c>
+      <c r="C160" s="4">
         <v>1.02</v>
       </c>
-      <c r="C160" s="4">
+      <c r="D160" s="4">
         <v>1</v>
       </c>
-      <c r="D160" s="4">
+      <c r="E160" s="4">
         <v>1.02</v>
       </c>
-      <c r="E160" s="4">
-        <v>1</v>
-      </c>
-      <c r="F160" s="4">
-        <v>1.02</v>
+      <c r="F160" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="H160" s="4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:7">
       <c r="A161" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B161" s="4">
+        <v>631</v>
+      </c>
+      <c r="C161" s="4">
         <v>650</v>
       </c>
-      <c r="C161" s="4">
-        <v>631</v>
-      </c>
       <c r="D161" s="4">
+        <v>612</v>
+      </c>
+      <c r="E161" s="4">
         <v>650</v>
       </c>
-      <c r="E161" s="4">
-        <v>612</v>
-      </c>
-      <c r="F161" s="4">
-        <v>650</v>
+      <c r="F161" s="4" t="s">
+        <v>353</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="H161" s="4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:7">
       <c r="A162" s="3" t="s">
         <v>355</v>
       </c>
@@ -6979,48 +6496,42 @@
         <v>0.72</v>
       </c>
       <c r="D162" s="4">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E162" s="4">
         <v>0.71</v>
       </c>
-      <c r="F162" s="4">
-        <v>0.71</v>
+      <c r="F162" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="H162" s="4" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:7">
       <c r="A163" s="3" t="s">
         <v>358</v>
       </c>
       <c r="B163" s="4">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C163" s="4">
         <v>204</v>
       </c>
       <c r="D163" s="4">
-        <v>204</v>
+        <v>196.3</v>
       </c>
       <c r="E163" s="4">
-        <v>196.3</v>
-      </c>
-      <c r="F163" s="4">
         <v>198</v>
       </c>
+      <c r="F163" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="G163" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="H163" s="4" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:7">
       <c r="A164" s="3" t="s">
         <v>361</v>
       </c>
@@ -7028,51 +6539,45 @@
         <v>0.8</v>
       </c>
       <c r="C164" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="D164" s="4">
         <v>0.8</v>
       </c>
-      <c r="D164" s="4">
-        <v>0.82</v>
-      </c>
       <c r="E164" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="F164" s="4">
         <v>0.81</v>
       </c>
+      <c r="F164" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="G164" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="H164" s="4" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:7">
       <c r="A165" s="3" t="s">
         <v>364</v>
       </c>
       <c r="B165" s="4">
-        <v>4.82</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C165" s="4">
-        <v>4.9000000000000004</v>
+        <v>4.91</v>
       </c>
       <c r="D165" s="4">
-        <v>4.91</v>
+        <v>4.87</v>
       </c>
       <c r="E165" s="4">
         <v>4.87</v>
       </c>
-      <c r="F165" s="4">
-        <v>4.87</v>
+      <c r="F165" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H165" s="4" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:7">
       <c r="A166" s="3" t="s">
         <v>366</v>
       </c>
@@ -7089,16 +6594,13 @@
         <v>1.32</v>
       </c>
       <c r="F166" s="4">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="G166" s="4">
         <v>0</v>
       </c>
-      <c r="H166" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" s="3" t="s">
         <v>367</v>
       </c>
@@ -7106,25 +6608,22 @@
         <v>0.9</v>
       </c>
       <c r="C167" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="D167" s="4">
         <v>0.9</v>
       </c>
-      <c r="D167" s="4">
+      <c r="E167" s="4">
         <v>0.94</v>
       </c>
-      <c r="E167" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="F167" s="4">
-        <v>0.94</v>
+      <c r="F167" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="H167" s="4" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:7">
       <c r="A168" s="3" t="s">
         <v>370</v>
       </c>
@@ -7140,17 +6639,14 @@
       <c r="E168" s="4">
         <v>0.54</v>
       </c>
-      <c r="F168" s="4">
-        <v>0.54</v>
+      <c r="F168" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="H168" s="4" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:7">
       <c r="A169" s="3" t="s">
         <v>372</v>
       </c>
@@ -7167,16 +6663,13 @@
         <v>6.6</v>
       </c>
       <c r="F169" s="4">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="G169" s="4">
         <v>0</v>
       </c>
-      <c r="H169" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170" s="3" t="s">
         <v>373</v>
       </c>
@@ -7193,16 +6686,13 @@
         <v>6.93</v>
       </c>
       <c r="F170" s="4">
-        <v>6.93</v>
+        <v>0</v>
       </c>
       <c r="G170" s="4">
         <v>0</v>
       </c>
-      <c r="H170" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" s="3" t="s">
         <v>374</v>
       </c>
@@ -7219,16 +6709,13 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="F171" s="4">
-        <v>0.14399999999999999</v>
+        <v>0</v>
       </c>
       <c r="G171" s="4">
         <v>0</v>
       </c>
-      <c r="H171" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" s="3" t="s">
         <v>375</v>
       </c>
@@ -7245,16 +6732,13 @@
         <v>1.66</v>
       </c>
       <c r="F172" s="4">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="G172" s="4">
         <v>0</v>
       </c>
-      <c r="H172" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" s="3" t="s">
         <v>376</v>
       </c>
@@ -7262,25 +6746,22 @@
         <v>229</v>
       </c>
       <c r="C173" s="4">
+        <v>232.6</v>
+      </c>
+      <c r="D173" s="4">
         <v>229</v>
       </c>
-      <c r="D173" s="4">
-        <v>232.6</v>
-      </c>
       <c r="E173" s="4">
-        <v>229</v>
-      </c>
-      <c r="F173" s="4">
         <v>230</v>
       </c>
+      <c r="F173" s="4" t="s">
+        <v>377</v>
+      </c>
       <c r="G173" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="H173" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:7">
       <c r="A174" s="3" t="s">
         <v>379</v>
       </c>
@@ -7297,16 +6778,13 @@
         <v>935</v>
       </c>
       <c r="F174" s="4">
-        <v>935</v>
-      </c>
-      <c r="G174" s="4">
         <v>550</v>
       </c>
-      <c r="H174" s="4" t="s">
+      <c r="G174" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:7">
       <c r="A175" s="3" t="s">
         <v>381</v>
       </c>
@@ -7323,68 +6801,59 @@
         <v>914</v>
       </c>
       <c r="F175" s="4">
-        <v>914</v>
+        <v>0</v>
       </c>
       <c r="G175" s="4">
         <v>0</v>
       </c>
-      <c r="H175" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" s="3" t="s">
         <v>382</v>
       </c>
       <c r="B176" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C176" s="4">
+        <v>52</v>
+      </c>
+      <c r="D176" s="4">
         <v>50</v>
       </c>
-      <c r="D176" s="4">
+      <c r="E176" s="4">
         <v>52</v>
       </c>
-      <c r="E176" s="4">
-        <v>50</v>
-      </c>
-      <c r="F176" s="4">
-        <v>52</v>
+      <c r="F176" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="H176" s="4" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:7">
       <c r="A177" s="3" t="s">
         <v>385</v>
       </c>
       <c r="B177" s="4">
-        <v>5.58</v>
+        <v>5.49</v>
       </c>
       <c r="C177" s="4">
+        <v>6.18</v>
+      </c>
+      <c r="D177" s="4">
         <v>5.49</v>
       </c>
-      <c r="D177" s="4">
-        <v>6.18</v>
-      </c>
       <c r="E177" s="4">
-        <v>5.49</v>
-      </c>
-      <c r="F177" s="4">
         <v>6.11</v>
       </c>
+      <c r="F177" s="4" t="s">
+        <v>386</v>
+      </c>
       <c r="G177" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="H177" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:7">
       <c r="A178" s="3" t="s">
         <v>388</v>
       </c>
@@ -7395,48 +6864,42 @@
         <v>1.28</v>
       </c>
       <c r="D178" s="4">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="E178" s="4">
         <v>1.27</v>
       </c>
-      <c r="F178" s="4">
-        <v>1.27</v>
+      <c r="F178" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="H178" s="4" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:7">
       <c r="A179" s="3" t="s">
         <v>391</v>
       </c>
       <c r="B179" s="4">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="C179" s="4">
         <v>2.81</v>
       </c>
       <c r="D179" s="4">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="E179" s="4">
         <v>2.8</v>
       </c>
-      <c r="F179" s="4">
-        <v>2.8</v>
+      <c r="F179" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="H179" s="4" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:7">
       <c r="A180" s="3" t="s">
         <v>394</v>
       </c>
@@ -7453,16 +6916,13 @@
         <v>6.6</v>
       </c>
       <c r="F180" s="4">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="G180" s="4">
         <v>0</v>
       </c>
-      <c r="H180" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" s="3" t="s">
         <v>395</v>
       </c>
@@ -7479,16 +6939,13 @@
         <v>6.16</v>
       </c>
       <c r="F181" s="4">
-        <v>6.16</v>
+        <v>0</v>
       </c>
       <c r="G181" s="4">
         <v>0</v>
       </c>
-      <c r="H181" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" s="3" t="s">
         <v>396</v>
       </c>
@@ -7505,16 +6962,13 @@
         <v>1.53</v>
       </c>
       <c r="F182" s="4">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="G182" s="4">
         <v>0</v>
       </c>
-      <c r="H182" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" s="3" t="s">
         <v>397</v>
       </c>
@@ -7522,25 +6976,22 @@
         <v>0.79</v>
       </c>
       <c r="C183" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="D183" s="4">
         <v>0.79</v>
       </c>
-      <c r="D183" s="4">
-        <v>0.87</v>
-      </c>
       <c r="E183" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="F183" s="4">
         <v>0.83</v>
       </c>
+      <c r="F183" s="4" t="s">
+        <v>398</v>
+      </c>
       <c r="G183" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="H183" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:7">
       <c r="A184" s="3" t="s">
         <v>399</v>
       </c>
@@ -7557,47 +7008,41 @@
         <v>18.96</v>
       </c>
       <c r="F184" s="4">
-        <v>18.96</v>
+        <v>0</v>
       </c>
       <c r="G184" s="4">
         <v>0</v>
       </c>
-      <c r="H184" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" s="3" t="s">
         <v>400</v>
       </c>
       <c r="B185" s="4">
-        <v>0.11</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="C185" s="4">
         <v>0.11700000000000001</v>
       </c>
       <c r="D185" s="4">
-        <v>0.11700000000000001</v>
+        <v>0.111</v>
       </c>
       <c r="E185" s="4">
-        <v>0.111</v>
-      </c>
-      <c r="F185" s="4">
         <v>0.115</v>
       </c>
+      <c r="F185" s="4" t="s">
+        <v>401</v>
+      </c>
       <c r="G185" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="H185" s="4" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:7">
       <c r="A186" s="3" t="s">
         <v>403</v>
       </c>
       <c r="B186" s="4">
-        <v>0.112</v>
+        <v>0.107</v>
       </c>
       <c r="C186" s="4">
         <v>0.107</v>
@@ -7608,17 +7053,14 @@
       <c r="E186" s="4">
         <v>0.107</v>
       </c>
-      <c r="F186" s="4">
-        <v>0.107</v>
+      <c r="F186" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="H186" s="4" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:7">
       <c r="A187" s="3" t="s">
         <v>406</v>
       </c>
@@ -7635,16 +7077,13 @@
         <v>19.940000000000001</v>
       </c>
       <c r="F187" s="4">
-        <v>19.940000000000001</v>
+        <v>0</v>
       </c>
       <c r="G187" s="4">
         <v>0</v>
       </c>
-      <c r="H187" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" s="3" t="s">
         <v>407</v>
       </c>
@@ -7661,16 +7100,13 @@
         <v>3.48</v>
       </c>
       <c r="F188" s="4">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="G188" s="4">
         <v>0</v>
       </c>
-      <c r="H188" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" s="3" t="s">
         <v>408</v>
       </c>
@@ -7687,94 +7123,82 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F189" s="4">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G189" s="4">
         <v>0</v>
       </c>
-      <c r="H189" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" s="3" t="s">
         <v>409</v>
       </c>
       <c r="B190" s="4">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="C190" s="4">
         <v>1.68</v>
       </c>
       <c r="D190" s="4">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="E190" s="4">
         <v>1.65</v>
       </c>
-      <c r="F190" s="4">
-        <v>1.65</v>
+      <c r="F190" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="H190" s="4" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:7">
       <c r="A191" s="3" t="s">
         <v>412</v>
       </c>
       <c r="B191" s="4">
-        <v>0.14799999999999999</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="C191" s="4">
-        <v>0.14099999999999999</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="D191" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E191" s="4">
         <v>0.14599999999999999</v>
       </c>
-      <c r="E191" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F191" s="4">
-        <v>0.14599999999999999</v>
+      <c r="F191" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="H191" s="4" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:7">
       <c r="A192" s="3" t="s">
         <v>415</v>
       </c>
       <c r="B192" s="4">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="C192" s="4">
+        <v>2.96</v>
+      </c>
+      <c r="D192" s="4">
         <v>2.95</v>
-      </c>
-      <c r="D192" s="4">
-        <v>2.96</v>
       </c>
       <c r="E192" s="4">
         <v>2.95</v>
       </c>
-      <c r="F192" s="4">
-        <v>2.95</v>
+      <c r="F192" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="H192" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:7">
       <c r="A193" s="3" t="s">
         <v>417</v>
       </c>
@@ -7790,17 +7214,14 @@
       <c r="E193" s="4">
         <v>2.44</v>
       </c>
-      <c r="F193" s="4">
-        <v>2.44</v>
+      <c r="F193" s="4" t="s">
+        <v>418</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="H193" s="4" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:7">
       <c r="A194" s="3" t="s">
         <v>420</v>
       </c>
@@ -7817,16 +7238,13 @@
         <v>1</v>
       </c>
       <c r="F194" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G194" s="4">
         <v>0</v>
       </c>
-      <c r="H194" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" s="3" t="s">
         <v>421</v>
       </c>
@@ -7837,22 +7255,19 @@
         <v>0.45500000000000002</v>
       </c>
       <c r="D195" s="4">
-        <v>0.45500000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="E195" s="4">
         <v>0.45</v>
       </c>
-      <c r="F195" s="4">
-        <v>0.45</v>
+      <c r="F195" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H195" s="4" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:7">
       <c r="A196" s="3" t="s">
         <v>423</v>
       </c>
@@ -7860,25 +7275,22 @@
         <v>9.1</v>
       </c>
       <c r="C196" s="4">
-        <v>9.1</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="D196" s="4">
-        <v>9.1199999999999992</v>
+        <v>9.08</v>
       </c>
       <c r="E196" s="4">
-        <v>9.08</v>
-      </c>
-      <c r="F196" s="4">
         <v>9.11</v>
       </c>
+      <c r="F196" s="4" t="s">
+        <v>424</v>
+      </c>
       <c r="G196" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="H196" s="4" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:7">
       <c r="A197" s="3" t="s">
         <v>426</v>
       </c>
@@ -7894,17 +7306,14 @@
       <c r="E197" s="4">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="F197" s="4">
-        <v>9.5999999999999992E-3</v>
+      <c r="F197" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H197" s="4" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:7">
       <c r="A198" s="3" t="s">
         <v>428</v>
       </c>
@@ -7921,42 +7330,36 @@
         <v>0.01</v>
       </c>
       <c r="F198" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G198" s="4">
         <v>0</v>
       </c>
-      <c r="H198" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" s="3" t="s">
         <v>429</v>
       </c>
       <c r="B199" s="4">
-        <v>4.99</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="C199" s="4">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D199" s="4">
         <v>4.8600000000000003</v>
       </c>
-      <c r="D199" s="4">
+      <c r="E199" s="4">
         <v>4.9400000000000004</v>
       </c>
-      <c r="E199" s="4">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="F199" s="4">
-        <v>4.9400000000000004</v>
+      <c r="F199" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H199" s="4" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:7">
       <c r="A200" s="3" t="s">
         <v>431</v>
       </c>
@@ -7973,16 +7376,13 @@
         <v>6.7</v>
       </c>
       <c r="F200" s="4">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="G200" s="4">
         <v>0</v>
       </c>
-      <c r="H200" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201" s="3" t="s">
         <v>432</v>
       </c>
@@ -7999,16 +7399,13 @@
         <v>0.65</v>
       </c>
       <c r="F201" s="4">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="G201" s="4">
         <v>0</v>
       </c>
-      <c r="H201" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" s="3" t="s">
         <v>433</v>
       </c>
@@ -8025,47 +7422,41 @@
         <v>0.7</v>
       </c>
       <c r="F202" s="4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G202" s="4">
         <v>0</v>
       </c>
-      <c r="H202" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" s="3" t="s">
         <v>434</v>
       </c>
       <c r="B203" s="4">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="C203" s="4">
         <v>1.24</v>
       </c>
       <c r="D203" s="4">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="E203" s="4">
-        <v>1.19</v>
-      </c>
-      <c r="F203" s="4">
         <v>1.2</v>
       </c>
+      <c r="F203" s="4" t="s">
+        <v>435</v>
+      </c>
       <c r="G203" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="H203" s="4" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:7">
       <c r="A204" s="3" t="s">
         <v>437</v>
       </c>
       <c r="B204" s="4">
-        <v>4.99</v>
+        <v>5.09</v>
       </c>
       <c r="C204" s="4">
         <v>5.09</v>
@@ -8076,17 +7467,14 @@
       <c r="E204" s="4">
         <v>5.09</v>
       </c>
-      <c r="F204" s="4">
-        <v>5.09</v>
+      <c r="F204" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="H204" s="4" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:7">
       <c r="A205" s="3" t="s">
         <v>440</v>
       </c>
@@ -8103,21 +7491,18 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F205" s="4">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="G205" s="4">
         <v>0</v>
       </c>
-      <c r="H205" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" s="3" t="s">
         <v>441</v>
       </c>
       <c r="B206" s="4">
-        <v>6.99</v>
+        <v>5.93</v>
       </c>
       <c r="C206" s="4">
         <v>5.93</v>
@@ -8129,42 +7514,36 @@
         <v>5.93</v>
       </c>
       <c r="F206" s="4">
-        <v>5.93</v>
+        <v>100</v>
       </c>
       <c r="G206" s="4">
-        <v>100</v>
-      </c>
-      <c r="H206" s="4">
         <v>593</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:7">
       <c r="A207" s="3" t="s">
         <v>442</v>
       </c>
       <c r="B207" s="4">
-        <v>54.6</v>
+        <v>54.7</v>
       </c>
       <c r="C207" s="4">
-        <v>54.7</v>
+        <v>55</v>
       </c>
       <c r="D207" s="4">
-        <v>55</v>
+        <v>54.3</v>
       </c>
       <c r="E207" s="4">
-        <v>54.3</v>
-      </c>
-      <c r="F207" s="4">
         <v>54.8</v>
       </c>
+      <c r="F207" s="4" t="s">
+        <v>443</v>
+      </c>
       <c r="G207" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="H207" s="4" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:7">
       <c r="A208" s="3" t="s">
         <v>445</v>
       </c>
@@ -8181,16 +7560,13 @@
         <v>0.156</v>
       </c>
       <c r="F208" s="4">
-        <v>0.156</v>
+        <v>0</v>
       </c>
       <c r="G208" s="4">
         <v>0</v>
       </c>
-      <c r="H208" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209" s="3" t="s">
         <v>446</v>
       </c>
@@ -8201,22 +7577,19 @@
         <v>0.73</v>
       </c>
       <c r="D209" s="4">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="E209" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="F209" s="4">
         <v>0.69</v>
       </c>
+      <c r="F209" s="4" t="s">
+        <v>447</v>
+      </c>
       <c r="G209" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="H209" s="4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:7">
       <c r="A210" s="3" t="s">
         <v>449</v>
       </c>
@@ -8224,51 +7597,45 @@
         <v>2.12</v>
       </c>
       <c r="C210" s="4">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="D210" s="4">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="E210" s="4">
         <v>2.1</v>
       </c>
-      <c r="F210" s="4">
-        <v>2.1</v>
+      <c r="F210" s="4" t="s">
+        <v>450</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="H210" s="4" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:7">
       <c r="A211" s="3" t="s">
         <v>452</v>
       </c>
       <c r="B211" s="4">
-        <v>290.39999999999998</v>
+        <v>290</v>
       </c>
       <c r="C211" s="4">
-        <v>290</v>
+        <v>294.8</v>
       </c>
       <c r="D211" s="4">
+        <v>287.39999999999998</v>
+      </c>
+      <c r="E211" s="4">
         <v>294.8</v>
       </c>
-      <c r="E211" s="4">
-        <v>287.39999999999998</v>
-      </c>
-      <c r="F211" s="4">
-        <v>294.8</v>
+      <c r="F211" s="4" t="s">
+        <v>453</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="H211" s="4" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:7">
       <c r="A212" s="3" t="s">
         <v>455</v>
       </c>
@@ -8285,16 +7652,13 @@
         <v>920</v>
       </c>
       <c r="F212" s="4">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="G212" s="4">
         <v>0</v>
       </c>
-      <c r="H212" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" s="3" t="s">
         <v>456</v>
       </c>
@@ -8311,16 +7675,13 @@
         <v>2.35</v>
       </c>
       <c r="F213" s="4">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="G213" s="4">
         <v>0</v>
       </c>
-      <c r="H213" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214" s="3" t="s">
         <v>457</v>
       </c>
@@ -8337,16 +7698,13 @@
         <v>0.114</v>
       </c>
       <c r="F214" s="4">
-        <v>0.114</v>
+        <v>0</v>
       </c>
       <c r="G214" s="4">
         <v>0</v>
       </c>
-      <c r="H214" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215" s="3" t="s">
         <v>458</v>
       </c>
@@ -8363,16 +7721,13 @@
         <v>1</v>
       </c>
       <c r="F215" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G215" s="4">
         <v>0</v>
       </c>
-      <c r="H215" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216" s="3" t="s">
         <v>459</v>
       </c>
@@ -8389,16 +7744,13 @@
         <v>0.22600000000000001</v>
       </c>
       <c r="F216" s="4">
-        <v>0.22600000000000001</v>
+        <v>0</v>
       </c>
       <c r="G216" s="4">
         <v>0</v>
       </c>
-      <c r="H216" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217" s="3" t="s">
         <v>460</v>
       </c>
@@ -8415,16 +7767,13 @@
         <v>1.35</v>
       </c>
       <c r="F217" s="4">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="G217" s="4">
         <v>0</v>
       </c>
-      <c r="H217" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218" s="3" t="s">
         <v>461</v>
       </c>
@@ -8441,68 +7790,59 @@
         <v>1.3</v>
       </c>
       <c r="F218" s="4">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="G218" s="4">
         <v>0</v>
       </c>
-      <c r="H218" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219" s="3" t="s">
         <v>462</v>
       </c>
       <c r="B219" s="4">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="C219" s="4">
         <v>1.23</v>
       </c>
       <c r="D219" s="4">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="E219" s="4">
-        <v>1.18</v>
-      </c>
-      <c r="F219" s="4">
         <v>1.19</v>
       </c>
+      <c r="F219" s="4" t="s">
+        <v>463</v>
+      </c>
       <c r="G219" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="H219" s="4" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:7">
       <c r="A220" s="3" t="s">
         <v>465</v>
       </c>
       <c r="B220" s="4">
-        <v>11.66</v>
+        <v>11.6</v>
       </c>
       <c r="C220" s="4">
         <v>11.6</v>
       </c>
       <c r="D220" s="4">
-        <v>11.6</v>
+        <v>11.28</v>
       </c>
       <c r="E220" s="4">
-        <v>11.28</v>
-      </c>
-      <c r="F220" s="4">
         <v>11.32</v>
       </c>
+      <c r="F220" s="4" t="s">
+        <v>466</v>
+      </c>
       <c r="G220" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="H220" s="4" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:7">
       <c r="A221" s="3" t="s">
         <v>468</v>
       </c>
@@ -8513,74 +7853,65 @@
         <v>3.5</v>
       </c>
       <c r="D221" s="4">
+        <v>3.43</v>
+      </c>
+      <c r="E221" s="4">
         <v>3.5</v>
       </c>
-      <c r="E221" s="4">
-        <v>3.43</v>
-      </c>
-      <c r="F221" s="4">
-        <v>3.5</v>
+      <c r="F221" s="4" t="s">
+        <v>469</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="H221" s="4" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:7">
       <c r="A222" s="3" t="s">
         <v>471</v>
       </c>
       <c r="B222" s="4">
-        <v>0.184</v>
+        <v>0.183</v>
       </c>
       <c r="C222" s="4">
+        <v>0.188</v>
+      </c>
+      <c r="D222" s="4">
         <v>0.183</v>
       </c>
-      <c r="D222" s="4">
+      <c r="E222" s="4">
         <v>0.188</v>
       </c>
-      <c r="E222" s="4">
-        <v>0.183</v>
-      </c>
-      <c r="F222" s="4">
-        <v>0.188</v>
+      <c r="F222" s="4" t="s">
+        <v>472</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="H222" s="4" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:7">
       <c r="A223" s="3" t="s">
         <v>474</v>
       </c>
       <c r="B223" s="4">
-        <v>13</v>
+        <v>13.04</v>
       </c>
       <c r="C223" s="4">
         <v>13.04</v>
       </c>
       <c r="D223" s="4">
-        <v>13.04</v>
+        <v>12.82</v>
       </c>
       <c r="E223" s="4">
-        <v>12.82</v>
-      </c>
-      <c r="F223" s="4">
         <v>12.94</v>
       </c>
+      <c r="F223" s="4" t="s">
+        <v>475</v>
+      </c>
       <c r="G223" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="H223" s="4" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:7">
       <c r="A224" s="3" t="s">
         <v>477</v>
       </c>
@@ -8596,17 +7927,14 @@
       <c r="E224" s="4">
         <v>1.4</v>
       </c>
-      <c r="F224" s="4">
-        <v>1.4</v>
+      <c r="F224" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="H224" s="4" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:7">
       <c r="A225" s="3" t="s">
         <v>479</v>
       </c>
@@ -8614,25 +7942,22 @@
         <v>5.45</v>
       </c>
       <c r="C225" s="4">
+        <v>5.48</v>
+      </c>
+      <c r="D225" s="4">
         <v>5.45</v>
       </c>
-      <c r="D225" s="4">
+      <c r="E225" s="4">
         <v>5.48</v>
       </c>
-      <c r="E225" s="4">
-        <v>5.45</v>
-      </c>
-      <c r="F225" s="4">
-        <v>5.48</v>
+      <c r="F225" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="H225" s="4" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:7">
       <c r="A226" s="3" t="s">
         <v>482</v>
       </c>
@@ -8640,51 +7965,45 @@
         <v>19</v>
       </c>
       <c r="C226" s="4">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="D226" s="4">
-        <v>19.2</v>
+        <v>18</v>
       </c>
       <c r="E226" s="4">
-        <v>18</v>
-      </c>
-      <c r="F226" s="4">
         <v>18.5</v>
       </c>
+      <c r="F226" s="4" t="s">
+        <v>483</v>
+      </c>
       <c r="G226" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="H226" s="4" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:7">
       <c r="A227" s="3" t="s">
         <v>485</v>
       </c>
       <c r="B227" s="4">
-        <v>3.19</v>
+        <v>3.17</v>
       </c>
       <c r="C227" s="4">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="D227" s="4">
-        <v>3.18</v>
+        <v>3.03</v>
       </c>
       <c r="E227" s="4">
         <v>3.03</v>
       </c>
-      <c r="F227" s="4">
-        <v>3.03</v>
+      <c r="F227" s="4" t="s">
+        <v>486</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="H227" s="4" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:7">
       <c r="A228" s="3" t="s">
         <v>488</v>
       </c>
@@ -8701,16 +8020,13 @@
         <v>100.7</v>
       </c>
       <c r="F228" s="4">
-        <v>100.7</v>
+        <v>0</v>
       </c>
       <c r="G228" s="4">
         <v>0</v>
       </c>
-      <c r="H228" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229" s="3" t="s">
         <v>489</v>
       </c>
@@ -8727,16 +8043,13 @@
         <v>97</v>
       </c>
       <c r="F229" s="4">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="G229" s="4">
         <v>0</v>
       </c>
-      <c r="H229" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230" s="3" t="s">
         <v>490</v>
       </c>
@@ -8753,16 +8066,13 @@
         <v>99.7</v>
       </c>
       <c r="F230" s="4">
-        <v>99.7</v>
+        <v>0</v>
       </c>
       <c r="G230" s="4">
         <v>0</v>
       </c>
-      <c r="H230" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231" s="3" t="s">
         <v>491</v>
       </c>
@@ -8779,94 +8089,82 @@
         <v>97.75</v>
       </c>
       <c r="F231" s="4">
-        <v>97.75</v>
+        <v>0</v>
       </c>
       <c r="G231" s="4">
         <v>0</v>
       </c>
-      <c r="H231" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232" s="3" t="s">
         <v>492</v>
       </c>
       <c r="B232" s="4">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="C232" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="D232" s="4">
         <v>0.68</v>
       </c>
-      <c r="D232" s="4">
+      <c r="E232" s="4">
         <v>0.78</v>
       </c>
-      <c r="E232" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="F232" s="4">
-        <v>0.78</v>
+      <c r="F232" s="4" t="s">
+        <v>493</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="H232" s="4" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:7">
       <c r="A233" s="3" t="s">
         <v>495</v>
       </c>
       <c r="B233" s="4">
-        <v>5.59</v>
+        <v>5.66</v>
       </c>
       <c r="C233" s="4">
-        <v>5.66</v>
+        <v>5.7</v>
       </c>
       <c r="D233" s="4">
+        <v>5.53</v>
+      </c>
+      <c r="E233" s="4">
         <v>5.7</v>
       </c>
-      <c r="E233" s="4">
-        <v>5.53</v>
-      </c>
-      <c r="F233" s="4">
-        <v>5.7</v>
+      <c r="F233" s="4" t="s">
+        <v>496</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="H233" s="4" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:7">
       <c r="A234" s="3" t="s">
         <v>498</v>
       </c>
       <c r="B234" s="4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C234" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="D234" s="4">
+        <v>1.96</v>
+      </c>
+      <c r="E234" s="4">
         <v>2</v>
       </c>
-      <c r="C234" s="4">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="D234" s="4">
-        <v>2.06</v>
-      </c>
-      <c r="E234" s="4">
-        <v>1.96</v>
-      </c>
-      <c r="F234" s="4">
-        <v>2</v>
+      <c r="F234" s="4" t="s">
+        <v>499</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="H234" s="4" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:7">
       <c r="A235" s="3" t="s">
         <v>501</v>
       </c>
@@ -8883,16 +8181,13 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="F235" s="4">
-        <v>0.56000000000000005</v>
+        <v>0</v>
       </c>
       <c r="G235" s="4">
         <v>0</v>
       </c>
-      <c r="H235" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236" s="3" t="s">
         <v>502</v>
       </c>
@@ -8914,11 +8209,8 @@
       <c r="G236" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="H236" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237" s="3" t="s">
         <v>503</v>
       </c>
@@ -8935,21 +8227,18 @@
         <v>7</v>
       </c>
       <c r="F237" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G237" s="4">
         <v>0</v>
       </c>
-      <c r="H237" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238" s="3" t="s">
         <v>504</v>
       </c>
       <c r="B238" s="4">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="C238" s="4">
         <v>0.31</v>
@@ -8960,17 +8249,14 @@
       <c r="E238" s="4">
         <v>0.31</v>
       </c>
-      <c r="F238" s="4">
-        <v>0.31</v>
+      <c r="F238" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="H238" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:7">
       <c r="A239" s="3" t="s">
         <v>507</v>
       </c>
@@ -8986,17 +8272,14 @@
       <c r="E239" s="4">
         <v>0.01</v>
       </c>
-      <c r="F239" s="4">
-        <v>0.01</v>
+      <c r="F239" s="4" t="s">
+        <v>508</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="H239" s="4" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:7">
       <c r="A240" s="3" t="s">
         <v>510</v>
       </c>
@@ -9013,21 +8296,18 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F240" s="4">
-        <v>1.0999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G240" s="4">
         <v>0</v>
       </c>
-      <c r="H240" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241" s="3" t="s">
         <v>511</v>
       </c>
       <c r="B241" s="4">
-        <v>0.69</v>
+        <v>0.72</v>
       </c>
       <c r="C241" s="4">
         <v>0.72</v>
@@ -9038,48 +8318,42 @@
       <c r="E241" s="4">
         <v>0.72</v>
       </c>
-      <c r="F241" s="4">
-        <v>0.72</v>
+      <c r="F241" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H241" s="4" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:7">
       <c r="A242" s="3" t="s">
         <v>513</v>
       </c>
       <c r="B242" s="4">
-        <v>9.5999999999999992E-3</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="C242" s="4">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="D242" s="4">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="D242" s="4">
+      <c r="E242" s="4">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="E242" s="4">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="F242" s="4">
-        <v>9.9000000000000008E-3</v>
+      <c r="F242" s="4" t="s">
+        <v>514</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="H242" s="4" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:7">
       <c r="A243" s="3" t="s">
         <v>516</v>
       </c>
       <c r="B243" s="4">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="C243" s="4">
         <v>1.9</v>
@@ -9090,22 +8364,19 @@
       <c r="E243" s="4">
         <v>1.9</v>
       </c>
-      <c r="F243" s="4">
-        <v>1.9</v>
+      <c r="F243" s="4" t="s">
+        <v>517</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="H243" s="4" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:7">
       <c r="A244" s="3" t="s">
         <v>519</v>
       </c>
       <c r="B244" s="4">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="C244" s="4">
         <v>5.7</v>
@@ -9116,17 +8387,14 @@
       <c r="E244" s="4">
         <v>5.7</v>
       </c>
-      <c r="F244" s="4">
-        <v>5.7</v>
+      <c r="F244" s="4" t="s">
+        <v>520</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="H244" s="4" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:7">
       <c r="A245" s="3" t="s">
         <v>522</v>
       </c>
@@ -9143,16 +8411,13 @@
         <v>1.83</v>
       </c>
       <c r="F245" s="4">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="G245" s="4">
         <v>0</v>
       </c>
-      <c r="H245" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246" s="3" t="s">
         <v>523</v>
       </c>
@@ -9163,22 +8428,19 @@
         <v>9.9499999999999993</v>
       </c>
       <c r="D246" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="E246" s="4">
         <v>9.9499999999999993</v>
       </c>
-      <c r="E246" s="4">
-        <v>9.9</v>
-      </c>
-      <c r="F246" s="4">
-        <v>9.9499999999999993</v>
+      <c r="F246" s="4" t="s">
+        <v>524</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="H246" s="4" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:7">
       <c r="A247" s="3" t="s">
         <v>526</v>
       </c>
@@ -9195,16 +8457,13 @@
         <v>12.92</v>
       </c>
       <c r="F247" s="4">
-        <v>12.92</v>
+        <v>0</v>
       </c>
       <c r="G247" s="4">
         <v>0</v>
       </c>
-      <c r="H247" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248" s="3" t="s">
         <v>527</v>
       </c>
@@ -9212,25 +8471,22 @@
         <v>2.35</v>
       </c>
       <c r="C248" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="D248" s="4">
         <v>2.35</v>
       </c>
-      <c r="D248" s="4">
-        <v>2.4</v>
-      </c>
       <c r="E248" s="4">
-        <v>2.35</v>
-      </c>
-      <c r="F248" s="4">
         <v>2.38</v>
       </c>
+      <c r="F248" s="4" t="s">
+        <v>528</v>
+      </c>
       <c r="G248" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="H248" s="4" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:7">
       <c r="A249" s="3" t="s">
         <v>530</v>
       </c>
@@ -9247,21 +8503,18 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="F249" s="4">
-        <v>0.20499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G249" s="4">
         <v>0</v>
       </c>
-      <c r="H249" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250" s="3" t="s">
         <v>531</v>
       </c>
       <c r="B250" s="4">
-        <v>4.5999999999999996</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="C250" s="4">
         <v>4.6100000000000003</v>
@@ -9272,69 +8525,60 @@
       <c r="E250" s="4">
         <v>4.6100000000000003</v>
       </c>
-      <c r="F250" s="4">
-        <v>4.6100000000000003</v>
+      <c r="F250" s="4" t="s">
+        <v>532</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="H250" s="4" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:7">
       <c r="A251" s="3" t="s">
         <v>534</v>
       </c>
       <c r="B251" s="4">
-        <v>33.85</v>
+        <v>34.15</v>
       </c>
       <c r="C251" s="4">
-        <v>34.15</v>
+        <v>35</v>
       </c>
       <c r="D251" s="4">
-        <v>35</v>
+        <v>33.9</v>
       </c>
       <c r="E251" s="4">
-        <v>33.9</v>
-      </c>
-      <c r="F251" s="4">
         <v>34.950000000000003</v>
       </c>
+      <c r="F251" s="4" t="s">
+        <v>535</v>
+      </c>
       <c r="G251" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="H251" s="4" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:7">
       <c r="A252" s="3" t="s">
         <v>537</v>
       </c>
       <c r="B252" s="4">
-        <v>0.28999999999999998</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="C252" s="4">
-        <v>0.29499999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="D252" s="4">
-        <v>0.3</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="E252" s="4">
         <v>0.28499999999999998</v>
       </c>
-      <c r="F252" s="4">
-        <v>0.28499999999999998</v>
+      <c r="F252" s="4" t="s">
+        <v>538</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="H252" s="4" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:7">
       <c r="A253" s="3" t="s">
         <v>540</v>
       </c>
@@ -9351,16 +8595,13 @@
         <v>1.4</v>
       </c>
       <c r="F253" s="4">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="G253" s="4">
         <v>0</v>
       </c>
-      <c r="H253" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254" s="3" t="s">
         <v>541</v>
       </c>
@@ -9377,16 +8618,13 @@
         <v>0.375</v>
       </c>
       <c r="F254" s="4">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="G254" s="4">
         <v>0</v>
       </c>
-      <c r="H254" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255" s="3" t="s">
         <v>542</v>
       </c>
@@ -9402,69 +8640,60 @@
       <c r="E255" s="4">
         <v>19</v>
       </c>
-      <c r="F255" s="4">
-        <v>19</v>
+      <c r="F255" s="4" t="s">
+        <v>543</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="H255" s="4" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:7">
       <c r="A256" s="3" t="s">
         <v>545</v>
       </c>
       <c r="B256" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C256" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="D256" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E256" s="4">
         <v>0.81</v>
       </c>
-      <c r="C256" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="D256" s="4">
-        <v>0.82</v>
-      </c>
-      <c r="E256" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="F256" s="4">
-        <v>0.81</v>
+      <c r="F256" s="4" t="s">
+        <v>546</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="H256" s="4" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:7">
       <c r="A257" s="3" t="s">
         <v>548</v>
       </c>
       <c r="B257" s="4">
+        <v>7.22</v>
+      </c>
+      <c r="C257" s="4">
+        <v>7.65</v>
+      </c>
+      <c r="D257" s="4">
         <v>7.2</v>
       </c>
-      <c r="C257" s="4">
-        <v>7.22</v>
-      </c>
-      <c r="D257" s="4">
+      <c r="E257" s="4">
         <v>7.65</v>
       </c>
-      <c r="E257" s="4">
-        <v>7.2</v>
-      </c>
       <c r="F257" s="4">
-        <v>7.65</v>
-      </c>
-      <c r="G257" s="4">
         <v>600</v>
       </c>
-      <c r="H257" s="4" t="s">
+      <c r="G257" s="4" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:7">
       <c r="A258" s="3" t="s">
         <v>550</v>
       </c>
@@ -9472,25 +8701,22 @@
         <v>0.46500000000000002</v>
       </c>
       <c r="C258" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="D258" s="4">
         <v>0.46500000000000002</v>
-      </c>
-      <c r="D258" s="4">
-        <v>0.47</v>
       </c>
       <c r="E258" s="4">
         <v>0.46500000000000002</v>
       </c>
-      <c r="F258" s="4">
-        <v>0.46500000000000002</v>
+      <c r="F258" s="4" t="s">
+        <v>551</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="H258" s="4" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:7">
       <c r="A259" s="3" t="s">
         <v>553</v>
       </c>
@@ -9507,42 +8733,36 @@
         <v>5.38</v>
       </c>
       <c r="F259" s="4">
-        <v>5.38</v>
+        <v>0</v>
       </c>
       <c r="G259" s="4">
         <v>0</v>
       </c>
-      <c r="H259" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260" s="3" t="s">
         <v>554</v>
       </c>
       <c r="B260" s="4">
-        <v>18.7</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="C260" s="4">
         <v>18.899999999999999</v>
       </c>
       <c r="D260" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="E260" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="E260" s="4">
-        <v>18.7</v>
-      </c>
-      <c r="F260" s="4">
-        <v>18.899999999999999</v>
+      <c r="F260" s="4" t="s">
+        <v>555</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="H260" s="4" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:7">
       <c r="A261" s="3" t="s">
         <v>557</v>
       </c>
@@ -9559,42 +8779,36 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="F261" s="4">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G261" s="4">
         <v>0</v>
       </c>
-      <c r="H261" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262" s="3" t="s">
         <v>558</v>
       </c>
       <c r="B262" s="4">
-        <v>8.4700000000000006</v>
+        <v>8.59</v>
       </c>
       <c r="C262" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="D262" s="4">
         <v>8.59</v>
       </c>
-      <c r="D262" s="4">
+      <c r="E262" s="4">
         <v>8.6</v>
       </c>
-      <c r="E262" s="4">
-        <v>8.59</v>
-      </c>
-      <c r="F262" s="4">
-        <v>8.6</v>
+      <c r="F262" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H262" s="4" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:7">
       <c r="A263" s="3" t="s">
         <v>560</v>
       </c>
@@ -9611,42 +8825,36 @@
         <v>100.4</v>
       </c>
       <c r="F263" s="4">
-        <v>100.4</v>
+        <v>0</v>
       </c>
       <c r="G263" s="4">
         <v>0</v>
       </c>
-      <c r="H263" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264" s="3" t="s">
         <v>561</v>
       </c>
       <c r="B264" s="4">
-        <v>67.95</v>
+        <v>67.8</v>
       </c>
       <c r="C264" s="4">
-        <v>67.8</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="D264" s="4">
-        <v>68.099999999999994</v>
+        <v>67.5</v>
       </c>
       <c r="E264" s="4">
-        <v>67.5</v>
-      </c>
-      <c r="F264" s="4">
         <v>68</v>
       </c>
+      <c r="F264" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="G264" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H264" s="4" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:7">
       <c r="A265" s="3" t="s">
         <v>563</v>
       </c>
@@ -9654,25 +8862,22 @@
         <v>325</v>
       </c>
       <c r="C265" s="4">
+        <v>353.8</v>
+      </c>
+      <c r="D265" s="4">
         <v>325</v>
       </c>
-      <c r="D265" s="4">
-        <v>353.8</v>
-      </c>
       <c r="E265" s="4">
-        <v>325</v>
-      </c>
-      <c r="F265" s="4">
         <v>349.8</v>
       </c>
+      <c r="F265" s="4" t="s">
+        <v>564</v>
+      </c>
       <c r="G265" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="H265" s="4" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:7">
       <c r="A266" s="3" t="s">
         <v>566</v>
       </c>
@@ -9689,16 +8894,13 @@
         <v>100</v>
       </c>
       <c r="F266" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G266" s="4">
         <v>0</v>
       </c>
-      <c r="H266" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267" s="3" t="s">
         <v>567</v>
       </c>
@@ -9715,21 +8917,18 @@
         <v>7.3</v>
       </c>
       <c r="F267" s="4">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="G267" s="4">
         <v>0</v>
       </c>
-      <c r="H267" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268" s="3" t="s">
         <v>568</v>
       </c>
       <c r="B268" s="4">
-        <v>5.4</v>
+        <v>5.73</v>
       </c>
       <c r="C268" s="4">
         <v>5.73</v>
@@ -9740,17 +8939,14 @@
       <c r="E268" s="4">
         <v>5.73</v>
       </c>
-      <c r="F268" s="4">
-        <v>5.73</v>
+      <c r="F268" s="4" t="s">
+        <v>569</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="H268" s="4" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:7">
       <c r="A269" s="3" t="s">
         <v>571</v>
       </c>
@@ -9767,16 +8963,13 @@
         <v>7.89</v>
       </c>
       <c r="F269" s="4">
-        <v>7.89</v>
+        <v>0</v>
       </c>
       <c r="G269" s="4">
         <v>0</v>
       </c>
-      <c r="H269" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270" s="3" t="s">
         <v>572</v>
       </c>
@@ -9784,25 +8977,22 @@
         <v>1.53</v>
       </c>
       <c r="C270" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="D270" s="4">
         <v>1.53</v>
       </c>
-      <c r="D270" s="4">
+      <c r="E270" s="4">
         <v>1.6</v>
       </c>
-      <c r="E270" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="F270" s="4">
-        <v>1.6</v>
+      <c r="F270" s="4" t="s">
+        <v>573</v>
       </c>
       <c r="G270" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="H270" s="4" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:7">
       <c r="A271" s="3" t="s">
         <v>575</v>
       </c>
@@ -9818,17 +9008,14 @@
       <c r="E271" s="5">
         <v>1000</v>
       </c>
-      <c r="F271" s="5">
-        <v>1000</v>
+      <c r="F271" s="4">
+        <v>0</v>
       </c>
       <c r="G271" s="4">
         <v>0</v>
       </c>
-      <c r="H271" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272" s="3" t="s">
         <v>576</v>
       </c>
@@ -9844,17 +9031,14 @@
       <c r="E272" s="5">
         <v>1027</v>
       </c>
-      <c r="F272" s="5">
-        <v>1027</v>
+      <c r="F272" s="4">
+        <v>0</v>
       </c>
       <c r="G272" s="4">
         <v>0</v>
       </c>
-      <c r="H272" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273" s="3" t="s">
         <v>577</v>
       </c>
@@ -9870,69 +9054,60 @@
       <c r="E273" s="5">
         <v>1010</v>
       </c>
-      <c r="F273" s="5">
-        <v>1010</v>
+      <c r="F273" s="4" t="s">
+        <v>578</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="H273" s="4" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:7">
       <c r="A274" s="3" t="s">
         <v>580</v>
       </c>
       <c r="B274" s="5">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="C274" s="5">
+        <v>1030</v>
+      </c>
+      <c r="D274" s="5">
         <v>1025</v>
-      </c>
-      <c r="D274" s="5">
-        <v>1030</v>
       </c>
       <c r="E274" s="5">
         <v>1025</v>
       </c>
-      <c r="F274" s="5">
-        <v>1025</v>
-      </c>
-      <c r="G274" s="4">
+      <c r="F274" s="4">
         <v>150</v>
       </c>
-      <c r="H274" s="4" t="s">
+      <c r="G274" s="4" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:7">
       <c r="A275" s="3" t="s">
         <v>582</v>
       </c>
       <c r="B275" s="4">
-        <v>2.0499999999999998</v>
+        <v>2.09</v>
       </c>
       <c r="C275" s="4">
+        <v>2.17</v>
+      </c>
+      <c r="D275" s="4">
         <v>2.09</v>
       </c>
-      <c r="D275" s="4">
-        <v>2.17</v>
-      </c>
       <c r="E275" s="4">
-        <v>2.09</v>
-      </c>
-      <c r="F275" s="4">
         <v>2.1</v>
       </c>
+      <c r="F275" s="4" t="s">
+        <v>583</v>
+      </c>
       <c r="G275" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="H275" s="4" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:7">
       <c r="A276" s="3" t="s">
         <v>585</v>
       </c>
@@ -9949,42 +9124,36 @@
         <v>2.29</v>
       </c>
       <c r="F276" s="4">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="G276" s="4">
         <v>0</v>
       </c>
-      <c r="H276" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+    </row>
+    <row r="277" spans="1:7">
       <c r="A277" s="3" t="s">
         <v>586</v>
       </c>
       <c r="B277" s="4">
-        <v>56.95</v>
+        <v>56.9</v>
       </c>
       <c r="C277" s="4">
-        <v>56.9</v>
+        <v>57</v>
       </c>
       <c r="D277" s="4">
+        <v>56.5</v>
+      </c>
+      <c r="E277" s="4">
         <v>57</v>
       </c>
-      <c r="E277" s="4">
-        <v>56.5</v>
-      </c>
-      <c r="F277" s="4">
-        <v>57</v>
+      <c r="F277" s="4" t="s">
+        <v>587</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="H277" s="4" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:7">
       <c r="A278" s="3" t="s">
         <v>589</v>
       </c>
@@ -9995,22 +9164,19 @@
         <v>159.6</v>
       </c>
       <c r="D278" s="4">
-        <v>159.6</v>
+        <v>156.5</v>
       </c>
       <c r="E278" s="4">
-        <v>156.5</v>
-      </c>
-      <c r="F278" s="4">
         <v>156.6</v>
       </c>
+      <c r="F278" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="G278" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="H278" s="4" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:7">
       <c r="A279" s="3" t="s">
         <v>592</v>
       </c>
@@ -10027,16 +9193,13 @@
         <v>100</v>
       </c>
       <c r="F279" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G279" s="4">
         <v>0</v>
       </c>
-      <c r="H279" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+    </row>
+    <row r="280" spans="1:7">
       <c r="A280" s="3" t="s">
         <v>593</v>
       </c>
@@ -10053,42 +9216,36 @@
         <v>0.33</v>
       </c>
       <c r="F280" s="4">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G280" s="4">
         <v>0</v>
       </c>
-      <c r="H280" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281" s="3" t="s">
         <v>594</v>
       </c>
       <c r="B281" s="4">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
       <c r="C281" s="4">
+        <v>3</v>
+      </c>
+      <c r="D281" s="4">
         <v>2.89</v>
       </c>
-      <c r="D281" s="4">
-        <v>3</v>
-      </c>
       <c r="E281" s="4">
-        <v>2.89</v>
-      </c>
-      <c r="F281" s="4">
         <v>2.97</v>
       </c>
+      <c r="F281" s="4" t="s">
+        <v>595</v>
+      </c>
       <c r="G281" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="H281" s="4" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:7">
       <c r="A282" s="3" t="s">
         <v>597</v>
       </c>
@@ -10096,103 +9253,91 @@
         <v>7.1</v>
       </c>
       <c r="C282" s="4">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="D282" s="4">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="E282" s="4">
-        <v>7</v>
-      </c>
-      <c r="F282" s="4">
         <v>7.09</v>
       </c>
+      <c r="F282" s="4" t="s">
+        <v>598</v>
+      </c>
       <c r="G282" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="H282" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:7">
       <c r="A283" s="3" t="s">
         <v>600</v>
       </c>
       <c r="B283" s="4">
-        <v>23.9</v>
+        <v>23.35</v>
       </c>
       <c r="C283" s="4">
-        <v>23.35</v>
+        <v>23.85</v>
       </c>
       <c r="D283" s="4">
+        <v>23.15</v>
+      </c>
+      <c r="E283" s="4">
         <v>23.85</v>
       </c>
-      <c r="E283" s="4">
-        <v>23.15</v>
-      </c>
-      <c r="F283" s="4">
-        <v>23.85</v>
+      <c r="F283" s="4" t="s">
+        <v>601</v>
       </c>
       <c r="G283" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="H283" s="4" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:7">
       <c r="A284" s="3" t="s">
         <v>603</v>
       </c>
       <c r="B284" s="4">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="C284" s="4">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D284" s="4">
         <v>0.47</v>
       </c>
-      <c r="D284" s="4">
+      <c r="E284" s="4">
         <v>0.47499999999999998</v>
       </c>
-      <c r="E284" s="4">
-        <v>0.47</v>
-      </c>
-      <c r="F284" s="4">
-        <v>0.47499999999999998</v>
+      <c r="F284" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="G284" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="H284" s="4" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:7">
       <c r="A285" s="3" t="s">
         <v>605</v>
       </c>
       <c r="B285" s="4">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="C285" s="4">
-        <v>5.75</v>
+        <v>5.85</v>
       </c>
       <c r="D285" s="4">
+        <v>5.72</v>
+      </c>
+      <c r="E285" s="4">
         <v>5.85</v>
       </c>
-      <c r="E285" s="4">
-        <v>5.72</v>
-      </c>
-      <c r="F285" s="4">
-        <v>5.85</v>
+      <c r="F285" s="4" t="s">
+        <v>606</v>
       </c>
       <c r="G285" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="H285" s="4" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:7">
       <c r="A286" s="3" t="s">
         <v>608</v>
       </c>
@@ -10208,43 +9353,37 @@
       <c r="E286" s="4">
         <v>3.09</v>
       </c>
-      <c r="F286" s="4">
-        <v>3.09</v>
+      <c r="F286" s="4" t="s">
+        <v>609</v>
       </c>
       <c r="G286" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="H286" s="4" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:7">
       <c r="A287" s="3" t="s">
         <v>611</v>
       </c>
       <c r="B287" s="4">
-        <v>3.58</v>
+        <v>3.6</v>
       </c>
       <c r="C287" s="4">
         <v>3.6</v>
       </c>
       <c r="D287" s="4">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
       <c r="E287" s="4">
         <v>3.58</v>
       </c>
-      <c r="F287" s="4">
-        <v>3.58</v>
+      <c r="F287" s="4" t="s">
+        <v>612</v>
       </c>
       <c r="G287" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="H287" s="4" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:7">
       <c r="A288" s="3" t="s">
         <v>614</v>
       </c>
@@ -10252,103 +9391,91 @@
         <v>14.9</v>
       </c>
       <c r="C288" s="4">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="D288" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="E288" s="4">
         <v>15</v>
       </c>
-      <c r="E288" s="4">
-        <v>14.8</v>
-      </c>
-      <c r="F288" s="4">
-        <v>15</v>
+      <c r="F288" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="G288" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="H288" s="4" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:7">
       <c r="A289" s="3" t="s">
         <v>617</v>
       </c>
       <c r="B289" s="4">
-        <v>0.20300000000000001</v>
+        <v>0.182</v>
       </c>
       <c r="C289" s="4">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="D289" s="4">
         <v>0.182</v>
       </c>
-      <c r="D289" s="4">
+      <c r="E289" s="4">
         <v>0.19700000000000001</v>
       </c>
-      <c r="E289" s="4">
-        <v>0.182</v>
-      </c>
-      <c r="F289" s="4">
-        <v>0.19700000000000001</v>
+      <c r="F289" s="4" t="s">
+        <v>618</v>
       </c>
       <c r="G289" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="H289" s="4" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:7">
       <c r="A290" s="3" t="s">
         <v>620</v>
       </c>
       <c r="B290" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="C290" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="D290" s="4">
         <v>1.32</v>
       </c>
-      <c r="C290" s="4">
+      <c r="E290" s="4">
         <v>1.39</v>
       </c>
-      <c r="D290" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="E290" s="4">
-        <v>1.32</v>
-      </c>
-      <c r="F290" s="4">
-        <v>1.39</v>
+      <c r="F290" s="4" t="s">
+        <v>621</v>
       </c>
       <c r="G290" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="H290" s="4" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:7">
       <c r="A291" s="3" t="s">
         <v>623</v>
       </c>
       <c r="B291" s="4">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="C291" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="D291" s="4">
         <v>0.71</v>
       </c>
-      <c r="D291" s="4">
+      <c r="E291" s="4">
         <v>0.77</v>
       </c>
-      <c r="E291" s="4">
-        <v>0.71</v>
-      </c>
-      <c r="F291" s="4">
-        <v>0.77</v>
+      <c r="F291" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="G291" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="H291" s="4" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:7">
       <c r="A292" s="3" t="s">
         <v>625</v>
       </c>
@@ -10356,25 +9483,22 @@
         <v>54.6</v>
       </c>
       <c r="C292" s="4">
-        <v>54.6</v>
+        <v>54.65</v>
       </c>
       <c r="D292" s="4">
-        <v>54.65</v>
+        <v>54</v>
       </c>
       <c r="E292" s="4">
-        <v>54</v>
-      </c>
-      <c r="F292" s="4">
         <v>54.1</v>
       </c>
+      <c r="F292" s="4" t="s">
+        <v>626</v>
+      </c>
       <c r="G292" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="H292" s="4" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:7">
       <c r="A293" s="3" t="s">
         <v>628</v>
       </c>
@@ -10391,42 +9515,36 @@
         <v>3.69</v>
       </c>
       <c r="F293" s="4">
-        <v>3.69</v>
+        <v>0</v>
       </c>
       <c r="G293" s="4">
         <v>0</v>
       </c>
-      <c r="H293" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294" s="3" t="s">
         <v>629</v>
       </c>
       <c r="B294" s="4">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C294" s="4">
+        <v>34.85</v>
+      </c>
+      <c r="D294" s="4">
         <v>34.5</v>
       </c>
-      <c r="D294" s="4">
-        <v>34.85</v>
-      </c>
       <c r="E294" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="F294" s="4">
         <v>34.75</v>
       </c>
+      <c r="F294" s="4" t="s">
+        <v>630</v>
+      </c>
       <c r="G294" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="H294" s="4" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:7">
       <c r="A295" s="3" t="s">
         <v>632</v>
       </c>
@@ -10434,51 +9552,45 @@
         <v>88.1</v>
       </c>
       <c r="C295" s="4">
-        <v>88.1</v>
+        <v>88.5</v>
       </c>
       <c r="D295" s="4">
+        <v>86.9</v>
+      </c>
+      <c r="E295" s="4">
         <v>88.5</v>
       </c>
-      <c r="E295" s="4">
-        <v>86.9</v>
-      </c>
-      <c r="F295" s="4">
-        <v>88.5</v>
+      <c r="F295" s="4" t="s">
+        <v>633</v>
       </c>
       <c r="G295" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="H295" s="4" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:7">
       <c r="A296" s="3" t="s">
         <v>635</v>
       </c>
       <c r="B296" s="4">
-        <v>70</v>
+        <v>72.849999999999994</v>
       </c>
       <c r="C296" s="4">
         <v>72.849999999999994</v>
       </c>
       <c r="D296" s="4">
-        <v>72.849999999999994</v>
+        <v>71</v>
       </c>
       <c r="E296" s="4">
-        <v>71</v>
-      </c>
-      <c r="F296" s="4">
         <v>71.5</v>
       </c>
+      <c r="F296" s="4" t="s">
+        <v>636</v>
+      </c>
       <c r="G296" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="H296" s="4" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:7">
       <c r="A297" s="3" t="s">
         <v>638</v>
       </c>
@@ -10486,25 +9598,22 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="C297" s="4">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D297" s="4">
         <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="D297" s="4">
-        <v>7.8E-2</v>
       </c>
       <c r="E297" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="F297" s="4">
-        <v>7.6999999999999999E-2</v>
+      <c r="F297" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="G297" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="H297" s="4" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:7">
       <c r="A298" s="3" t="s">
         <v>640</v>
       </c>
@@ -10521,94 +9630,82 @@
         <v>1.95</v>
       </c>
       <c r="F298" s="4">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="G298" s="4">
         <v>0</v>
       </c>
-      <c r="H298" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299" s="3" t="s">
         <v>641</v>
       </c>
       <c r="B299" s="4">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="C299" s="4">
         <v>0.88</v>
       </c>
       <c r="D299" s="4">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="E299" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="F299" s="4">
         <v>0.87</v>
       </c>
+      <c r="F299" s="4" t="s">
+        <v>532</v>
+      </c>
       <c r="G299" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="H299" s="4" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:7">
       <c r="A300" s="3" t="s">
         <v>643</v>
       </c>
       <c r="B300" s="4">
-        <v>11.2</v>
+        <v>11.26</v>
       </c>
       <c r="C300" s="4">
-        <v>11.26</v>
+        <v>11.32</v>
       </c>
       <c r="D300" s="4">
-        <v>11.32</v>
+        <v>11.16</v>
       </c>
       <c r="E300" s="4">
-        <v>11.16</v>
-      </c>
-      <c r="F300" s="4">
         <v>11.28</v>
       </c>
+      <c r="F300" s="4" t="s">
+        <v>644</v>
+      </c>
       <c r="G300" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="H300" s="4" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:7">
       <c r="A301" s="3" t="s">
         <v>646</v>
       </c>
       <c r="B301" s="4">
+        <v>16.8</v>
+      </c>
+      <c r="C301" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="C301" s="4">
-        <v>16.8</v>
-      </c>
       <c r="D301" s="4">
-        <v>16.899999999999999</v>
+        <v>16.72</v>
       </c>
       <c r="E301" s="4">
         <v>16.72</v>
       </c>
-      <c r="F301" s="4">
-        <v>16.72</v>
+      <c r="F301" s="4" t="s">
+        <v>647</v>
       </c>
       <c r="G301" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="H301" s="4" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:7">
       <c r="A302" s="3" t="s">
         <v>649</v>
       </c>
@@ -10625,21 +9722,18 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F302" s="4">
-        <v>2.5499999999999998</v>
+        <v>0</v>
       </c>
       <c r="G302" s="4">
         <v>0</v>
       </c>
-      <c r="H302" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303" s="3" t="s">
         <v>650</v>
       </c>
       <c r="B303" s="5">
-        <v>2560</v>
+        <v>2500</v>
       </c>
       <c r="C303" s="5">
         <v>2500</v>
@@ -10650,69 +9744,60 @@
       <c r="E303" s="5">
         <v>2500</v>
       </c>
-      <c r="F303" s="5">
-        <v>2500</v>
-      </c>
-      <c r="G303" s="4">
+      <c r="F303" s="4">
         <v>215</v>
       </c>
-      <c r="H303" s="4" t="s">
+      <c r="G303" s="4" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:7">
       <c r="A304" s="3" t="s">
         <v>652</v>
       </c>
       <c r="B304" s="4">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="C304" s="4">
+        <v>3.24</v>
+      </c>
+      <c r="D304" s="4">
         <v>3.22</v>
       </c>
-      <c r="D304" s="4">
+      <c r="E304" s="4">
         <v>3.24</v>
       </c>
-      <c r="E304" s="4">
-        <v>3.22</v>
-      </c>
-      <c r="F304" s="4">
-        <v>3.24</v>
+      <c r="F304" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="G304" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="H304" s="4" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:7">
       <c r="A305" s="3" t="s">
         <v>654</v>
       </c>
       <c r="B305" s="4">
+        <v>920</v>
+      </c>
+      <c r="C305" s="4">
         <v>930</v>
       </c>
-      <c r="C305" s="4">
-        <v>920</v>
-      </c>
       <c r="D305" s="4">
-        <v>930</v>
+        <v>901</v>
       </c>
       <c r="E305" s="4">
-        <v>901</v>
-      </c>
-      <c r="F305" s="4">
         <v>910</v>
       </c>
+      <c r="F305" s="4" t="s">
+        <v>655</v>
+      </c>
       <c r="G305" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="H305" s="4" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:7">
       <c r="A306" s="3" t="s">
         <v>657</v>
       </c>
@@ -10720,25 +9805,22 @@
         <v>93.85</v>
       </c>
       <c r="C306" s="4">
-        <v>93.85</v>
+        <v>94</v>
       </c>
       <c r="D306" s="4">
+        <v>92.95</v>
+      </c>
+      <c r="E306" s="4">
         <v>94</v>
       </c>
-      <c r="E306" s="4">
-        <v>92.95</v>
-      </c>
-      <c r="F306" s="4">
-        <v>94</v>
+      <c r="F306" s="4" t="s">
+        <v>658</v>
       </c>
       <c r="G306" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="H306" s="4" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:7">
       <c r="A307" s="3" t="s">
         <v>660</v>
       </c>
@@ -10755,16 +9837,13 @@
         <v>74</v>
       </c>
       <c r="F307" s="4">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G307" s="4">
         <v>0</v>
       </c>
-      <c r="H307" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308" s="3" t="s">
         <v>661</v>
       </c>
@@ -10781,16 +9860,13 @@
         <v>76.05</v>
       </c>
       <c r="F308" s="4">
-        <v>76.05</v>
+        <v>0</v>
       </c>
       <c r="G308" s="4">
         <v>0</v>
       </c>
-      <c r="H308" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309" s="3" t="s">
         <v>662</v>
       </c>
@@ -10807,16 +9883,13 @@
         <v>76.349999999999994</v>
       </c>
       <c r="F309" s="4">
-        <v>76.349999999999994</v>
+        <v>0</v>
       </c>
       <c r="G309" s="4">
         <v>0</v>
       </c>
-      <c r="H309" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310" s="3" t="s">
         <v>663</v>
       </c>
@@ -10833,16 +9906,13 @@
         <v>75.3</v>
       </c>
       <c r="F310" s="4">
-        <v>75.3</v>
+        <v>0</v>
       </c>
       <c r="G310" s="4">
         <v>0</v>
       </c>
-      <c r="H310" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311" s="3" t="s">
         <v>664</v>
       </c>
@@ -10859,21 +9929,18 @@
         <v>76.55</v>
       </c>
       <c r="F311" s="4">
-        <v>76.55</v>
+        <v>0</v>
       </c>
       <c r="G311" s="4">
         <v>0</v>
       </c>
-      <c r="H311" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312" s="3" t="s">
         <v>665</v>
       </c>
       <c r="B312" s="4">
-        <v>75.05</v>
+        <v>75</v>
       </c>
       <c r="C312" s="4">
         <v>75</v>
@@ -10884,17 +9951,14 @@
       <c r="E312" s="4">
         <v>75</v>
       </c>
-      <c r="F312" s="4">
-        <v>75</v>
+      <c r="F312" s="4" t="s">
+        <v>666</v>
       </c>
       <c r="G312" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="H312" s="4" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:7">
       <c r="A313" s="3" t="s">
         <v>668</v>
       </c>
@@ -10911,16 +9975,13 @@
         <v>76.7</v>
       </c>
       <c r="F313" s="4">
-        <v>76.7</v>
+        <v>0</v>
       </c>
       <c r="G313" s="4">
         <v>0</v>
       </c>
-      <c r="H313" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
+    </row>
+    <row r="314" spans="1:7">
       <c r="A314" s="3" t="s">
         <v>669</v>
       </c>
@@ -10937,94 +9998,82 @@
         <v>75</v>
       </c>
       <c r="F314" s="4">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G314" s="4">
         <v>0</v>
       </c>
-      <c r="H314" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315" s="3" t="s">
         <v>670</v>
       </c>
       <c r="B315" s="4">
-        <v>75</v>
+        <v>75.5</v>
       </c>
       <c r="C315" s="4">
         <v>75.5</v>
       </c>
       <c r="D315" s="4">
-        <v>75.5</v>
+        <v>75</v>
       </c>
       <c r="E315" s="4">
         <v>75</v>
       </c>
-      <c r="F315" s="4">
-        <v>75</v>
+      <c r="F315" s="4" t="s">
+        <v>671</v>
       </c>
       <c r="G315" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="H315" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:7">
       <c r="A316" s="3" t="s">
         <v>672</v>
       </c>
       <c r="B316" s="4">
-        <v>70.150000000000006</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="C316" s="4">
-        <v>72.900000000000006</v>
+        <v>73</v>
       </c>
       <c r="D316" s="4">
-        <v>73</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="E316" s="4">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="F316" s="4">
         <v>71.150000000000006</v>
       </c>
+      <c r="F316" s="4" t="s">
+        <v>673</v>
+      </c>
       <c r="G316" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="H316" s="4" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:7">
       <c r="A317" s="3" t="s">
         <v>675</v>
       </c>
       <c r="B317" s="4">
-        <v>71</v>
+        <v>71.5</v>
       </c>
       <c r="C317" s="4">
+        <v>72</v>
+      </c>
+      <c r="D317" s="4">
         <v>71.5</v>
       </c>
-      <c r="D317" s="4">
+      <c r="E317" s="4">
         <v>72</v>
       </c>
-      <c r="E317" s="4">
-        <v>71.5</v>
-      </c>
-      <c r="F317" s="4">
-        <v>72</v>
+      <c r="F317" s="4" t="s">
+        <v>676</v>
       </c>
       <c r="G317" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="H317" s="4" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:7">
       <c r="A318" s="3" t="s">
         <v>678</v>
       </c>
@@ -11041,16 +10090,13 @@
         <v>74</v>
       </c>
       <c r="F318" s="4">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G318" s="4">
         <v>0</v>
       </c>
-      <c r="H318" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
+    </row>
+    <row r="319" spans="1:7">
       <c r="A319" s="3" t="s">
         <v>679</v>
       </c>
@@ -11058,25 +10104,22 @@
         <v>35.5</v>
       </c>
       <c r="C319" s="4">
-        <v>35.5</v>
+        <v>35.950000000000003</v>
       </c>
       <c r="D319" s="4">
-        <v>35.950000000000003</v>
+        <v>34.6</v>
       </c>
       <c r="E319" s="4">
-        <v>34.6</v>
-      </c>
-      <c r="F319" s="4">
         <v>34.9</v>
       </c>
+      <c r="F319" s="4" t="s">
+        <v>680</v>
+      </c>
       <c r="G319" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="H319" s="4" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:7">
       <c r="A320" s="3" t="s">
         <v>682</v>
       </c>
@@ -11093,16 +10136,13 @@
         <v>0.46</v>
       </c>
       <c r="F320" s="4">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="G320" s="4">
         <v>0</v>
       </c>
-      <c r="H320" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8">
+    </row>
+    <row r="321" spans="1:7">
       <c r="A321" s="3" t="s">
         <v>683</v>
       </c>
@@ -11113,22 +10153,19 @@
         <v>9.34</v>
       </c>
       <c r="D321" s="4">
-        <v>9.34</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="E321" s="4">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="F321" s="4">
         <v>9.25</v>
       </c>
+      <c r="F321" s="4" t="s">
+        <v>684</v>
+      </c>
       <c r="G321" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="H321" s="4" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:7">
       <c r="A322" s="3" t="s">
         <v>686</v>
       </c>
@@ -11139,22 +10176,19 @@
         <v>1.72</v>
       </c>
       <c r="D322" s="4">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="E322" s="4">
         <v>1.7</v>
       </c>
-      <c r="F322" s="4">
-        <v>1.7</v>
+      <c r="F322" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="G322" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="H322" s="4" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:7">
       <c r="A323" s="3" t="s">
         <v>688</v>
       </c>
@@ -11165,22 +10199,19 @@
         <v>1.22</v>
       </c>
       <c r="D323" s="4">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="E323" s="4">
-        <v>1.19</v>
-      </c>
-      <c r="F323" s="4">
         <v>1.2</v>
       </c>
+      <c r="F323" s="4" t="s">
+        <v>689</v>
+      </c>
       <c r="G323" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="H323" s="4" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:7">
       <c r="A324" s="3" t="s">
         <v>691</v>
       </c>
@@ -11197,16 +10228,13 @@
         <v>0.8</v>
       </c>
       <c r="F324" s="4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G324" s="4">
         <v>0</v>
       </c>
-      <c r="H324" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
+    </row>
+    <row r="325" spans="1:7">
       <c r="A325" s="3" t="s">
         <v>692</v>
       </c>
@@ -11214,77 +10242,68 @@
         <v>1.52</v>
       </c>
       <c r="C325" s="4">
+        <v>1.53</v>
+      </c>
+      <c r="D325" s="4">
         <v>1.52</v>
-      </c>
-      <c r="D325" s="4">
-        <v>1.53</v>
       </c>
       <c r="E325" s="4">
         <v>1.52</v>
       </c>
-      <c r="F325" s="4">
-        <v>1.52</v>
+      <c r="F325" s="4" t="s">
+        <v>693</v>
       </c>
       <c r="G325" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="H325" s="4" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:7">
       <c r="A326" s="3" t="s">
         <v>695</v>
       </c>
       <c r="B326" s="4">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="C326" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="D326" s="4">
         <v>1.44</v>
       </c>
-      <c r="D326" s="4">
-        <v>1.48</v>
-      </c>
       <c r="E326" s="4">
-        <v>1.44</v>
-      </c>
-      <c r="F326" s="4">
         <v>1.46</v>
       </c>
+      <c r="F326" s="4" t="s">
+        <v>696</v>
+      </c>
       <c r="G326" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="H326" s="4" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:7">
       <c r="A327" s="3" t="s">
         <v>698</v>
       </c>
       <c r="B327" s="4">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="C327" s="4">
         <v>0.34</v>
       </c>
-      <c r="C327" s="4">
+      <c r="D327" s="4">
         <v>0.33500000000000002</v>
       </c>
-      <c r="D327" s="4">
+      <c r="E327" s="4">
         <v>0.34</v>
       </c>
-      <c r="E327" s="4">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="F327" s="4">
-        <v>0.34</v>
+      <c r="F327" s="4" t="s">
+        <v>699</v>
       </c>
       <c r="G327" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="H327" s="4" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:7">
       <c r="A328" s="3" t="s">
         <v>701</v>
       </c>
@@ -11301,42 +10320,36 @@
         <v>0.26</v>
       </c>
       <c r="F328" s="4">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="G328" s="4">
         <v>0</v>
       </c>
-      <c r="H328" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8">
+    </row>
+    <row r="329" spans="1:7">
       <c r="A329" s="3" t="s">
         <v>702</v>
       </c>
       <c r="B329" s="4">
-        <v>3.06</v>
+        <v>2.84</v>
       </c>
       <c r="C329" s="4">
+        <v>2.98</v>
+      </c>
+      <c r="D329" s="4">
         <v>2.84</v>
       </c>
-      <c r="D329" s="4">
-        <v>2.98</v>
-      </c>
       <c r="E329" s="4">
-        <v>2.84</v>
-      </c>
-      <c r="F329" s="4">
         <v>2.91</v>
       </c>
+      <c r="F329" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="G329" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="H329" s="4" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:7">
       <c r="A330" s="3" t="s">
         <v>705</v>
       </c>
@@ -11353,21 +10366,18 @@
         <v>0.99</v>
       </c>
       <c r="F330" s="4">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="G330" s="4">
         <v>0</v>
       </c>
-      <c r="H330" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8">
+    </row>
+    <row r="331" spans="1:7">
       <c r="A331" s="3" t="s">
         <v>706</v>
       </c>
       <c r="B331" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.52</v>
       </c>
       <c r="C331" s="4">
         <v>0.52</v>
@@ -11378,43 +10388,37 @@
       <c r="E331" s="4">
         <v>0.52</v>
       </c>
-      <c r="F331" s="4">
-        <v>0.52</v>
+      <c r="F331" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="G331" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="H331" s="4" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:7">
       <c r="A332" s="3" t="s">
         <v>708</v>
       </c>
       <c r="B332" s="4">
-        <v>0.215</v>
+        <v>0.22</v>
       </c>
       <c r="C332" s="4">
         <v>0.22</v>
       </c>
       <c r="D332" s="4">
-        <v>0.22</v>
+        <v>0.216</v>
       </c>
       <c r="E332" s="4">
         <v>0.216</v>
       </c>
-      <c r="F332" s="4">
-        <v>0.216</v>
+      <c r="F332" s="4" t="s">
+        <v>709</v>
       </c>
       <c r="G332" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="H332" s="4" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:7">
       <c r="A333" s="3" t="s">
         <v>711</v>
       </c>
@@ -11430,17 +10434,14 @@
       <c r="E333" s="4">
         <v>0.95</v>
       </c>
-      <c r="F333" s="4">
-        <v>0.95</v>
+      <c r="F333" s="4" t="s">
+        <v>712</v>
       </c>
       <c r="G333" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="H333" s="4" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:7">
       <c r="A334" s="3" t="s">
         <v>714</v>
       </c>
@@ -11457,16 +10458,13 @@
         <v>1</v>
       </c>
       <c r="F334" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G334" s="4">
         <v>0</v>
       </c>
-      <c r="H334" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8">
+    </row>
+    <row r="335" spans="1:7">
       <c r="A335" s="3" t="s">
         <v>715</v>
       </c>
@@ -11483,16 +10481,13 @@
         <v>52.8</v>
       </c>
       <c r="F335" s="4">
-        <v>52.8</v>
+        <v>0</v>
       </c>
       <c r="G335" s="4">
         <v>0</v>
       </c>
-      <c r="H335" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8">
+    </row>
+    <row r="336" spans="1:7">
       <c r="A336" s="3" t="s">
         <v>716</v>
       </c>
@@ -11508,43 +10503,37 @@
       <c r="E336" s="4">
         <v>52.5</v>
       </c>
-      <c r="F336" s="4">
-        <v>52.5</v>
+      <c r="F336" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="G336" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="H336" s="4" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:7">
       <c r="A337" s="3" t="s">
         <v>718</v>
       </c>
       <c r="B337" s="4">
+        <v>2.73</v>
+      </c>
+      <c r="C337" s="4">
         <v>2.75</v>
       </c>
-      <c r="C337" s="4">
-        <v>2.73</v>
-      </c>
       <c r="D337" s="4">
+        <v>2.66</v>
+      </c>
+      <c r="E337" s="4">
         <v>2.75</v>
       </c>
-      <c r="E337" s="4">
-        <v>2.66</v>
-      </c>
-      <c r="F337" s="4">
-        <v>2.75</v>
+      <c r="F337" s="4" t="s">
+        <v>719</v>
       </c>
       <c r="G337" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="H337" s="4" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:7">
       <c r="A338" s="3" t="s">
         <v>721</v>
       </c>
@@ -11552,51 +10541,45 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="C338" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D338" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D338" s="4">
+      <c r="E338" s="4">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E338" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F338" s="4">
-        <v>0.57999999999999996</v>
+      <c r="F338" s="4" t="s">
+        <v>722</v>
       </c>
       <c r="G338" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="H338" s="4" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:7">
       <c r="A339" s="3" t="s">
         <v>724</v>
       </c>
       <c r="B339" s="5">
-        <v>1262</v>
+        <v>1279</v>
       </c>
       <c r="C339" s="5">
-        <v>1279</v>
+        <v>1324</v>
       </c>
       <c r="D339" s="5">
-        <v>1324</v>
+        <v>1276</v>
       </c>
       <c r="E339" s="5">
-        <v>1276</v>
-      </c>
-      <c r="F339" s="5">
         <v>1313</v>
       </c>
+      <c r="F339" s="4" t="s">
+        <v>725</v>
+      </c>
       <c r="G339" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="H339" s="4" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:7">
       <c r="A340" s="3" t="s">
         <v>727</v>
       </c>
@@ -11613,42 +10596,36 @@
         <v>43.25</v>
       </c>
       <c r="F340" s="4">
-        <v>43.25</v>
+        <v>0</v>
       </c>
       <c r="G340" s="4">
         <v>0</v>
       </c>
-      <c r="H340" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
+    </row>
+    <row r="341" spans="1:7">
       <c r="A341" s="3" t="s">
         <v>728</v>
       </c>
       <c r="B341" s="4">
-        <v>95.9</v>
+        <v>95.5</v>
       </c>
       <c r="C341" s="4">
         <v>95.5</v>
       </c>
       <c r="D341" s="4">
+        <v>95</v>
+      </c>
+      <c r="E341" s="4">
         <v>95.5</v>
       </c>
-      <c r="E341" s="4">
-        <v>95</v>
-      </c>
       <c r="F341" s="4">
-        <v>95.5</v>
-      </c>
-      <c r="G341" s="4">
         <v>150</v>
       </c>
-      <c r="H341" s="4" t="s">
+      <c r="G341" s="4" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:7">
       <c r="A342" s="3" t="s">
         <v>730</v>
       </c>
@@ -11665,16 +10642,13 @@
         <v>10</v>
       </c>
       <c r="F342" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G342" s="4">
         <v>0</v>
       </c>
-      <c r="H342" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8">
+    </row>
+    <row r="343" spans="1:7">
       <c r="A343" s="3" t="s">
         <v>731</v>
       </c>
@@ -11691,16 +10665,13 @@
         <v>10</v>
       </c>
       <c r="F343" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G343" s="4">
         <v>0</v>
       </c>
-      <c r="H343" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8">
+    </row>
+    <row r="344" spans="1:7">
       <c r="A344" s="3" t="s">
         <v>732</v>
       </c>
@@ -11711,22 +10682,19 @@
         <v>0.92</v>
       </c>
       <c r="D344" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E344" s="4">
         <v>0.92</v>
       </c>
-      <c r="E344" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="F344" s="4">
-        <v>0.92</v>
+      <c r="F344" s="4" t="s">
+        <v>733</v>
       </c>
       <c r="G344" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="H344" s="4" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:7">
       <c r="A345" s="3" t="s">
         <v>735</v>
       </c>
@@ -11734,25 +10702,22 @@
         <v>83.1</v>
       </c>
       <c r="C345" s="4">
+        <v>85.8</v>
+      </c>
+      <c r="D345" s="4">
         <v>83.1</v>
       </c>
-      <c r="D345" s="4">
+      <c r="E345" s="4">
         <v>85.8</v>
       </c>
-      <c r="E345" s="4">
-        <v>83.1</v>
-      </c>
-      <c r="F345" s="4">
-        <v>85.8</v>
+      <c r="F345" s="4" t="s">
+        <v>736</v>
       </c>
       <c r="G345" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="H345" s="4" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:7">
       <c r="A346" s="3" t="s">
         <v>738</v>
       </c>
@@ -11769,16 +10734,13 @@
         <v>0.246</v>
       </c>
       <c r="F346" s="4">
-        <v>0.246</v>
+        <v>0</v>
       </c>
       <c r="G346" s="4">
         <v>0</v>
       </c>
-      <c r="H346" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8">
+    </row>
+    <row r="347" spans="1:7">
       <c r="A347" s="3" t="s">
         <v>739</v>
       </c>
@@ -11795,68 +10757,59 @@
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="F347" s="4">
-        <v>5.4000000000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="G347" s="4">
         <v>0</v>
       </c>
-      <c r="H347" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8">
+    </row>
+    <row r="348" spans="1:7">
       <c r="A348" s="3" t="s">
         <v>740</v>
       </c>
       <c r="B348" s="4">
-        <v>137.5</v>
+        <v>134.4</v>
       </c>
       <c r="C348" s="4">
+        <v>138</v>
+      </c>
+      <c r="D348" s="4">
         <v>134.4</v>
       </c>
-      <c r="D348" s="4">
-        <v>138</v>
-      </c>
       <c r="E348" s="4">
-        <v>134.4</v>
-      </c>
-      <c r="F348" s="4">
         <v>136.5</v>
       </c>
+      <c r="F348" s="4" t="s">
+        <v>741</v>
+      </c>
       <c r="G348" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="H348" s="4" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:7">
       <c r="A349" s="3" t="s">
         <v>743</v>
       </c>
       <c r="B349" s="4">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="C349" s="4">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D349" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="E349" s="4">
         <v>0.8</v>
       </c>
-      <c r="E349" s="4">
-        <v>0.78</v>
-      </c>
-      <c r="F349" s="4">
-        <v>0.8</v>
+      <c r="F349" s="4" t="s">
+        <v>744</v>
       </c>
       <c r="G349" s="4" t="s">
-        <v>744</v>
-      </c>
-      <c r="H349" s="4" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:7">
       <c r="A350" s="3" t="s">
         <v>746</v>
       </c>
@@ -11864,77 +10817,68 @@
         <v>0.59</v>
       </c>
       <c r="C350" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D350" s="4">
         <v>0.59</v>
-      </c>
-      <c r="D350" s="4">
-        <v>0.6</v>
       </c>
       <c r="E350" s="4">
         <v>0.59</v>
       </c>
-      <c r="F350" s="4">
-        <v>0.59</v>
+      <c r="F350" s="4" t="s">
+        <v>747</v>
       </c>
       <c r="G350" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="H350" s="4" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:7">
       <c r="A351" s="3" t="s">
         <v>749</v>
       </c>
       <c r="B351" s="4">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="C351" s="4">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="D351" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E351" s="4">
         <v>1.55</v>
       </c>
-      <c r="E351" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F351" s="4">
-        <v>1.55</v>
+      <c r="F351" s="4" t="s">
+        <v>599</v>
       </c>
       <c r="G351" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="H351" s="4" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:7">
       <c r="A352" s="3" t="s">
         <v>751</v>
       </c>
       <c r="B352" s="4">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="C352" s="4">
         <v>3</v>
       </c>
       <c r="D352" s="4">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="E352" s="4">
         <v>2.98</v>
       </c>
-      <c r="F352" s="4">
-        <v>2.98</v>
+      <c r="F352" s="4" t="s">
+        <v>418</v>
       </c>
       <c r="G352" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="H352" s="4" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:7">
       <c r="A353" s="3" t="s">
         <v>753</v>
       </c>
@@ -11942,56 +10886,50 @@
         <v>1.59</v>
       </c>
       <c r="C353" s="4">
+        <v>1.63</v>
+      </c>
+      <c r="D353" s="4">
         <v>1.59</v>
       </c>
-      <c r="D353" s="4">
-        <v>1.63</v>
-      </c>
       <c r="E353" s="4">
-        <v>1.59</v>
-      </c>
-      <c r="F353" s="4">
         <v>1.61</v>
       </c>
+      <c r="F353" s="4" t="s">
+        <v>754</v>
+      </c>
       <c r="G353" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="H353" s="4" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:7">
       <c r="A354" s="3" t="s">
         <v>756</v>
       </c>
       <c r="B354" s="4">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="C354" s="4">
         <v>0.83</v>
       </c>
       <c r="D354" s="4">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="E354" s="4">
         <v>0.8</v>
       </c>
-      <c r="F354" s="4">
-        <v>0.8</v>
+      <c r="F354" s="4" t="s">
+        <v>757</v>
       </c>
       <c r="G354" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="H354" s="4" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:7">
       <c r="A355" s="3" t="s">
         <v>759</v>
       </c>
       <c r="B355" s="4">
-        <v>12.82</v>
+        <v>15.9</v>
       </c>
       <c r="C355" s="4">
         <v>15.9</v>
@@ -12003,42 +10941,36 @@
         <v>15.9</v>
       </c>
       <c r="F355" s="4">
-        <v>15.9</v>
-      </c>
-      <c r="G355" s="4">
         <v>400</v>
       </c>
-      <c r="H355" s="4" t="s">
+      <c r="G355" s="4" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:7">
       <c r="A356" s="3" t="s">
         <v>761</v>
       </c>
       <c r="B356" s="4">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="C356" s="4">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="D356" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E356" s="4">
         <v>2.66</v>
       </c>
-      <c r="E356" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F356" s="4">
-        <v>2.66</v>
+      <c r="F356" s="4" t="s">
+        <v>762</v>
       </c>
       <c r="G356" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="H356" s="4" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:7">
       <c r="A357" s="3" t="s">
         <v>764</v>
       </c>
@@ -12054,43 +10986,37 @@
       <c r="E357" s="4">
         <v>0.23</v>
       </c>
-      <c r="F357" s="4">
-        <v>0.23</v>
+      <c r="F357" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="G357" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="H357" s="4" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:7">
       <c r="A358" s="3" t="s">
         <v>766</v>
       </c>
       <c r="B358" s="4">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="C358" s="4">
-        <v>29.2</v>
+        <v>29.25</v>
       </c>
       <c r="D358" s="4">
-        <v>29.25</v>
+        <v>28.65</v>
       </c>
       <c r="E358" s="4">
-        <v>28.65</v>
-      </c>
-      <c r="F358" s="4">
         <v>29</v>
       </c>
+      <c r="F358" s="4" t="s">
+        <v>767</v>
+      </c>
       <c r="G358" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="H358" s="4" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:7">
       <c r="A359" s="3" t="s">
         <v>769</v>
       </c>
@@ -12107,21 +11033,18 @@
         <v>0.45</v>
       </c>
       <c r="F359" s="4">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="G359" s="4">
         <v>0</v>
       </c>
-      <c r="H359" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8">
+    </row>
+    <row r="360" spans="1:7">
       <c r="A360" s="3" t="s">
         <v>770</v>
       </c>
       <c r="B360" s="4">
-        <v>0.27</v>
+        <v>0.255</v>
       </c>
       <c r="C360" s="4">
         <v>0.255</v>
@@ -12132,17 +11055,14 @@
       <c r="E360" s="4">
         <v>0.255</v>
       </c>
-      <c r="F360" s="4">
-        <v>0.255</v>
+      <c r="F360" s="4" t="s">
+        <v>771</v>
       </c>
       <c r="G360" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="H360" s="4" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:7">
       <c r="A361" s="3" t="s">
         <v>773</v>
       </c>
@@ -12159,12 +11079,9 @@
         <v>0.13</v>
       </c>
       <c r="F361" s="4">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="G361" s="4">
-        <v>0</v>
-      </c>
-      <c r="H361" s="4">
         <v>0</v>
       </c>
     </row>

--- a/2022-12/PSE-2022-12-28.xlsx
+++ b/2022-12/PSE-2022-12-28.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26024"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFBDE409-A6F9-4864-BE99-C1996FBD5E50}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71CD3C53-F396-4C71-916C-1B2D090D0E43}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="771">
   <si>
     <t>2GO</t>
   </si>
@@ -711,12 +711,6 @@
     <t>DMPA2</t>
   </si>
   <si>
-    <t>DMPI</t>
-  </si>
-  <si>
-    <t>(N/A)</t>
-  </si>
-  <si>
     <t>DMW</t>
   </si>
   <si>
@@ -1534,9 +1528,6 @@
   </si>
   <si>
     <t>NRCP</t>
-  </si>
-  <si>
-    <t>NSTAR</t>
   </si>
   <si>
     <t>NXGEN</t>
@@ -2774,10 +2765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G361"/>
+  <dimension ref="A1:G359"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="A235" sqref="A235:XFD235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5109,69 +5100,69 @@
       <c r="A102" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>228</v>
+      <c r="B102" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="C102" s="4">
+        <v>6.71</v>
+      </c>
+      <c r="D102" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="E102" s="4">
+        <v>6.71</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>228</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B103" s="4">
-        <v>6.7</v>
+        <v>2.86</v>
       </c>
       <c r="C103" s="4">
-        <v>6.71</v>
+        <v>2.86</v>
       </c>
       <c r="D103" s="4">
-        <v>6.7</v>
+        <v>2.86</v>
       </c>
       <c r="E103" s="4">
-        <v>6.71</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>231</v>
+        <v>2.86</v>
+      </c>
+      <c r="F103" s="4">
+        <v>0</v>
+      </c>
+      <c r="G103" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B104" s="4">
+        <v>7.85</v>
+      </c>
+      <c r="C104" s="4">
+        <v>7.85</v>
+      </c>
+      <c r="D104" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="E104" s="4">
+        <v>7.81</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G104" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="B104" s="4">
-        <v>2.86</v>
-      </c>
-      <c r="C104" s="4">
-        <v>2.86</v>
-      </c>
-      <c r="D104" s="4">
-        <v>2.86</v>
-      </c>
-      <c r="E104" s="4">
-        <v>2.86</v>
-      </c>
-      <c r="F104" s="4">
-        <v>0</v>
-      </c>
-      <c r="G104" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -5179,85 +5170,85 @@
         <v>233</v>
       </c>
       <c r="B105" s="4">
-        <v>7.85</v>
+        <v>10.25</v>
       </c>
       <c r="C105" s="4">
-        <v>7.85</v>
+        <v>10.25</v>
       </c>
       <c r="D105" s="4">
-        <v>7.7</v>
+        <v>10.25</v>
       </c>
       <c r="E105" s="4">
-        <v>7.81</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>234</v>
+        <v>10.25</v>
+      </c>
+      <c r="F105" s="4">
+        <v>0</v>
+      </c>
+      <c r="G105" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B106" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="C106" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="E106" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F106" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B106" s="4">
-        <v>10.25</v>
-      </c>
-      <c r="C106" s="4">
-        <v>10.25</v>
-      </c>
-      <c r="D106" s="4">
-        <v>10.25</v>
-      </c>
-      <c r="E106" s="4">
-        <v>10.25</v>
-      </c>
-      <c r="F106" s="4">
-        <v>0</v>
-      </c>
-      <c r="G106" s="4">
-        <v>0</v>
+      <c r="G106" s="4" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B107" s="4">
-        <v>1.3</v>
+        <v>17</v>
       </c>
       <c r="C107" s="4">
-        <v>1.3</v>
+        <v>17</v>
       </c>
       <c r="D107" s="4">
-        <v>1.3</v>
+        <v>17</v>
       </c>
       <c r="E107" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>238</v>
+        <v>17</v>
+      </c>
+      <c r="F107" s="4">
+        <v>0</v>
+      </c>
+      <c r="G107" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B108" s="4">
-        <v>17</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C108" s="4">
-        <v>17</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D108" s="4">
-        <v>17</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E108" s="4">
-        <v>17</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F108" s="4">
         <v>0</v>
@@ -5268,183 +5259,183 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B109" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="C109" s="4">
+        <v>2.85</v>
+      </c>
+      <c r="D109" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="E109" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="F109" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B109" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C109" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D109" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E109" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F109" s="4">
-        <v>0</v>
-      </c>
-      <c r="G109" s="4">
-        <v>0</v>
+      <c r="G109" s="4" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B110" s="4">
-        <v>2.83</v>
+        <v>96.1</v>
       </c>
       <c r="C110" s="4">
-        <v>2.85</v>
+        <v>96.1</v>
       </c>
       <c r="D110" s="4">
-        <v>2.8</v>
+        <v>96.1</v>
       </c>
       <c r="E110" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>243</v>
+        <v>96.1</v>
+      </c>
+      <c r="F110" s="4">
+        <v>0</v>
+      </c>
+      <c r="G110" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B111" s="4">
+        <v>100</v>
+      </c>
+      <c r="C111" s="4">
+        <v>100</v>
+      </c>
+      <c r="D111" s="4">
+        <v>100</v>
+      </c>
+      <c r="E111" s="4">
+        <v>100</v>
+      </c>
+      <c r="F111" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B111" s="4">
-        <v>96.1</v>
-      </c>
-      <c r="C111" s="4">
-        <v>96.1</v>
-      </c>
-      <c r="D111" s="4">
-        <v>96.1</v>
-      </c>
-      <c r="E111" s="4">
-        <v>96.1</v>
-      </c>
-      <c r="F111" s="4">
-        <v>0</v>
-      </c>
-      <c r="G111" s="4">
-        <v>0</v>
+      <c r="G111" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B112" s="4">
-        <v>100</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="C112" s="4">
-        <v>100</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="D112" s="4">
-        <v>100</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="E112" s="4">
-        <v>100</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>247</v>
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="F112" s="4">
+        <v>0</v>
+      </c>
+      <c r="G112" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B113" s="4">
+        <v>0.186</v>
+      </c>
+      <c r="C113" s="4">
+        <v>0.189</v>
+      </c>
+      <c r="D113" s="4">
+        <v>0.185</v>
+      </c>
+      <c r="E113" s="4">
+        <v>0.186</v>
+      </c>
+      <c r="F113" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B113" s="4">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="C113" s="4">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="D113" s="4">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="E113" s="4">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="F113" s="4">
-        <v>0</v>
-      </c>
-      <c r="G113" s="4">
-        <v>0</v>
+      <c r="G113" s="4" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B114" s="4">
-        <v>0.186</v>
+        <v>20.7</v>
       </c>
       <c r="C114" s="4">
-        <v>0.189</v>
+        <v>20.75</v>
       </c>
       <c r="D114" s="4">
-        <v>0.185</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="E114" s="4">
-        <v>0.186</v>
+        <v>20.65</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B115" s="4">
-        <v>20.7</v>
+        <v>13.24</v>
       </c>
       <c r="C115" s="4">
-        <v>20.75</v>
+        <v>13.28</v>
       </c>
       <c r="D115" s="4">
-        <v>20.350000000000001</v>
+        <v>13.02</v>
       </c>
       <c r="E115" s="4">
-        <v>20.65</v>
+        <v>13.24</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B116" s="4">
-        <v>13.24</v>
+        <v>0.84</v>
       </c>
       <c r="C116" s="4">
-        <v>13.28</v>
+        <v>0.84</v>
       </c>
       <c r="D116" s="4">
-        <v>13.02</v>
+        <v>0.84</v>
       </c>
       <c r="E116" s="4">
-        <v>13.24</v>
+        <v>0.84</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>257</v>
@@ -5455,19 +5446,19 @@
         <v>258</v>
       </c>
       <c r="B117" s="4">
-        <v>0.84</v>
+        <v>0.25</v>
       </c>
       <c r="C117" s="4">
-        <v>0.84</v>
+        <v>0.26</v>
       </c>
       <c r="D117" s="4">
-        <v>0.84</v>
+        <v>0.25</v>
       </c>
       <c r="E117" s="4">
-        <v>0.84</v>
+        <v>0.26</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>259</v>
@@ -5478,19 +5469,19 @@
         <v>260</v>
       </c>
       <c r="B118" s="4">
-        <v>0.25</v>
+        <v>6.68</v>
       </c>
       <c r="C118" s="4">
-        <v>0.26</v>
+        <v>6.68</v>
       </c>
       <c r="D118" s="4">
-        <v>0.25</v>
+        <v>6.62</v>
       </c>
       <c r="E118" s="4">
-        <v>0.26</v>
+        <v>6.67</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>261</v>
@@ -5501,85 +5492,85 @@
         <v>262</v>
       </c>
       <c r="B119" s="4">
-        <v>6.68</v>
+        <v>0.6</v>
       </c>
       <c r="C119" s="4">
-        <v>6.68</v>
+        <v>0.6</v>
       </c>
       <c r="D119" s="4">
-        <v>6.62</v>
+        <v>0.6</v>
       </c>
       <c r="E119" s="4">
-        <v>6.67</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>263</v>
+        <v>0.6</v>
+      </c>
+      <c r="F119" s="4">
+        <v>0</v>
+      </c>
+      <c r="G119" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B120" s="4">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="C120" s="4">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="D120" s="4">
+        <v>38.049999999999997</v>
+      </c>
+      <c r="E120" s="4">
+        <v>38.5</v>
+      </c>
+      <c r="F120" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B120" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="C120" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="D120" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="E120" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F120" s="4">
-        <v>0</v>
-      </c>
-      <c r="G120" s="4">
-        <v>0</v>
+      <c r="G120" s="4" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B121" s="4">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="C121" s="4">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="D121" s="4">
-        <v>38.049999999999997</v>
-      </c>
-      <c r="E121" s="4">
-        <v>38.5</v>
-      </c>
-      <c r="F121" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="G121" s="4" t="s">
-        <v>267</v>
+      <c r="B121" s="5">
+        <v>1011</v>
+      </c>
+      <c r="C121" s="5">
+        <v>1011</v>
+      </c>
+      <c r="D121" s="5">
+        <v>1011</v>
+      </c>
+      <c r="E121" s="5">
+        <v>1011</v>
+      </c>
+      <c r="F121" s="4">
+        <v>0</v>
+      </c>
+      <c r="G121" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B122" s="5">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="C122" s="5">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="D122" s="5">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="E122" s="5">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="F122" s="4">
         <v>0</v>
@@ -5590,111 +5581,111 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B123" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="C123" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="D123" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E123" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="F123" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B123" s="5">
-        <v>1005</v>
-      </c>
-      <c r="C123" s="5">
-        <v>1005</v>
-      </c>
-      <c r="D123" s="5">
-        <v>1005</v>
-      </c>
-      <c r="E123" s="5">
-        <v>1005</v>
-      </c>
-      <c r="F123" s="4">
-        <v>0</v>
-      </c>
-      <c r="G123" s="4">
-        <v>0</v>
+      <c r="G123" s="4" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B124" s="4">
-        <v>0.61</v>
+        <v>6.42</v>
       </c>
       <c r="C124" s="4">
-        <v>0.62</v>
+        <v>6.42</v>
       </c>
       <c r="D124" s="4">
-        <v>0.6</v>
+        <v>6.42</v>
       </c>
       <c r="E124" s="4">
-        <v>0.61</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>272</v>
+        <v>6.42</v>
+      </c>
+      <c r="F124" s="4">
+        <v>0</v>
+      </c>
+      <c r="G124" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B125" s="4">
+        <v>2.34</v>
+      </c>
+      <c r="C125" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="D125" s="4">
+        <v>2.34</v>
+      </c>
+      <c r="E125" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="F125" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B125" s="4">
-        <v>6.42</v>
-      </c>
-      <c r="C125" s="4">
-        <v>6.42</v>
-      </c>
-      <c r="D125" s="4">
-        <v>6.42</v>
-      </c>
-      <c r="E125" s="4">
-        <v>6.42</v>
-      </c>
-      <c r="F125" s="4">
-        <v>0</v>
-      </c>
-      <c r="G125" s="4">
-        <v>0</v>
+      <c r="G125" s="4" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B126" s="4">
-        <v>2.34</v>
+        <v>540</v>
       </c>
       <c r="C126" s="4">
-        <v>2.44</v>
+        <v>540</v>
       </c>
       <c r="D126" s="4">
-        <v>2.34</v>
+        <v>540</v>
       </c>
       <c r="E126" s="4">
-        <v>2.44</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>276</v>
+        <v>540</v>
+      </c>
+      <c r="F126" s="4">
+        <v>0</v>
+      </c>
+      <c r="G126" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B127" s="4">
-        <v>540</v>
+        <v>3.66</v>
       </c>
       <c r="C127" s="4">
-        <v>540</v>
+        <v>3.66</v>
       </c>
       <c r="D127" s="4">
-        <v>540</v>
+        <v>3.66</v>
       </c>
       <c r="E127" s="4">
-        <v>540</v>
+        <v>3.66</v>
       </c>
       <c r="F127" s="4">
         <v>0</v>
@@ -5705,111 +5696,111 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B128" s="4">
+        <v>16.38</v>
+      </c>
+      <c r="C128" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="D128" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="E128" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="F128" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B128" s="4">
-        <v>3.66</v>
-      </c>
-      <c r="C128" s="4">
-        <v>3.66</v>
-      </c>
-      <c r="D128" s="4">
-        <v>3.66</v>
-      </c>
-      <c r="E128" s="4">
-        <v>3.66</v>
-      </c>
-      <c r="F128" s="4">
-        <v>0</v>
-      </c>
-      <c r="G128" s="4">
-        <v>0</v>
+      <c r="G128" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B129" s="4">
-        <v>16.38</v>
+        <v>100.4</v>
       </c>
       <c r="C129" s="4">
-        <v>16.7</v>
+        <v>100.4</v>
       </c>
       <c r="D129" s="4">
-        <v>16.3</v>
+        <v>100.4</v>
       </c>
       <c r="E129" s="4">
-        <v>16.7</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>281</v>
+        <v>100.4</v>
+      </c>
+      <c r="F129" s="4">
+        <v>0</v>
+      </c>
+      <c r="G129" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B130" s="4">
+        <v>5.36</v>
+      </c>
+      <c r="C130" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D130" s="4">
+        <v>5.36</v>
+      </c>
+      <c r="E130" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F130" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B130" s="4">
-        <v>100.4</v>
-      </c>
-      <c r="C130" s="4">
-        <v>100.4</v>
-      </c>
-      <c r="D130" s="4">
-        <v>100.4</v>
-      </c>
-      <c r="E130" s="4">
-        <v>100.4</v>
-      </c>
-      <c r="F130" s="4">
-        <v>0</v>
-      </c>
-      <c r="G130" s="4">
-        <v>0</v>
+      <c r="G130" s="4" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B131" s="4">
-        <v>5.36</v>
+        <v>2.1</v>
       </c>
       <c r="C131" s="4">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="D131" s="4">
-        <v>5.36</v>
+        <v>2.1</v>
       </c>
       <c r="E131" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>285</v>
+        <v>2.1</v>
+      </c>
+      <c r="F131" s="4">
+        <v>0</v>
+      </c>
+      <c r="G131" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B132" s="4">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="C132" s="4">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="D132" s="4">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="E132" s="4">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="F132" s="4">
         <v>0</v>
@@ -5820,203 +5811,203 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B133" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="C133" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="D133" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="E133" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="F133" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B133" s="4">
-        <v>1.88</v>
-      </c>
-      <c r="C133" s="4">
-        <v>1.88</v>
-      </c>
-      <c r="D133" s="4">
-        <v>1.88</v>
-      </c>
-      <c r="E133" s="4">
-        <v>1.88</v>
-      </c>
-      <c r="F133" s="4">
-        <v>0</v>
-      </c>
-      <c r="G133" s="4">
-        <v>0</v>
+      <c r="G133" s="4" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B134" s="4">
-        <v>0.87</v>
+        <v>101.4</v>
       </c>
       <c r="C134" s="4">
-        <v>0.88</v>
+        <v>101.4</v>
       </c>
       <c r="D134" s="4">
-        <v>0.87</v>
+        <v>100.5</v>
       </c>
       <c r="E134" s="4">
-        <v>0.87</v>
+        <v>101</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B135" s="4">
-        <v>101.4</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="C135" s="4">
-        <v>101.4</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="D135" s="4">
-        <v>100.5</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="E135" s="4">
-        <v>101</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B136" s="4">
-        <v>2.4700000000000002</v>
+        <v>0.54</v>
       </c>
       <c r="C136" s="4">
-        <v>2.4900000000000002</v>
+        <v>0.54</v>
       </c>
       <c r="D136" s="4">
-        <v>2.4500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="E136" s="4">
-        <v>2.4900000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B137" s="4">
-        <v>0.54</v>
+        <v>60.55</v>
       </c>
       <c r="C137" s="4">
-        <v>0.54</v>
+        <v>60.9</v>
       </c>
       <c r="D137" s="4">
-        <v>0.52</v>
+        <v>60.55</v>
       </c>
       <c r="E137" s="4">
-        <v>0.52</v>
+        <v>60.9</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B138" s="4">
-        <v>60.55</v>
+        <v>0.23</v>
       </c>
       <c r="C138" s="4">
-        <v>60.9</v>
+        <v>0.23</v>
       </c>
       <c r="D138" s="4">
-        <v>60.55</v>
+        <v>0.23</v>
       </c>
       <c r="E138" s="4">
-        <v>60.9</v>
+        <v>0.23</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B139" s="4">
-        <v>0.23</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C139" s="4">
-        <v>0.23</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D139" s="4">
-        <v>0.23</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E139" s="4">
-        <v>0.23</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B140" s="4">
-        <v>1.1499999999999999</v>
+        <v>3</v>
       </c>
       <c r="C140" s="4">
-        <v>1.1499999999999999</v>
+        <v>3</v>
       </c>
       <c r="D140" s="4">
-        <v>1.1100000000000001</v>
+        <v>3</v>
       </c>
       <c r="E140" s="4">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>308</v>
+        <v>3</v>
+      </c>
+      <c r="F140" s="4">
+        <v>0</v>
+      </c>
+      <c r="G140" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B141" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C141" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D141" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E141" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F141" s="4">
         <v>0</v>
@@ -6027,19 +6018,19 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B142" s="4">
-        <v>5</v>
+        <v>0.185</v>
       </c>
       <c r="C142" s="4">
-        <v>5</v>
+        <v>0.185</v>
       </c>
       <c r="D142" s="4">
-        <v>5</v>
+        <v>0.185</v>
       </c>
       <c r="E142" s="4">
-        <v>5</v>
+        <v>0.185</v>
       </c>
       <c r="F142" s="4">
         <v>0</v>
@@ -6050,88 +6041,88 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B143" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="C143" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="D143" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="E143" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="F143" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B143" s="4">
-        <v>0.185</v>
-      </c>
-      <c r="C143" s="4">
-        <v>0.185</v>
-      </c>
-      <c r="D143" s="4">
-        <v>0.185</v>
-      </c>
-      <c r="E143" s="4">
-        <v>0.185</v>
-      </c>
-      <c r="F143" s="4">
-        <v>0</v>
-      </c>
-      <c r="G143" s="4">
-        <v>0</v>
+      <c r="G143" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B144" s="4">
-        <v>0.91</v>
-      </c>
-      <c r="C144" s="4">
-        <v>0.91</v>
-      </c>
-      <c r="D144" s="4">
-        <v>0.91</v>
-      </c>
-      <c r="E144" s="4">
-        <v>0.91</v>
+        <v>313</v>
+      </c>
+      <c r="B144" s="5">
+        <v>2166</v>
+      </c>
+      <c r="C144" s="5">
+        <v>2236</v>
+      </c>
+      <c r="D144" s="5">
+        <v>2162</v>
+      </c>
+      <c r="E144" s="5">
+        <v>2236</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B145" s="5">
-        <v>2166</v>
-      </c>
-      <c r="C145" s="5">
-        <v>2236</v>
-      </c>
-      <c r="D145" s="5">
-        <v>2162</v>
-      </c>
-      <c r="E145" s="5">
-        <v>2236</v>
-      </c>
-      <c r="F145" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="G145" s="4" t="s">
-        <v>317</v>
+      <c r="B145" s="4">
+        <v>5</v>
+      </c>
+      <c r="C145" s="4">
+        <v>5</v>
+      </c>
+      <c r="D145" s="4">
+        <v>5</v>
+      </c>
+      <c r="E145" s="4">
+        <v>5</v>
+      </c>
+      <c r="F145" s="4">
+        <v>0</v>
+      </c>
+      <c r="G145" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B146" s="4">
-        <v>5</v>
+        <v>505.5</v>
       </c>
       <c r="C146" s="4">
-        <v>5</v>
+        <v>505.5</v>
       </c>
       <c r="D146" s="4">
-        <v>5</v>
+        <v>505.5</v>
       </c>
       <c r="E146" s="4">
-        <v>5</v>
+        <v>505.5</v>
       </c>
       <c r="F146" s="4">
         <v>0</v>
@@ -6142,45 +6133,45 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B147" s="4">
+        <v>11.12</v>
+      </c>
+      <c r="C147" s="4">
+        <v>11.22</v>
+      </c>
+      <c r="D147" s="4">
+        <v>11.08</v>
+      </c>
+      <c r="E147" s="4">
+        <v>11.16</v>
+      </c>
+      <c r="F147" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B147" s="4">
-        <v>505.5</v>
-      </c>
-      <c r="C147" s="4">
-        <v>505.5</v>
-      </c>
-      <c r="D147" s="4">
-        <v>505.5</v>
-      </c>
-      <c r="E147" s="4">
-        <v>505.5</v>
-      </c>
-      <c r="F147" s="4">
-        <v>0</v>
-      </c>
-      <c r="G147" s="4">
-        <v>0</v>
+      <c r="G147" s="4" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B148" s="4">
-        <v>11.12</v>
+        <v>10.7</v>
       </c>
       <c r="C148" s="4">
-        <v>11.22</v>
+        <v>10.7</v>
       </c>
       <c r="D148" s="4">
-        <v>11.08</v>
+        <v>10.7</v>
       </c>
       <c r="E148" s="4">
-        <v>11.16</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>321</v>
+        <v>10.7</v>
+      </c>
+      <c r="F148" s="4">
+        <v>700</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>322</v>
@@ -6191,131 +6182,131 @@
         <v>323</v>
       </c>
       <c r="B149" s="4">
-        <v>10.7</v>
+        <v>11.98</v>
       </c>
       <c r="C149" s="4">
-        <v>10.7</v>
+        <v>11.98</v>
       </c>
       <c r="D149" s="4">
-        <v>10.7</v>
+        <v>11.98</v>
       </c>
       <c r="E149" s="4">
-        <v>10.7</v>
+        <v>11.98</v>
       </c>
       <c r="F149" s="4">
-        <v>700</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>324</v>
+        <v>0</v>
+      </c>
+      <c r="G149" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B150" s="4">
+        <v>1.46</v>
+      </c>
+      <c r="C150" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="D150" s="4">
+        <v>1.43</v>
+      </c>
+      <c r="E150" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="F150" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B150" s="4">
-        <v>11.98</v>
-      </c>
-      <c r="C150" s="4">
-        <v>11.98</v>
-      </c>
-      <c r="D150" s="4">
-        <v>11.98</v>
-      </c>
-      <c r="E150" s="4">
-        <v>11.98</v>
-      </c>
-      <c r="F150" s="4">
-        <v>0</v>
-      </c>
-      <c r="G150" s="4">
-        <v>0</v>
+      <c r="G150" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B151" s="4">
-        <v>1.46</v>
+        <v>105.1</v>
       </c>
       <c r="C151" s="4">
-        <v>1.49</v>
+        <v>106.5</v>
       </c>
       <c r="D151" s="4">
-        <v>1.43</v>
+        <v>105.1</v>
       </c>
       <c r="E151" s="4">
-        <v>1.48</v>
+        <v>106.5</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B152" s="4">
-        <v>105.1</v>
+        <v>439</v>
       </c>
       <c r="C152" s="4">
-        <v>106.5</v>
+        <v>441.6</v>
       </c>
       <c r="D152" s="4">
-        <v>105.1</v>
+        <v>432.2</v>
       </c>
       <c r="E152" s="4">
-        <v>106.5</v>
+        <v>441.6</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B153" s="4">
-        <v>439</v>
+        <v>950</v>
       </c>
       <c r="C153" s="4">
-        <v>441.6</v>
+        <v>950</v>
       </c>
       <c r="D153" s="4">
-        <v>432.2</v>
+        <v>950</v>
       </c>
       <c r="E153" s="4">
-        <v>441.6</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>334</v>
+        <v>950</v>
+      </c>
+      <c r="F153" s="4">
+        <v>0</v>
+      </c>
+      <c r="G153" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B154" s="4">
-        <v>950</v>
+        <v>984.5</v>
       </c>
       <c r="C154" s="4">
-        <v>950</v>
+        <v>984.5</v>
       </c>
       <c r="D154" s="4">
-        <v>950</v>
+        <v>984.5</v>
       </c>
       <c r="E154" s="4">
-        <v>950</v>
+        <v>984.5</v>
       </c>
       <c r="F154" s="4">
         <v>0</v>
@@ -6326,229 +6317,229 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B155" s="4">
+        <v>3.58</v>
+      </c>
+      <c r="C155" s="4">
+        <v>3.58</v>
+      </c>
+      <c r="D155" s="4">
+        <v>3.58</v>
+      </c>
+      <c r="E155" s="4">
+        <v>3.58</v>
+      </c>
+      <c r="F155" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B155" s="4">
-        <v>984.5</v>
-      </c>
-      <c r="C155" s="4">
-        <v>984.5</v>
-      </c>
-      <c r="D155" s="4">
-        <v>984.5</v>
-      </c>
-      <c r="E155" s="4">
-        <v>984.5</v>
-      </c>
-      <c r="F155" s="4">
-        <v>0</v>
-      </c>
-      <c r="G155" s="4">
-        <v>0</v>
+      <c r="G155" s="4" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B156" s="4">
-        <v>3.58</v>
+        <v>3.9</v>
       </c>
       <c r="C156" s="4">
-        <v>3.58</v>
+        <v>3.9</v>
       </c>
       <c r="D156" s="4">
-        <v>3.58</v>
+        <v>3.85</v>
       </c>
       <c r="E156" s="4">
-        <v>3.58</v>
+        <v>3.9</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B157" s="4">
-        <v>3.9</v>
+        <v>1.54</v>
       </c>
       <c r="C157" s="4">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="D157" s="4">
-        <v>3.85</v>
+        <v>1.54</v>
       </c>
       <c r="E157" s="4">
-        <v>3.9</v>
+        <v>1.69</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B158" s="4">
-        <v>1.54</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="C158" s="4">
-        <v>1.7</v>
+        <v>9.86</v>
       </c>
       <c r="D158" s="4">
-        <v>1.54</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="E158" s="4">
-        <v>1.69</v>
+        <v>9.5</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B159" s="4">
-        <v>9.2200000000000006</v>
+        <v>1</v>
       </c>
       <c r="C159" s="4">
-        <v>9.86</v>
+        <v>1.02</v>
       </c>
       <c r="D159" s="4">
-        <v>9.2200000000000006</v>
+        <v>1</v>
       </c>
       <c r="E159" s="4">
-        <v>9.5</v>
+        <v>1.02</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B160" s="4">
-        <v>1</v>
+        <v>631</v>
       </c>
       <c r="C160" s="4">
-        <v>1.02</v>
+        <v>650</v>
       </c>
       <c r="D160" s="4">
-        <v>1</v>
+        <v>612</v>
       </c>
       <c r="E160" s="4">
-        <v>1.02</v>
+        <v>650</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B161" s="4">
-        <v>631</v>
+        <v>0.72</v>
       </c>
       <c r="C161" s="4">
-        <v>650</v>
+        <v>0.72</v>
       </c>
       <c r="D161" s="4">
-        <v>612</v>
+        <v>0.71</v>
       </c>
       <c r="E161" s="4">
-        <v>650</v>
+        <v>0.71</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B162" s="4">
-        <v>0.72</v>
+        <v>204</v>
       </c>
       <c r="C162" s="4">
-        <v>0.72</v>
+        <v>204</v>
       </c>
       <c r="D162" s="4">
-        <v>0.71</v>
+        <v>196.3</v>
       </c>
       <c r="E162" s="4">
-        <v>0.71</v>
+        <v>198</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B163" s="4">
-        <v>204</v>
+        <v>0.8</v>
       </c>
       <c r="C163" s="4">
-        <v>204</v>
+        <v>0.82</v>
       </c>
       <c r="D163" s="4">
-        <v>196.3</v>
+        <v>0.8</v>
       </c>
       <c r="E163" s="4">
-        <v>198</v>
+        <v>0.81</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B164" s="4">
-        <v>0.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C164" s="4">
-        <v>0.82</v>
+        <v>4.91</v>
       </c>
       <c r="D164" s="4">
-        <v>0.8</v>
+        <v>4.87</v>
       </c>
       <c r="E164" s="4">
-        <v>0.81</v>
+        <v>4.87</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>363</v>
@@ -6559,65 +6550,65 @@
         <v>364</v>
       </c>
       <c r="B165" s="4">
-        <v>4.9000000000000004</v>
+        <v>1.32</v>
       </c>
       <c r="C165" s="4">
-        <v>4.91</v>
+        <v>1.32</v>
       </c>
       <c r="D165" s="4">
-        <v>4.87</v>
+        <v>1.32</v>
       </c>
       <c r="E165" s="4">
-        <v>4.87</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="G165" s="4" t="s">
-        <v>365</v>
+        <v>1.32</v>
+      </c>
+      <c r="F165" s="4">
+        <v>0</v>
+      </c>
+      <c r="G165" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B166" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C166" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="D166" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E166" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="F166" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B166" s="4">
-        <v>1.32</v>
-      </c>
-      <c r="C166" s="4">
-        <v>1.32</v>
-      </c>
-      <c r="D166" s="4">
-        <v>1.32</v>
-      </c>
-      <c r="E166" s="4">
-        <v>1.32</v>
-      </c>
-      <c r="F166" s="4">
-        <v>0</v>
-      </c>
-      <c r="G166" s="4">
-        <v>0</v>
+      <c r="G166" s="4" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B167" s="4">
-        <v>0.9</v>
+        <v>0.54</v>
       </c>
       <c r="C167" s="4">
-        <v>0.94</v>
+        <v>0.54</v>
       </c>
       <c r="D167" s="4">
-        <v>0.9</v>
+        <v>0.54</v>
       </c>
       <c r="E167" s="4">
-        <v>0.94</v>
+        <v>0.54</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>368</v>
+        <v>235</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>369</v>
@@ -6628,39 +6619,39 @@
         <v>370</v>
       </c>
       <c r="B168" s="4">
-        <v>0.54</v>
+        <v>6.6</v>
       </c>
       <c r="C168" s="4">
-        <v>0.54</v>
+        <v>6.6</v>
       </c>
       <c r="D168" s="4">
-        <v>0.54</v>
+        <v>6.6</v>
       </c>
       <c r="E168" s="4">
-        <v>0.54</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G168" s="4" t="s">
-        <v>371</v>
+        <v>6.6</v>
+      </c>
+      <c r="F168" s="4">
+        <v>0</v>
+      </c>
+      <c r="G168" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B169" s="4">
-        <v>6.6</v>
+        <v>6.93</v>
       </c>
       <c r="C169" s="4">
-        <v>6.6</v>
+        <v>6.93</v>
       </c>
       <c r="D169" s="4">
-        <v>6.6</v>
+        <v>6.93</v>
       </c>
       <c r="E169" s="4">
-        <v>6.6</v>
+        <v>6.93</v>
       </c>
       <c r="F169" s="4">
         <v>0</v>
@@ -6671,19 +6662,19 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B170" s="4">
-        <v>6.93</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="C170" s="4">
-        <v>6.93</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="D170" s="4">
-        <v>6.93</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E170" s="4">
-        <v>6.93</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F170" s="4">
         <v>0</v>
@@ -6694,19 +6685,19 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B171" s="4">
-        <v>0.14399999999999999</v>
+        <v>1.66</v>
       </c>
       <c r="C171" s="4">
-        <v>0.14399999999999999</v>
+        <v>1.66</v>
       </c>
       <c r="D171" s="4">
-        <v>0.14399999999999999</v>
+        <v>1.66</v>
       </c>
       <c r="E171" s="4">
-        <v>0.14399999999999999</v>
+        <v>1.66</v>
       </c>
       <c r="F171" s="4">
         <v>0</v>
@@ -6717,45 +6708,45 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B172" s="4">
+        <v>229</v>
+      </c>
+      <c r="C172" s="4">
+        <v>232.6</v>
+      </c>
+      <c r="D172" s="4">
+        <v>229</v>
+      </c>
+      <c r="E172" s="4">
+        <v>230</v>
+      </c>
+      <c r="F172" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B172" s="4">
-        <v>1.66</v>
-      </c>
-      <c r="C172" s="4">
-        <v>1.66</v>
-      </c>
-      <c r="D172" s="4">
-        <v>1.66</v>
-      </c>
-      <c r="E172" s="4">
-        <v>1.66</v>
-      </c>
-      <c r="F172" s="4">
-        <v>0</v>
-      </c>
-      <c r="G172" s="4">
-        <v>0</v>
+      <c r="G172" s="4" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B173" s="4">
-        <v>229</v>
+        <v>935</v>
       </c>
       <c r="C173" s="4">
-        <v>232.6</v>
+        <v>935</v>
       </c>
       <c r="D173" s="4">
-        <v>229</v>
+        <v>935</v>
       </c>
       <c r="E173" s="4">
-        <v>230</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>377</v>
+        <v>935</v>
+      </c>
+      <c r="F173" s="4">
+        <v>550</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>378</v>
@@ -6766,154 +6757,154 @@
         <v>379</v>
       </c>
       <c r="B174" s="4">
-        <v>935</v>
+        <v>914</v>
       </c>
       <c r="C174" s="4">
-        <v>935</v>
+        <v>914</v>
       </c>
       <c r="D174" s="4">
-        <v>935</v>
+        <v>914</v>
       </c>
       <c r="E174" s="4">
-        <v>935</v>
+        <v>914</v>
       </c>
       <c r="F174" s="4">
-        <v>550</v>
-      </c>
-      <c r="G174" s="4" t="s">
-        <v>380</v>
+        <v>0</v>
+      </c>
+      <c r="G174" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B175" s="4">
+        <v>50</v>
+      </c>
+      <c r="C175" s="4">
+        <v>52</v>
+      </c>
+      <c r="D175" s="4">
+        <v>50</v>
+      </c>
+      <c r="E175" s="4">
+        <v>52</v>
+      </c>
+      <c r="F175" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B175" s="4">
-        <v>914</v>
-      </c>
-      <c r="C175" s="4">
-        <v>914</v>
-      </c>
-      <c r="D175" s="4">
-        <v>914</v>
-      </c>
-      <c r="E175" s="4">
-        <v>914</v>
-      </c>
-      <c r="F175" s="4">
-        <v>0</v>
-      </c>
-      <c r="G175" s="4">
-        <v>0</v>
+      <c r="G175" s="4" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B176" s="4">
-        <v>50</v>
+        <v>5.49</v>
       </c>
       <c r="C176" s="4">
-        <v>52</v>
+        <v>6.18</v>
       </c>
       <c r="D176" s="4">
-        <v>50</v>
+        <v>5.49</v>
       </c>
       <c r="E176" s="4">
-        <v>52</v>
+        <v>6.11</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B177" s="4">
-        <v>5.49</v>
+        <v>1.28</v>
       </c>
       <c r="C177" s="4">
-        <v>6.18</v>
+        <v>1.28</v>
       </c>
       <c r="D177" s="4">
-        <v>5.49</v>
+        <v>1.27</v>
       </c>
       <c r="E177" s="4">
-        <v>6.11</v>
+        <v>1.27</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B178" s="4">
-        <v>1.28</v>
+        <v>2.81</v>
       </c>
       <c r="C178" s="4">
-        <v>1.28</v>
+        <v>2.81</v>
       </c>
       <c r="D178" s="4">
-        <v>1.27</v>
+        <v>2.8</v>
       </c>
       <c r="E178" s="4">
-        <v>1.27</v>
+        <v>2.8</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B179" s="4">
-        <v>2.81</v>
+        <v>6.6</v>
       </c>
       <c r="C179" s="4">
-        <v>2.81</v>
+        <v>6.6</v>
       </c>
       <c r="D179" s="4">
-        <v>2.8</v>
+        <v>6.6</v>
       </c>
       <c r="E179" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="F179" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="G179" s="4" t="s">
-        <v>393</v>
+        <v>6.6</v>
+      </c>
+      <c r="F179" s="4">
+        <v>0</v>
+      </c>
+      <c r="G179" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B180" s="4">
-        <v>6.6</v>
+        <v>6.16</v>
       </c>
       <c r="C180" s="4">
-        <v>6.6</v>
+        <v>6.16</v>
       </c>
       <c r="D180" s="4">
-        <v>6.6</v>
+        <v>6.16</v>
       </c>
       <c r="E180" s="4">
-        <v>6.6</v>
+        <v>6.16</v>
       </c>
       <c r="F180" s="4">
         <v>0</v>
@@ -6924,19 +6915,19 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B181" s="4">
-        <v>6.16</v>
+        <v>1.53</v>
       </c>
       <c r="C181" s="4">
-        <v>6.16</v>
+        <v>1.53</v>
       </c>
       <c r="D181" s="4">
-        <v>6.16</v>
+        <v>1.53</v>
       </c>
       <c r="E181" s="4">
-        <v>6.16</v>
+        <v>1.53</v>
       </c>
       <c r="F181" s="4">
         <v>0</v>
@@ -6947,25 +6938,25 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B182" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="C182" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="D182" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="E182" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="F182" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B182" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="C182" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="D182" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="E182" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="F182" s="4">
-        <v>0</v>
-      </c>
-      <c r="G182" s="4">
-        <v>0</v>
+      <c r="G182" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6973,108 +6964,108 @@
         <v>397</v>
       </c>
       <c r="B183" s="4">
-        <v>0.79</v>
+        <v>18.96</v>
       </c>
       <c r="C183" s="4">
-        <v>0.87</v>
+        <v>18.96</v>
       </c>
       <c r="D183" s="4">
-        <v>0.79</v>
+        <v>18.96</v>
       </c>
       <c r="E183" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="F183" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="G183" s="4" t="s">
-        <v>43</v>
+        <v>18.96</v>
+      </c>
+      <c r="F183" s="4">
+        <v>0</v>
+      </c>
+      <c r="G183" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B184" s="4">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="C184" s="4">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D184" s="4">
+        <v>0.111</v>
+      </c>
+      <c r="E184" s="4">
+        <v>0.115</v>
+      </c>
+      <c r="F184" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B184" s="4">
-        <v>18.96</v>
-      </c>
-      <c r="C184" s="4">
-        <v>18.96</v>
-      </c>
-      <c r="D184" s="4">
-        <v>18.96</v>
-      </c>
-      <c r="E184" s="4">
-        <v>18.96</v>
-      </c>
-      <c r="F184" s="4">
-        <v>0</v>
-      </c>
-      <c r="G184" s="4">
-        <v>0</v>
+      <c r="G184" s="4" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B185" s="4">
-        <v>0.11700000000000001</v>
+        <v>0.107</v>
       </c>
       <c r="C185" s="4">
-        <v>0.11700000000000001</v>
+        <v>0.107</v>
       </c>
       <c r="D185" s="4">
-        <v>0.111</v>
+        <v>0.107</v>
       </c>
       <c r="E185" s="4">
-        <v>0.115</v>
+        <v>0.107</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B186" s="4">
-        <v>0.107</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="C186" s="4">
-        <v>0.107</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="D186" s="4">
-        <v>0.107</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="E186" s="4">
-        <v>0.107</v>
-      </c>
-      <c r="F186" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="G186" s="4" t="s">
-        <v>405</v>
+        <v>19.940000000000001</v>
+      </c>
+      <c r="F186" s="4">
+        <v>0</v>
+      </c>
+      <c r="G186" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B187" s="4">
-        <v>19.940000000000001</v>
+        <v>3.48</v>
       </c>
       <c r="C187" s="4">
-        <v>19.940000000000001</v>
+        <v>3.48</v>
       </c>
       <c r="D187" s="4">
-        <v>19.940000000000001</v>
+        <v>3.48</v>
       </c>
       <c r="E187" s="4">
-        <v>19.940000000000001</v>
+        <v>3.48</v>
       </c>
       <c r="F187" s="4">
         <v>0</v>
@@ -7085,19 +7076,19 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B188" s="4">
-        <v>3.48</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C188" s="4">
-        <v>3.48</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D188" s="4">
-        <v>3.48</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E188" s="4">
-        <v>3.48</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F188" s="4">
         <v>0</v>
@@ -7108,71 +7099,71 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B189" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="C189" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="D189" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="E189" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="F189" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B189" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C189" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D189" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E189" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F189" s="4">
-        <v>0</v>
-      </c>
-      <c r="G189" s="4">
-        <v>0</v>
+      <c r="G189" s="4" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B190" s="4">
-        <v>1.68</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="C190" s="4">
-        <v>1.68</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="D190" s="4">
-        <v>1.65</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E190" s="4">
-        <v>1.65</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B191" s="4">
-        <v>0.14099999999999999</v>
+        <v>2.95</v>
       </c>
       <c r="C191" s="4">
-        <v>0.14599999999999999</v>
+        <v>2.96</v>
       </c>
       <c r="D191" s="4">
-        <v>0.14000000000000001</v>
+        <v>2.95</v>
       </c>
       <c r="E191" s="4">
-        <v>0.14599999999999999</v>
+        <v>2.95</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>414</v>
+        <v>270</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -7180,68 +7171,68 @@
         <v>415</v>
       </c>
       <c r="B192" s="4">
-        <v>2.95</v>
+        <v>2.44</v>
       </c>
       <c r="C192" s="4">
-        <v>2.96</v>
+        <v>2.44</v>
       </c>
       <c r="D192" s="4">
-        <v>2.95</v>
+        <v>2.44</v>
       </c>
       <c r="E192" s="4">
-        <v>2.95</v>
+        <v>2.44</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>416</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>272</v>
+        <v>417</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B193" s="4">
-        <v>2.44</v>
+        <v>1</v>
       </c>
       <c r="C193" s="4">
-        <v>2.44</v>
+        <v>1</v>
       </c>
       <c r="D193" s="4">
-        <v>2.44</v>
+        <v>1</v>
       </c>
       <c r="E193" s="4">
-        <v>2.44</v>
-      </c>
-      <c r="F193" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="G193" s="4" t="s">
-        <v>419</v>
+        <v>1</v>
+      </c>
+      <c r="F193" s="4">
+        <v>0</v>
+      </c>
+      <c r="G193" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B194" s="4">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="C194" s="4">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="D194" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="E194" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G194" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="B194" s="4">
-        <v>1</v>
-      </c>
-      <c r="C194" s="4">
-        <v>1</v>
-      </c>
-      <c r="D194" s="4">
-        <v>1</v>
-      </c>
-      <c r="E194" s="4">
-        <v>1</v>
-      </c>
-      <c r="F194" s="4">
-        <v>0</v>
-      </c>
-      <c r="G194" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -7249,42 +7240,42 @@
         <v>421</v>
       </c>
       <c r="B195" s="4">
-        <v>0.45500000000000002</v>
+        <v>9.1</v>
       </c>
       <c r="C195" s="4">
-        <v>0.45500000000000002</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="D195" s="4">
-        <v>0.45</v>
+        <v>9.08</v>
       </c>
       <c r="E195" s="4">
-        <v>0.45</v>
+        <v>9.11</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>90</v>
+        <v>422</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B196" s="4">
-        <v>9.1</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="C196" s="4">
-        <v>9.1199999999999992</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="D196" s="4">
-        <v>9.08</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="E196" s="4">
-        <v>9.11</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>424</v>
+        <v>148</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>425</v>
@@ -7295,45 +7286,45 @@
         <v>426</v>
       </c>
       <c r="B197" s="4">
-        <v>9.5999999999999992E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C197" s="4">
-        <v>9.5999999999999992E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D197" s="4">
-        <v>9.5999999999999992E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E197" s="4">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="F197" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G197" s="4" t="s">
-        <v>427</v>
+        <v>0.01</v>
+      </c>
+      <c r="F197" s="4">
+        <v>0</v>
+      </c>
+      <c r="G197" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B198" s="4">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C198" s="4">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D198" s="4">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E198" s="4">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G198" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="B198" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="C198" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="D198" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E198" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F198" s="4">
-        <v>0</v>
-      </c>
-      <c r="G198" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -7341,39 +7332,39 @@
         <v>429</v>
       </c>
       <c r="B199" s="4">
-        <v>4.8600000000000003</v>
+        <v>6.7</v>
       </c>
       <c r="C199" s="4">
-        <v>4.9400000000000004</v>
+        <v>6.7</v>
       </c>
       <c r="D199" s="4">
-        <v>4.8600000000000003</v>
+        <v>6.7</v>
       </c>
       <c r="E199" s="4">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="F199" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="G199" s="4" t="s">
-        <v>430</v>
+        <v>6.7</v>
+      </c>
+      <c r="F199" s="4">
+        <v>0</v>
+      </c>
+      <c r="G199" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B200" s="4">
-        <v>6.7</v>
+        <v>0.65</v>
       </c>
       <c r="C200" s="4">
-        <v>6.7</v>
+        <v>0.65</v>
       </c>
       <c r="D200" s="4">
-        <v>6.7</v>
+        <v>0.65</v>
       </c>
       <c r="E200" s="4">
-        <v>6.7</v>
+        <v>0.65</v>
       </c>
       <c r="F200" s="4">
         <v>0</v>
@@ -7384,19 +7375,19 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B201" s="4">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="C201" s="4">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="D201" s="4">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="E201" s="4">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="F201" s="4">
         <v>0</v>
@@ -7407,249 +7398,249 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B202" s="4">
+        <v>1.24</v>
+      </c>
+      <c r="C202" s="4">
+        <v>1.24</v>
+      </c>
+      <c r="D202" s="4">
+        <v>1.19</v>
+      </c>
+      <c r="E202" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="F202" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B202" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="C202" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="D202" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="E202" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="F202" s="4">
-        <v>0</v>
-      </c>
-      <c r="G202" s="4">
-        <v>0</v>
+      <c r="G202" s="4" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B203" s="4">
-        <v>1.24</v>
+        <v>5.09</v>
       </c>
       <c r="C203" s="4">
-        <v>1.24</v>
+        <v>5.09</v>
       </c>
       <c r="D203" s="4">
-        <v>1.19</v>
+        <v>5.09</v>
       </c>
       <c r="E203" s="4">
-        <v>1.2</v>
+        <v>5.09</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B204" s="4">
-        <v>5.09</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C204" s="4">
-        <v>5.09</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D204" s="4">
-        <v>5.09</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E204" s="4">
-        <v>5.09</v>
-      </c>
-      <c r="F204" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="G204" s="4" t="s">
-        <v>439</v>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F204" s="4">
+        <v>0</v>
+      </c>
+      <c r="G204" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B205" s="4">
-        <v>0.28000000000000003</v>
+        <v>5.93</v>
       </c>
       <c r="C205" s="4">
-        <v>0.28000000000000003</v>
+        <v>5.93</v>
       </c>
       <c r="D205" s="4">
-        <v>0.28000000000000003</v>
+        <v>5.93</v>
       </c>
       <c r="E205" s="4">
-        <v>0.28000000000000003</v>
+        <v>5.93</v>
       </c>
       <c r="F205" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G205" s="4">
-        <v>0</v>
+        <v>593</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B206" s="4">
+        <v>54.7</v>
+      </c>
+      <c r="C206" s="4">
+        <v>55</v>
+      </c>
+      <c r="D206" s="4">
+        <v>54.3</v>
+      </c>
+      <c r="E206" s="4">
+        <v>54.8</v>
+      </c>
+      <c r="F206" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="B206" s="4">
-        <v>5.93</v>
-      </c>
-      <c r="C206" s="4">
-        <v>5.93</v>
-      </c>
-      <c r="D206" s="4">
-        <v>5.93</v>
-      </c>
-      <c r="E206" s="4">
-        <v>5.93</v>
-      </c>
-      <c r="F206" s="4">
-        <v>100</v>
-      </c>
-      <c r="G206" s="4">
-        <v>593</v>
+      <c r="G206" s="4" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B207" s="4">
-        <v>54.7</v>
+        <v>0.156</v>
       </c>
       <c r="C207" s="4">
-        <v>55</v>
+        <v>0.156</v>
       </c>
       <c r="D207" s="4">
-        <v>54.3</v>
+        <v>0.156</v>
       </c>
       <c r="E207" s="4">
-        <v>54.8</v>
-      </c>
-      <c r="F207" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="G207" s="4" t="s">
-        <v>444</v>
+        <v>0.156</v>
+      </c>
+      <c r="F207" s="4">
+        <v>0</v>
+      </c>
+      <c r="G207" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B208" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C208" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="D208" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="E208" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="F208" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B208" s="4">
-        <v>0.156</v>
-      </c>
-      <c r="C208" s="4">
-        <v>0.156</v>
-      </c>
-      <c r="D208" s="4">
-        <v>0.156</v>
-      </c>
-      <c r="E208" s="4">
-        <v>0.156</v>
-      </c>
-      <c r="F208" s="4">
-        <v>0</v>
-      </c>
-      <c r="G208" s="4">
-        <v>0</v>
+      <c r="G208" s="4" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B209" s="4">
-        <v>0.73</v>
+        <v>2.12</v>
       </c>
       <c r="C209" s="4">
-        <v>0.73</v>
+        <v>2.14</v>
       </c>
       <c r="D209" s="4">
-        <v>0.68</v>
+        <v>2.1</v>
       </c>
       <c r="E209" s="4">
-        <v>0.69</v>
+        <v>2.1</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B210" s="4">
-        <v>2.12</v>
+        <v>290</v>
       </c>
       <c r="C210" s="4">
-        <v>2.14</v>
+        <v>294.8</v>
       </c>
       <c r="D210" s="4">
-        <v>2.1</v>
+        <v>287.39999999999998</v>
       </c>
       <c r="E210" s="4">
-        <v>2.1</v>
+        <v>294.8</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B211" s="4">
-        <v>290</v>
+        <v>920</v>
       </c>
       <c r="C211" s="4">
-        <v>294.8</v>
+        <v>920</v>
       </c>
       <c r="D211" s="4">
-        <v>287.39999999999998</v>
+        <v>920</v>
       </c>
       <c r="E211" s="4">
-        <v>294.8</v>
-      </c>
-      <c r="F211" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="G211" s="4" t="s">
-        <v>454</v>
+        <v>920</v>
+      </c>
+      <c r="F211" s="4">
+        <v>0</v>
+      </c>
+      <c r="G211" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B212" s="4">
-        <v>920</v>
+        <v>2.35</v>
       </c>
       <c r="C212" s="4">
-        <v>920</v>
+        <v>2.35</v>
       </c>
       <c r="D212" s="4">
-        <v>920</v>
+        <v>2.35</v>
       </c>
       <c r="E212" s="4">
-        <v>920</v>
+        <v>2.35</v>
       </c>
       <c r="F212" s="4">
         <v>0</v>
@@ -7660,19 +7651,19 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B213" s="4">
-        <v>2.35</v>
+        <v>0.114</v>
       </c>
       <c r="C213" s="4">
-        <v>2.35</v>
+        <v>0.114</v>
       </c>
       <c r="D213" s="4">
-        <v>2.35</v>
+        <v>0.114</v>
       </c>
       <c r="E213" s="4">
-        <v>2.35</v>
+        <v>0.114</v>
       </c>
       <c r="F213" s="4">
         <v>0</v>
@@ -7683,19 +7674,19 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B214" s="4">
-        <v>0.114</v>
+        <v>1</v>
       </c>
       <c r="C214" s="4">
-        <v>0.114</v>
+        <v>1</v>
       </c>
       <c r="D214" s="4">
-        <v>0.114</v>
+        <v>1</v>
       </c>
       <c r="E214" s="4">
-        <v>0.114</v>
+        <v>1</v>
       </c>
       <c r="F214" s="4">
         <v>0</v>
@@ -7706,19 +7697,19 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B215" s="4">
-        <v>1</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="C215" s="4">
-        <v>1</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="D215" s="4">
-        <v>1</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="E215" s="4">
-        <v>1</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="F215" s="4">
         <v>0</v>
@@ -7729,19 +7720,19 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B216" s="4">
-        <v>0.22600000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="C216" s="4">
-        <v>0.22600000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="D216" s="4">
-        <v>0.22600000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="E216" s="4">
-        <v>0.22600000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="F216" s="4">
         <v>0</v>
@@ -7752,19 +7743,19 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B217" s="4">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="C217" s="4">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="D217" s="4">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="E217" s="4">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="F217" s="4">
         <v>0</v>
@@ -7775,137 +7766,137 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B218" s="4">
+        <v>1.23</v>
+      </c>
+      <c r="C218" s="4">
+        <v>1.23</v>
+      </c>
+      <c r="D218" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="E218" s="4">
+        <v>1.19</v>
+      </c>
+      <c r="F218" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B218" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="C218" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="D218" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="E218" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="F218" s="4">
-        <v>0</v>
-      </c>
-      <c r="G218" s="4">
-        <v>0</v>
+      <c r="G218" s="4" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B219" s="4">
-        <v>1.23</v>
+        <v>11.6</v>
       </c>
       <c r="C219" s="4">
-        <v>1.23</v>
+        <v>11.6</v>
       </c>
       <c r="D219" s="4">
-        <v>1.18</v>
+        <v>11.28</v>
       </c>
       <c r="E219" s="4">
-        <v>1.19</v>
+        <v>11.32</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B220" s="4">
-        <v>11.6</v>
+        <v>3.5</v>
       </c>
       <c r="C220" s="4">
-        <v>11.6</v>
+        <v>3.5</v>
       </c>
       <c r="D220" s="4">
-        <v>11.28</v>
+        <v>3.43</v>
       </c>
       <c r="E220" s="4">
-        <v>11.32</v>
+        <v>3.5</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B221" s="4">
-        <v>3.5</v>
+        <v>0.183</v>
       </c>
       <c r="C221" s="4">
-        <v>3.5</v>
+        <v>0.188</v>
       </c>
       <c r="D221" s="4">
-        <v>3.43</v>
+        <v>0.183</v>
       </c>
       <c r="E221" s="4">
-        <v>3.5</v>
+        <v>0.188</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B222" s="4">
-        <v>0.183</v>
+        <v>13.04</v>
       </c>
       <c r="C222" s="4">
-        <v>0.188</v>
+        <v>13.04</v>
       </c>
       <c r="D222" s="4">
-        <v>0.183</v>
+        <v>12.82</v>
       </c>
       <c r="E222" s="4">
-        <v>0.188</v>
+        <v>12.94</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B223" s="4">
-        <v>13.04</v>
+        <v>1.4</v>
       </c>
       <c r="C223" s="4">
-        <v>13.04</v>
+        <v>1.4</v>
       </c>
       <c r="D223" s="4">
-        <v>12.82</v>
+        <v>1.4</v>
       </c>
       <c r="E223" s="4">
-        <v>12.94</v>
+        <v>1.4</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>475</v>
+        <v>411</v>
       </c>
       <c r="G223" s="4" t="s">
         <v>476</v>
@@ -7916,108 +7907,108 @@
         <v>477</v>
       </c>
       <c r="B224" s="4">
-        <v>1.4</v>
+        <v>5.45</v>
       </c>
       <c r="C224" s="4">
-        <v>1.4</v>
+        <v>5.48</v>
       </c>
       <c r="D224" s="4">
-        <v>1.4</v>
+        <v>5.45</v>
       </c>
       <c r="E224" s="4">
-        <v>1.4</v>
+        <v>5.48</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>413</v>
+        <v>478</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B225" s="4">
-        <v>5.45</v>
+        <v>19</v>
       </c>
       <c r="C225" s="4">
-        <v>5.48</v>
+        <v>19.2</v>
       </c>
       <c r="D225" s="4">
-        <v>5.45</v>
+        <v>18</v>
       </c>
       <c r="E225" s="4">
-        <v>5.48</v>
+        <v>18.5</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B226" s="4">
-        <v>19</v>
+        <v>3.17</v>
       </c>
       <c r="C226" s="4">
-        <v>19.2</v>
+        <v>3.18</v>
       </c>
       <c r="D226" s="4">
-        <v>18</v>
+        <v>3.03</v>
       </c>
       <c r="E226" s="4">
-        <v>18.5</v>
+        <v>3.03</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B227" s="4">
-        <v>3.17</v>
+        <v>100.7</v>
       </c>
       <c r="C227" s="4">
-        <v>3.18</v>
+        <v>100.7</v>
       </c>
       <c r="D227" s="4">
-        <v>3.03</v>
+        <v>100.7</v>
       </c>
       <c r="E227" s="4">
-        <v>3.03</v>
-      </c>
-      <c r="F227" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="G227" s="4" t="s">
-        <v>487</v>
+        <v>100.7</v>
+      </c>
+      <c r="F227" s="4">
+        <v>0</v>
+      </c>
+      <c r="G227" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B228" s="4">
-        <v>100.7</v>
+        <v>97</v>
       </c>
       <c r="C228" s="4">
-        <v>100.7</v>
+        <v>97</v>
       </c>
       <c r="D228" s="4">
-        <v>100.7</v>
+        <v>97</v>
       </c>
       <c r="E228" s="4">
-        <v>100.7</v>
+        <v>97</v>
       </c>
       <c r="F228" s="4">
         <v>0</v>
@@ -8028,19 +8019,19 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B229" s="4">
-        <v>97</v>
+        <v>99.7</v>
       </c>
       <c r="C229" s="4">
-        <v>97</v>
+        <v>99.7</v>
       </c>
       <c r="D229" s="4">
-        <v>97</v>
+        <v>99.7</v>
       </c>
       <c r="E229" s="4">
-        <v>97</v>
+        <v>99.7</v>
       </c>
       <c r="F229" s="4">
         <v>0</v>
@@ -8051,19 +8042,19 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B230" s="4">
-        <v>99.7</v>
+        <v>97.75</v>
       </c>
       <c r="C230" s="4">
-        <v>99.7</v>
+        <v>97.75</v>
       </c>
       <c r="D230" s="4">
-        <v>99.7</v>
+        <v>97.75</v>
       </c>
       <c r="E230" s="4">
-        <v>99.7</v>
+        <v>97.75</v>
       </c>
       <c r="F230" s="4">
         <v>0</v>
@@ -8074,111 +8065,111 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B231" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="C231" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="D231" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="E231" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="F231" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="B231" s="4">
-        <v>97.75</v>
-      </c>
-      <c r="C231" s="4">
-        <v>97.75</v>
-      </c>
-      <c r="D231" s="4">
-        <v>97.75</v>
-      </c>
-      <c r="E231" s="4">
-        <v>97.75</v>
-      </c>
-      <c r="F231" s="4">
-        <v>0</v>
-      </c>
-      <c r="G231" s="4">
-        <v>0</v>
+      <c r="G231" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B232" s="4">
-        <v>0.68</v>
+        <v>5.66</v>
       </c>
       <c r="C232" s="4">
-        <v>0.78</v>
+        <v>5.7</v>
       </c>
       <c r="D232" s="4">
-        <v>0.68</v>
+        <v>5.53</v>
       </c>
       <c r="E232" s="4">
-        <v>0.78</v>
+        <v>5.7</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B233" s="4">
-        <v>5.66</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="C233" s="4">
-        <v>5.7</v>
+        <v>2.06</v>
       </c>
       <c r="D233" s="4">
-        <v>5.53</v>
+        <v>1.96</v>
       </c>
       <c r="E233" s="4">
-        <v>5.7</v>
+        <v>2</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B234" s="4">
-        <v>2.0499999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C234" s="4">
-        <v>2.06</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D234" s="4">
-        <v>1.96</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E234" s="4">
-        <v>2</v>
-      </c>
-      <c r="F234" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="G234" s="4" t="s">
-        <v>500</v>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F234" s="4">
+        <v>0</v>
+      </c>
+      <c r="G234" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B235" s="4">
-        <v>0.56000000000000005</v>
+        <v>7</v>
       </c>
       <c r="C235" s="4">
-        <v>0.56000000000000005</v>
+        <v>7</v>
       </c>
       <c r="D235" s="4">
-        <v>0.56000000000000005</v>
+        <v>7</v>
       </c>
       <c r="E235" s="4">
-        <v>0.56000000000000005</v>
+        <v>7</v>
       </c>
       <c r="F235" s="4">
         <v>0</v>
@@ -8189,91 +8180,91 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B236" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="C236" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="D236" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="E236" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="F236" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="B236" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D236" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E236" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F236" s="4" t="s">
-        <v>228</v>
-      </c>
       <c r="G236" s="4" t="s">
-        <v>228</v>
+        <v>503</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B237" s="4">
-        <v>7</v>
+        <v>0.01</v>
       </c>
       <c r="C237" s="4">
-        <v>7</v>
+        <v>0.01</v>
       </c>
       <c r="D237" s="4">
-        <v>7</v>
+        <v>0.01</v>
       </c>
       <c r="E237" s="4">
-        <v>7</v>
-      </c>
-      <c r="F237" s="4">
-        <v>0</v>
-      </c>
-      <c r="G237" s="4">
-        <v>0</v>
+        <v>0.01</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="3" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B238" s="4">
-        <v>0.31</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="C238" s="4">
-        <v>0.31</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D238" s="4">
-        <v>0.31</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E238" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="F238" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="G238" s="4" t="s">
-        <v>506</v>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F238" s="4">
+        <v>0</v>
+      </c>
+      <c r="G238" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B239" s="4">
-        <v>0.01</v>
+        <v>0.72</v>
       </c>
       <c r="C239" s="4">
-        <v>0.01</v>
+        <v>0.72</v>
       </c>
       <c r="D239" s="4">
-        <v>0.01</v>
+        <v>0.72</v>
       </c>
       <c r="E239" s="4">
-        <v>0.01</v>
+        <v>0.72</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>508</v>
+        <v>214</v>
       </c>
       <c r="G239" s="4" t="s">
         <v>509</v>
@@ -8284,131 +8275,131 @@
         <v>510</v>
       </c>
       <c r="B240" s="4">
-        <v>1.0999999999999999E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="C240" s="4">
-        <v>1.0999999999999999E-2</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="D240" s="4">
-        <v>1.0999999999999999E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="E240" s="4">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="F240" s="4">
-        <v>0</v>
-      </c>
-      <c r="G240" s="4">
-        <v>0</v>
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="G240" s="4" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B241" s="4">
-        <v>0.72</v>
+        <v>1.9</v>
       </c>
       <c r="C241" s="4">
-        <v>0.72</v>
+        <v>1.9</v>
       </c>
       <c r="D241" s="4">
-        <v>0.72</v>
+        <v>1.9</v>
       </c>
       <c r="E241" s="4">
-        <v>0.72</v>
+        <v>1.9</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>214</v>
+        <v>514</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="3" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B242" s="4">
-        <v>9.7999999999999997E-3</v>
+        <v>5.7</v>
       </c>
       <c r="C242" s="4">
-        <v>9.9000000000000008E-3</v>
+        <v>5.7</v>
       </c>
       <c r="D242" s="4">
-        <v>9.7999999999999997E-3</v>
+        <v>5.7</v>
       </c>
       <c r="E242" s="4">
-        <v>9.9000000000000008E-3</v>
+        <v>5.7</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B243" s="4">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="C243" s="4">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="D243" s="4">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="E243" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="F243" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="G243" s="4" t="s">
-        <v>518</v>
+        <v>1.83</v>
+      </c>
+      <c r="F243" s="4">
+        <v>0</v>
+      </c>
+      <c r="G243" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B244" s="4">
-        <v>5.7</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="C244" s="4">
-        <v>5.7</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="D244" s="4">
-        <v>5.7</v>
+        <v>9.9</v>
       </c>
       <c r="E244" s="4">
-        <v>5.7</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B245" s="4">
-        <v>1.83</v>
+        <v>12.92</v>
       </c>
       <c r="C245" s="4">
-        <v>1.83</v>
+        <v>12.92</v>
       </c>
       <c r="D245" s="4">
-        <v>1.83</v>
+        <v>12.92</v>
       </c>
       <c r="E245" s="4">
-        <v>1.83</v>
+        <v>12.92</v>
       </c>
       <c r="F245" s="4">
         <v>0</v>
@@ -8419,42 +8410,42 @@
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B246" s="4">
-        <v>9.9499999999999993</v>
+        <v>2.35</v>
       </c>
       <c r="C246" s="4">
-        <v>9.9499999999999993</v>
+        <v>2.4</v>
       </c>
       <c r="D246" s="4">
-        <v>9.9</v>
+        <v>2.35</v>
       </c>
       <c r="E246" s="4">
-        <v>9.9499999999999993</v>
+        <v>2.38</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B247" s="4">
-        <v>12.92</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="C247" s="4">
-        <v>12.92</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="D247" s="4">
-        <v>12.92</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="E247" s="4">
-        <v>12.92</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="F247" s="4">
         <v>0</v>
@@ -8465,272 +8456,272 @@
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B248" s="4">
-        <v>2.35</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="C248" s="4">
-        <v>2.4</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="D248" s="4">
-        <v>2.35</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="E248" s="4">
-        <v>2.38</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B249" s="4">
-        <v>0.20499999999999999</v>
+        <v>34.15</v>
       </c>
       <c r="C249" s="4">
-        <v>0.20499999999999999</v>
+        <v>35</v>
       </c>
       <c r="D249" s="4">
-        <v>0.20499999999999999</v>
+        <v>33.9</v>
       </c>
       <c r="E249" s="4">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="F249" s="4">
-        <v>0</v>
-      </c>
-      <c r="G249" s="4">
-        <v>0</v>
+        <v>34.950000000000003</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="G249" s="4" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="3" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B250" s="4">
-        <v>4.6100000000000003</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="C250" s="4">
-        <v>4.6100000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="D250" s="4">
-        <v>4.6100000000000003</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="E250" s="4">
-        <v>4.6100000000000003</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="3" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B251" s="4">
-        <v>34.15</v>
+        <v>1.4</v>
       </c>
       <c r="C251" s="4">
-        <v>35</v>
+        <v>1.4</v>
       </c>
       <c r="D251" s="4">
-        <v>33.9</v>
+        <v>1.4</v>
       </c>
       <c r="E251" s="4">
-        <v>34.950000000000003</v>
-      </c>
-      <c r="F251" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="G251" s="4" t="s">
-        <v>536</v>
+        <v>1.4</v>
+      </c>
+      <c r="F251" s="4">
+        <v>0</v>
+      </c>
+      <c r="G251" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B252" s="4">
-        <v>0.29499999999999998</v>
+        <v>0.375</v>
       </c>
       <c r="C252" s="4">
-        <v>0.3</v>
+        <v>0.375</v>
       </c>
       <c r="D252" s="4">
-        <v>0.28499999999999998</v>
+        <v>0.375</v>
       </c>
       <c r="E252" s="4">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="F252" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="G252" s="4" t="s">
-        <v>539</v>
+        <v>0.375</v>
+      </c>
+      <c r="F252" s="4">
+        <v>0</v>
+      </c>
+      <c r="G252" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B253" s="4">
+        <v>19</v>
+      </c>
+      <c r="C253" s="4">
+        <v>19</v>
+      </c>
+      <c r="D253" s="4">
+        <v>19</v>
+      </c>
+      <c r="E253" s="4">
+        <v>19</v>
+      </c>
+      <c r="F253" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="B253" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="C253" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="D253" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="E253" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="F253" s="4">
-        <v>0</v>
-      </c>
-      <c r="G253" s="4">
-        <v>0</v>
+      <c r="G253" s="4" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B254" s="4">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="C254" s="4">
-        <v>0.375</v>
+        <v>0.82</v>
       </c>
       <c r="D254" s="4">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="E254" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="F254" s="4">
-        <v>0</v>
-      </c>
-      <c r="G254" s="4">
-        <v>0</v>
+        <v>0.81</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="G254" s="4" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="3" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B255" s="4">
-        <v>19</v>
+        <v>7.22</v>
       </c>
       <c r="C255" s="4">
-        <v>19</v>
+        <v>7.65</v>
       </c>
       <c r="D255" s="4">
-        <v>19</v>
+        <v>7.2</v>
       </c>
       <c r="E255" s="4">
-        <v>19</v>
-      </c>
-      <c r="F255" s="4" t="s">
-        <v>543</v>
+        <v>7.65</v>
+      </c>
+      <c r="F255" s="4">
+        <v>600</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="3" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B256" s="4">
-        <v>0.8</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="C256" s="4">
-        <v>0.82</v>
+        <v>0.47</v>
       </c>
       <c r="D256" s="4">
-        <v>0.8</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="E256" s="4">
-        <v>0.81</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="3" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B257" s="4">
-        <v>7.22</v>
+        <v>5.38</v>
       </c>
       <c r="C257" s="4">
-        <v>7.65</v>
+        <v>5.38</v>
       </c>
       <c r="D257" s="4">
-        <v>7.2</v>
+        <v>5.38</v>
       </c>
       <c r="E257" s="4">
-        <v>7.65</v>
+        <v>5.38</v>
       </c>
       <c r="F257" s="4">
-        <v>600</v>
-      </c>
-      <c r="G257" s="4" t="s">
-        <v>549</v>
+        <v>0</v>
+      </c>
+      <c r="G257" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B258" s="4">
-        <v>0.46500000000000002</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="C258" s="4">
-        <v>0.47</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D258" s="4">
-        <v>0.46500000000000002</v>
+        <v>18.7</v>
       </c>
       <c r="E258" s="4">
-        <v>0.46500000000000002</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B259" s="4">
-        <v>5.38</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C259" s="4">
-        <v>5.38</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D259" s="4">
-        <v>5.38</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E259" s="4">
-        <v>5.38</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F259" s="4">
         <v>0</v>
@@ -8741,22 +8732,22 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B260" s="4">
-        <v>18.899999999999999</v>
+        <v>8.59</v>
       </c>
       <c r="C260" s="4">
-        <v>18.899999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="D260" s="4">
-        <v>18.7</v>
+        <v>8.59</v>
       </c>
       <c r="E260" s="4">
-        <v>18.899999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>555</v>
+        <v>214</v>
       </c>
       <c r="G260" s="4" t="s">
         <v>556</v>
@@ -8767,16 +8758,16 @@
         <v>557</v>
       </c>
       <c r="B261" s="4">
-        <v>4.9000000000000004</v>
+        <v>100.4</v>
       </c>
       <c r="C261" s="4">
-        <v>4.9000000000000004</v>
+        <v>100.4</v>
       </c>
       <c r="D261" s="4">
-        <v>4.9000000000000004</v>
+        <v>100.4</v>
       </c>
       <c r="E261" s="4">
-        <v>4.9000000000000004</v>
+        <v>100.4</v>
       </c>
       <c r="F261" s="4">
         <v>0</v>
@@ -8790,19 +8781,19 @@
         <v>558</v>
       </c>
       <c r="B262" s="4">
-        <v>8.59</v>
+        <v>67.8</v>
       </c>
       <c r="C262" s="4">
-        <v>8.6</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="D262" s="4">
-        <v>8.59</v>
+        <v>67.5</v>
       </c>
       <c r="E262" s="4">
-        <v>8.6</v>
+        <v>68</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c r="G262" s="4" t="s">
         <v>559</v>
@@ -8813,108 +8804,108 @@
         <v>560</v>
       </c>
       <c r="B263" s="4">
-        <v>100.4</v>
+        <v>325</v>
       </c>
       <c r="C263" s="4">
-        <v>100.4</v>
+        <v>353.8</v>
       </c>
       <c r="D263" s="4">
-        <v>100.4</v>
+        <v>325</v>
       </c>
       <c r="E263" s="4">
-        <v>100.4</v>
-      </c>
-      <c r="F263" s="4">
-        <v>0</v>
-      </c>
-      <c r="G263" s="4">
-        <v>0</v>
+        <v>349.8</v>
+      </c>
+      <c r="F263" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="G263" s="4" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="3" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B264" s="4">
-        <v>67.8</v>
+        <v>100</v>
       </c>
       <c r="C264" s="4">
-        <v>68.099999999999994</v>
+        <v>100</v>
       </c>
       <c r="D264" s="4">
-        <v>67.5</v>
+        <v>100</v>
       </c>
       <c r="E264" s="4">
-        <v>68</v>
-      </c>
-      <c r="F264" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G264" s="4" t="s">
-        <v>562</v>
+        <v>100</v>
+      </c>
+      <c r="F264" s="4">
+        <v>0</v>
+      </c>
+      <c r="G264" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B265" s="4">
-        <v>325</v>
+        <v>7.3</v>
       </c>
       <c r="C265" s="4">
-        <v>353.8</v>
+        <v>7.3</v>
       </c>
       <c r="D265" s="4">
-        <v>325</v>
+        <v>7.3</v>
       </c>
       <c r="E265" s="4">
-        <v>349.8</v>
-      </c>
-      <c r="F265" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="G265" s="4" t="s">
-        <v>565</v>
+        <v>7.3</v>
+      </c>
+      <c r="F265" s="4">
+        <v>0</v>
+      </c>
+      <c r="G265" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B266" s="4">
+        <v>5.73</v>
+      </c>
+      <c r="C266" s="4">
+        <v>5.73</v>
+      </c>
+      <c r="D266" s="4">
+        <v>5.73</v>
+      </c>
+      <c r="E266" s="4">
+        <v>5.73</v>
+      </c>
+      <c r="F266" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="B266" s="4">
-        <v>100</v>
-      </c>
-      <c r="C266" s="4">
-        <v>100</v>
-      </c>
-      <c r="D266" s="4">
-        <v>100</v>
-      </c>
-      <c r="E266" s="4">
-        <v>100</v>
-      </c>
-      <c r="F266" s="4">
-        <v>0</v>
-      </c>
-      <c r="G266" s="4">
-        <v>0</v>
+      <c r="G266" s="4" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B267" s="4">
-        <v>7.3</v>
+        <v>7.89</v>
       </c>
       <c r="C267" s="4">
-        <v>7.3</v>
+        <v>7.89</v>
       </c>
       <c r="D267" s="4">
-        <v>7.3</v>
+        <v>7.89</v>
       </c>
       <c r="E267" s="4">
-        <v>7.3</v>
+        <v>7.89</v>
       </c>
       <c r="F267" s="4">
         <v>0</v>
@@ -8925,42 +8916,42 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B268" s="4">
-        <v>5.73</v>
+        <v>1.53</v>
       </c>
       <c r="C268" s="4">
-        <v>5.73</v>
+        <v>1.6</v>
       </c>
       <c r="D268" s="4">
-        <v>5.73</v>
+        <v>1.53</v>
       </c>
       <c r="E268" s="4">
-        <v>5.73</v>
+        <v>1.6</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="B269" s="4">
-        <v>7.89</v>
-      </c>
-      <c r="C269" s="4">
-        <v>7.89</v>
-      </c>
-      <c r="D269" s="4">
-        <v>7.89</v>
-      </c>
-      <c r="E269" s="4">
-        <v>7.89</v>
+        <v>572</v>
+      </c>
+      <c r="B269" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C269" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D269" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E269" s="5">
+        <v>1000</v>
       </c>
       <c r="F269" s="4">
         <v>0</v>
@@ -8971,623 +8962,623 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="B270" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="C270" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="D270" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="E270" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="F270" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="G270" s="4" t="s">
-        <v>574</v>
+      <c r="B270" s="5">
+        <v>1027</v>
+      </c>
+      <c r="C270" s="5">
+        <v>1027</v>
+      </c>
+      <c r="D270" s="5">
+        <v>1027</v>
+      </c>
+      <c r="E270" s="5">
+        <v>1027</v>
+      </c>
+      <c r="F270" s="4">
+        <v>0</v>
+      </c>
+      <c r="G270" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B271" s="5">
+        <v>1010</v>
+      </c>
+      <c r="C271" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D271" s="5">
+        <v>1010</v>
+      </c>
+      <c r="E271" s="5">
+        <v>1010</v>
+      </c>
+      <c r="F271" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="B271" s="5">
-        <v>1000</v>
-      </c>
-      <c r="C271" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D271" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E271" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F271" s="4">
-        <v>0</v>
-      </c>
-      <c r="G271" s="4">
-        <v>0</v>
+      <c r="G271" s="4" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B272" s="5">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C272" s="5">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="D272" s="5">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E272" s="5">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F272" s="4">
-        <v>0</v>
-      </c>
-      <c r="G272" s="4">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="G272" s="4" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="B273" s="5">
-        <v>1010</v>
-      </c>
-      <c r="C273" s="5">
-        <v>1010</v>
-      </c>
-      <c r="D273" s="5">
-        <v>1010</v>
-      </c>
-      <c r="E273" s="5">
-        <v>1010</v>
+        <v>579</v>
+      </c>
+      <c r="B273" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="C273" s="4">
+        <v>2.17</v>
+      </c>
+      <c r="D273" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="E273" s="4">
+        <v>2.1</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="B274" s="5">
-        <v>1025</v>
-      </c>
-      <c r="C274" s="5">
-        <v>1030</v>
-      </c>
-      <c r="D274" s="5">
-        <v>1025</v>
-      </c>
-      <c r="E274" s="5">
-        <v>1025</v>
+        <v>582</v>
+      </c>
+      <c r="B274" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="C274" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="D274" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="E274" s="4">
+        <v>2.29</v>
       </c>
       <c r="F274" s="4">
-        <v>150</v>
-      </c>
-      <c r="G274" s="4" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="G274" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B275" s="4">
-        <v>2.09</v>
+        <v>56.9</v>
       </c>
       <c r="C275" s="4">
-        <v>2.17</v>
+        <v>57</v>
       </c>
       <c r="D275" s="4">
-        <v>2.09</v>
+        <v>56.5</v>
       </c>
       <c r="E275" s="4">
-        <v>2.1</v>
+        <v>57</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G275" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B276" s="4">
-        <v>2.29</v>
+        <v>159.6</v>
       </c>
       <c r="C276" s="4">
-        <v>2.29</v>
+        <v>159.6</v>
       </c>
       <c r="D276" s="4">
-        <v>2.29</v>
+        <v>156.5</v>
       </c>
       <c r="E276" s="4">
-        <v>2.29</v>
-      </c>
-      <c r="F276" s="4">
-        <v>0</v>
-      </c>
-      <c r="G276" s="4">
-        <v>0</v>
+        <v>156.6</v>
+      </c>
+      <c r="F276" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="G276" s="4" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="3" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B277" s="4">
-        <v>56.9</v>
+        <v>100</v>
       </c>
       <c r="C277" s="4">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D277" s="4">
-        <v>56.5</v>
+        <v>100</v>
       </c>
       <c r="E277" s="4">
-        <v>57</v>
-      </c>
-      <c r="F277" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="G277" s="4" t="s">
-        <v>588</v>
+        <v>100</v>
+      </c>
+      <c r="F277" s="4">
+        <v>0</v>
+      </c>
+      <c r="G277" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B278" s="4">
-        <v>159.6</v>
+        <v>0.33</v>
       </c>
       <c r="C278" s="4">
-        <v>159.6</v>
+        <v>0.33</v>
       </c>
       <c r="D278" s="4">
-        <v>156.5</v>
+        <v>0.33</v>
       </c>
       <c r="E278" s="4">
-        <v>156.6</v>
-      </c>
-      <c r="F278" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="G278" s="4" t="s">
-        <v>591</v>
+        <v>0.33</v>
+      </c>
+      <c r="F278" s="4">
+        <v>0</v>
+      </c>
+      <c r="G278" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B279" s="4">
+        <v>2.89</v>
+      </c>
+      <c r="C279" s="4">
+        <v>3</v>
+      </c>
+      <c r="D279" s="4">
+        <v>2.89</v>
+      </c>
+      <c r="E279" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="F279" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="B279" s="4">
-        <v>100</v>
-      </c>
-      <c r="C279" s="4">
-        <v>100</v>
-      </c>
-      <c r="D279" s="4">
-        <v>100</v>
-      </c>
-      <c r="E279" s="4">
-        <v>100</v>
-      </c>
-      <c r="F279" s="4">
-        <v>0</v>
-      </c>
-      <c r="G279" s="4">
-        <v>0</v>
+      <c r="G279" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B280" s="4">
-        <v>0.33</v>
+        <v>7.1</v>
       </c>
       <c r="C280" s="4">
-        <v>0.33</v>
+        <v>7.2</v>
       </c>
       <c r="D280" s="4">
-        <v>0.33</v>
+        <v>7</v>
       </c>
       <c r="E280" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="F280" s="4">
-        <v>0</v>
-      </c>
-      <c r="G280" s="4">
-        <v>0</v>
+        <v>7.09</v>
+      </c>
+      <c r="F280" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="G280" s="4" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="3" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B281" s="4">
-        <v>2.89</v>
+        <v>23.35</v>
       </c>
       <c r="C281" s="4">
-        <v>3</v>
+        <v>23.85</v>
       </c>
       <c r="D281" s="4">
-        <v>2.89</v>
+        <v>23.15</v>
       </c>
       <c r="E281" s="4">
-        <v>2.97</v>
+        <v>23.85</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="G281" s="4" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="3" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B282" s="4">
-        <v>7.1</v>
+        <v>0.47</v>
       </c>
       <c r="C282" s="4">
-        <v>7.2</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D282" s="4">
-        <v>7</v>
+        <v>0.47</v>
       </c>
       <c r="E282" s="4">
-        <v>7.09</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>598</v>
+        <v>402</v>
       </c>
       <c r="G282" s="4" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="3" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B283" s="4">
-        <v>23.35</v>
+        <v>5.75</v>
       </c>
       <c r="C283" s="4">
-        <v>23.85</v>
+        <v>5.85</v>
       </c>
       <c r="D283" s="4">
-        <v>23.15</v>
+        <v>5.72</v>
       </c>
       <c r="E283" s="4">
-        <v>23.85</v>
+        <v>5.85</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G283" s="4" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="3" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B284" s="4">
-        <v>0.47</v>
+        <v>3.09</v>
       </c>
       <c r="C284" s="4">
-        <v>0.47499999999999998</v>
+        <v>3.09</v>
       </c>
       <c r="D284" s="4">
-        <v>0.47</v>
+        <v>3.09</v>
       </c>
       <c r="E284" s="4">
-        <v>0.47499999999999998</v>
+        <v>3.09</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>404</v>
+        <v>606</v>
       </c>
       <c r="G284" s="4" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="3" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B285" s="4">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="C285" s="4">
-        <v>5.85</v>
+        <v>3.6</v>
       </c>
       <c r="D285" s="4">
-        <v>5.72</v>
+        <v>3.58</v>
       </c>
       <c r="E285" s="4">
-        <v>5.85</v>
+        <v>3.58</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="G285" s="4" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="3" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B286" s="4">
-        <v>3.09</v>
+        <v>14.9</v>
       </c>
       <c r="C286" s="4">
-        <v>3.09</v>
+        <v>15</v>
       </c>
       <c r="D286" s="4">
-        <v>3.09</v>
+        <v>14.8</v>
       </c>
       <c r="E286" s="4">
-        <v>3.09</v>
+        <v>15</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="G286" s="4" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="3" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B287" s="4">
-        <v>3.6</v>
+        <v>0.182</v>
       </c>
       <c r="C287" s="4">
-        <v>3.6</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="D287" s="4">
-        <v>3.58</v>
+        <v>0.182</v>
       </c>
       <c r="E287" s="4">
-        <v>3.58</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="F287" s="4" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="G287" s="4" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="3" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B288" s="4">
-        <v>14.9</v>
+        <v>1.39</v>
       </c>
       <c r="C288" s="4">
-        <v>15</v>
+        <v>1.4</v>
       </c>
       <c r="D288" s="4">
-        <v>14.8</v>
+        <v>1.32</v>
       </c>
       <c r="E288" s="4">
-        <v>15</v>
+        <v>1.39</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="G288" s="4" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="3" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B289" s="4">
-        <v>0.182</v>
+        <v>0.71</v>
       </c>
       <c r="C289" s="4">
-        <v>0.19700000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="D289" s="4">
-        <v>0.182</v>
+        <v>0.71</v>
       </c>
       <c r="E289" s="4">
-        <v>0.19700000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>618</v>
+        <v>302</v>
       </c>
       <c r="G289" s="4" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="3" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B290" s="4">
-        <v>1.39</v>
+        <v>54.6</v>
       </c>
       <c r="C290" s="4">
-        <v>1.4</v>
+        <v>54.65</v>
       </c>
       <c r="D290" s="4">
-        <v>1.32</v>
+        <v>54</v>
       </c>
       <c r="E290" s="4">
-        <v>1.39</v>
+        <v>54.1</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G290" s="4" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" s="3" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B291" s="4">
-        <v>0.71</v>
+        <v>3.69</v>
       </c>
       <c r="C291" s="4">
-        <v>0.77</v>
+        <v>3.69</v>
       </c>
       <c r="D291" s="4">
-        <v>0.71</v>
+        <v>3.69</v>
       </c>
       <c r="E291" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="F291" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="G291" s="4" t="s">
-        <v>624</v>
+        <v>3.69</v>
+      </c>
+      <c r="F291" s="4">
+        <v>0</v>
+      </c>
+      <c r="G291" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B292" s="4">
-        <v>54.6</v>
+        <v>34.5</v>
       </c>
       <c r="C292" s="4">
-        <v>54.65</v>
+        <v>34.85</v>
       </c>
       <c r="D292" s="4">
-        <v>54</v>
+        <v>34.5</v>
       </c>
       <c r="E292" s="4">
-        <v>54.1</v>
+        <v>34.75</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G292" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="293" spans="1:7">
       <c r="A293" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B293" s="4">
-        <v>3.69</v>
+        <v>88.1</v>
       </c>
       <c r="C293" s="4">
-        <v>3.69</v>
+        <v>88.5</v>
       </c>
       <c r="D293" s="4">
-        <v>3.69</v>
+        <v>86.9</v>
       </c>
       <c r="E293" s="4">
-        <v>3.69</v>
-      </c>
-      <c r="F293" s="4">
-        <v>0</v>
-      </c>
-      <c r="G293" s="4">
-        <v>0</v>
+        <v>88.5</v>
+      </c>
+      <c r="F293" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="G293" s="4" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" s="3" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B294" s="4">
-        <v>34.5</v>
+        <v>72.849999999999994</v>
       </c>
       <c r="C294" s="4">
-        <v>34.85</v>
+        <v>72.849999999999994</v>
       </c>
       <c r="D294" s="4">
-        <v>34.5</v>
+        <v>71</v>
       </c>
       <c r="E294" s="4">
-        <v>34.75</v>
+        <v>71.5</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="G294" s="4" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" s="3" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B295" s="4">
-        <v>88.1</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="C295" s="4">
-        <v>88.5</v>
+        <v>7.8E-2</v>
       </c>
       <c r="D295" s="4">
-        <v>86.9</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E295" s="4">
-        <v>88.5</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>633</v>
+        <v>411</v>
       </c>
       <c r="G295" s="4" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="3" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B296" s="4">
-        <v>72.849999999999994</v>
+        <v>1.95</v>
       </c>
       <c r="C296" s="4">
-        <v>72.849999999999994</v>
+        <v>1.95</v>
       </c>
       <c r="D296" s="4">
-        <v>71</v>
+        <v>1.95</v>
       </c>
       <c r="E296" s="4">
-        <v>71.5</v>
-      </c>
-      <c r="F296" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="G296" s="4" t="s">
-        <v>637</v>
+        <v>1.95</v>
+      </c>
+      <c r="F296" s="4">
+        <v>0</v>
+      </c>
+      <c r="G296" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -9595,19 +9586,19 @@
         <v>638</v>
       </c>
       <c r="B297" s="4">
-        <v>7.6999999999999999E-2</v>
+        <v>0.88</v>
       </c>
       <c r="C297" s="4">
-        <v>7.8E-2</v>
+        <v>0.88</v>
       </c>
       <c r="D297" s="4">
-        <v>7.6999999999999999E-2</v>
+        <v>0.85</v>
       </c>
       <c r="E297" s="4">
-        <v>7.6999999999999999E-2</v>
+        <v>0.87</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>413</v>
+        <v>529</v>
       </c>
       <c r="G297" s="4" t="s">
         <v>639</v>
@@ -9618,88 +9609,88 @@
         <v>640</v>
       </c>
       <c r="B298" s="4">
-        <v>1.95</v>
+        <v>11.26</v>
       </c>
       <c r="C298" s="4">
-        <v>1.95</v>
+        <v>11.32</v>
       </c>
       <c r="D298" s="4">
-        <v>1.95</v>
+        <v>11.16</v>
       </c>
       <c r="E298" s="4">
-        <v>1.95</v>
-      </c>
-      <c r="F298" s="4">
-        <v>0</v>
-      </c>
-      <c r="G298" s="4">
-        <v>0</v>
+        <v>11.28</v>
+      </c>
+      <c r="F298" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="G298" s="4" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B299" s="4">
-        <v>0.88</v>
+        <v>16.8</v>
       </c>
       <c r="C299" s="4">
-        <v>0.88</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D299" s="4">
-        <v>0.85</v>
+        <v>16.72</v>
       </c>
       <c r="E299" s="4">
-        <v>0.87</v>
+        <v>16.72</v>
       </c>
       <c r="F299" s="4" t="s">
-        <v>532</v>
+        <v>644</v>
       </c>
       <c r="G299" s="4" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" s="3" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B300" s="4">
-        <v>11.26</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="C300" s="4">
-        <v>11.32</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="D300" s="4">
-        <v>11.16</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="E300" s="4">
-        <v>11.28</v>
-      </c>
-      <c r="F300" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="G300" s="4" t="s">
-        <v>645</v>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F300" s="4">
+        <v>0</v>
+      </c>
+      <c r="G300" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="B301" s="4">
-        <v>16.8</v>
-      </c>
-      <c r="C301" s="4">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="D301" s="4">
-        <v>16.72</v>
-      </c>
-      <c r="E301" s="4">
-        <v>16.72</v>
-      </c>
-      <c r="F301" s="4" t="s">
         <v>647</v>
+      </c>
+      <c r="B301" s="5">
+        <v>2500</v>
+      </c>
+      <c r="C301" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D301" s="5">
+        <v>2500</v>
+      </c>
+      <c r="E301" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F301" s="4">
+        <v>215</v>
       </c>
       <c r="G301" s="4" t="s">
         <v>648</v>
@@ -9710,131 +9701,131 @@
         <v>649</v>
       </c>
       <c r="B302" s="4">
-        <v>2.5499999999999998</v>
+        <v>3.22</v>
       </c>
       <c r="C302" s="4">
-        <v>2.5499999999999998</v>
+        <v>3.24</v>
       </c>
       <c r="D302" s="4">
-        <v>2.5499999999999998</v>
+        <v>3.22</v>
       </c>
       <c r="E302" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F302" s="4">
-        <v>0</v>
-      </c>
-      <c r="G302" s="4">
-        <v>0</v>
+        <v>3.24</v>
+      </c>
+      <c r="F302" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G302" s="4" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="B303" s="5">
-        <v>2500</v>
-      </c>
-      <c r="C303" s="5">
-        <v>2500</v>
-      </c>
-      <c r="D303" s="5">
-        <v>2500</v>
-      </c>
-      <c r="E303" s="5">
-        <v>2500</v>
-      </c>
-      <c r="F303" s="4">
-        <v>215</v>
+        <v>651</v>
+      </c>
+      <c r="B303" s="4">
+        <v>920</v>
+      </c>
+      <c r="C303" s="4">
+        <v>930</v>
+      </c>
+      <c r="D303" s="4">
+        <v>901</v>
+      </c>
+      <c r="E303" s="4">
+        <v>910</v>
+      </c>
+      <c r="F303" s="4" t="s">
+        <v>652</v>
       </c>
       <c r="G303" s="4" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" s="3" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B304" s="4">
-        <v>3.22</v>
+        <v>93.85</v>
       </c>
       <c r="C304" s="4">
-        <v>3.24</v>
+        <v>94</v>
       </c>
       <c r="D304" s="4">
-        <v>3.22</v>
+        <v>92.95</v>
       </c>
       <c r="E304" s="4">
-        <v>3.24</v>
+        <v>94</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>392</v>
+        <v>655</v>
       </c>
       <c r="G304" s="4" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="3" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B305" s="4">
-        <v>920</v>
+        <v>74</v>
       </c>
       <c r="C305" s="4">
-        <v>930</v>
+        <v>74</v>
       </c>
       <c r="D305" s="4">
-        <v>901</v>
+        <v>74</v>
       </c>
       <c r="E305" s="4">
-        <v>910</v>
-      </c>
-      <c r="F305" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="G305" s="4" t="s">
-        <v>656</v>
+        <v>74</v>
+      </c>
+      <c r="F305" s="4">
+        <v>0</v>
+      </c>
+      <c r="G305" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B306" s="4">
-        <v>93.85</v>
+        <v>76.05</v>
       </c>
       <c r="C306" s="4">
-        <v>94</v>
+        <v>76.05</v>
       </c>
       <c r="D306" s="4">
-        <v>92.95</v>
+        <v>76.05</v>
       </c>
       <c r="E306" s="4">
-        <v>94</v>
-      </c>
-      <c r="F306" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="G306" s="4" t="s">
-        <v>659</v>
+        <v>76.05</v>
+      </c>
+      <c r="F306" s="4">
+        <v>0</v>
+      </c>
+      <c r="G306" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B307" s="4">
-        <v>74</v>
+        <v>76.349999999999994</v>
       </c>
       <c r="C307" s="4">
-        <v>74</v>
+        <v>76.349999999999994</v>
       </c>
       <c r="D307" s="4">
-        <v>74</v>
+        <v>76.349999999999994</v>
       </c>
       <c r="E307" s="4">
-        <v>74</v>
+        <v>76.349999999999994</v>
       </c>
       <c r="F307" s="4">
         <v>0</v>
@@ -9845,19 +9836,19 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B308" s="4">
-        <v>76.05</v>
+        <v>75.3</v>
       </c>
       <c r="C308" s="4">
-        <v>76.05</v>
+        <v>75.3</v>
       </c>
       <c r="D308" s="4">
-        <v>76.05</v>
+        <v>75.3</v>
       </c>
       <c r="E308" s="4">
-        <v>76.05</v>
+        <v>75.3</v>
       </c>
       <c r="F308" s="4">
         <v>0</v>
@@ -9868,19 +9859,19 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B309" s="4">
-        <v>76.349999999999994</v>
+        <v>76.55</v>
       </c>
       <c r="C309" s="4">
-        <v>76.349999999999994</v>
+        <v>76.55</v>
       </c>
       <c r="D309" s="4">
-        <v>76.349999999999994</v>
+        <v>76.55</v>
       </c>
       <c r="E309" s="4">
-        <v>76.349999999999994</v>
+        <v>76.55</v>
       </c>
       <c r="F309" s="4">
         <v>0</v>
@@ -9891,42 +9882,42 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B310" s="4">
+        <v>75</v>
+      </c>
+      <c r="C310" s="4">
+        <v>75</v>
+      </c>
+      <c r="D310" s="4">
+        <v>75</v>
+      </c>
+      <c r="E310" s="4">
+        <v>75</v>
+      </c>
+      <c r="F310" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="B310" s="4">
-        <v>75.3</v>
-      </c>
-      <c r="C310" s="4">
-        <v>75.3</v>
-      </c>
-      <c r="D310" s="4">
-        <v>75.3</v>
-      </c>
-      <c r="E310" s="4">
-        <v>75.3</v>
-      </c>
-      <c r="F310" s="4">
-        <v>0</v>
-      </c>
-      <c r="G310" s="4">
-        <v>0</v>
+      <c r="G310" s="4" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B311" s="4">
-        <v>76.55</v>
+        <v>76.7</v>
       </c>
       <c r="C311" s="4">
-        <v>76.55</v>
+        <v>76.7</v>
       </c>
       <c r="D311" s="4">
-        <v>76.55</v>
+        <v>76.7</v>
       </c>
       <c r="E311" s="4">
-        <v>76.55</v>
+        <v>76.7</v>
       </c>
       <c r="F311" s="4">
         <v>0</v>
@@ -9937,7 +9928,7 @@
     </row>
     <row r="312" spans="1:7">
       <c r="A312" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B312" s="4">
         <v>75</v>
@@ -9951,34 +9942,34 @@
       <c r="E312" s="4">
         <v>75</v>
       </c>
-      <c r="F312" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="G312" s="4" t="s">
-        <v>667</v>
+      <c r="F312" s="4">
+        <v>0</v>
+      </c>
+      <c r="G312" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B313" s="4">
+        <v>75.5</v>
+      </c>
+      <c r="C313" s="4">
+        <v>75.5</v>
+      </c>
+      <c r="D313" s="4">
+        <v>75</v>
+      </c>
+      <c r="E313" s="4">
+        <v>75</v>
+      </c>
+      <c r="F313" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="B313" s="4">
-        <v>76.7</v>
-      </c>
-      <c r="C313" s="4">
-        <v>76.7</v>
-      </c>
-      <c r="D313" s="4">
-        <v>76.7</v>
-      </c>
-      <c r="E313" s="4">
-        <v>76.7</v>
-      </c>
-      <c r="F313" s="4">
-        <v>0</v>
-      </c>
-      <c r="G313" s="4">
-        <v>0</v>
+      <c r="G313" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -9986,108 +9977,108 @@
         <v>669</v>
       </c>
       <c r="B314" s="4">
-        <v>75</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="C314" s="4">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D314" s="4">
-        <v>75</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="E314" s="4">
-        <v>75</v>
-      </c>
-      <c r="F314" s="4">
-        <v>0</v>
-      </c>
-      <c r="G314" s="4">
-        <v>0</v>
+        <v>71.150000000000006</v>
+      </c>
+      <c r="F314" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="G314" s="4" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="315" spans="1:7">
       <c r="A315" s="3" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B315" s="4">
-        <v>75.5</v>
+        <v>71.5</v>
       </c>
       <c r="C315" s="4">
-        <v>75.5</v>
+        <v>72</v>
       </c>
       <c r="D315" s="4">
-        <v>75</v>
+        <v>71.5</v>
       </c>
       <c r="E315" s="4">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F315" s="4" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G315" s="4" t="s">
-        <v>98</v>
+        <v>674</v>
       </c>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" s="3" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B316" s="4">
-        <v>72.900000000000006</v>
+        <v>74</v>
       </c>
       <c r="C316" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D316" s="4">
-        <v>71.099999999999994</v>
+        <v>74</v>
       </c>
       <c r="E316" s="4">
-        <v>71.150000000000006</v>
-      </c>
-      <c r="F316" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="G316" s="4" t="s">
-        <v>674</v>
+        <v>74</v>
+      </c>
+      <c r="F316" s="4">
+        <v>0</v>
+      </c>
+      <c r="G316" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:7">
       <c r="A317" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B317" s="4">
-        <v>71.5</v>
+        <v>35.5</v>
       </c>
       <c r="C317" s="4">
-        <v>72</v>
+        <v>35.950000000000003</v>
       </c>
       <c r="D317" s="4">
-        <v>71.5</v>
+        <v>34.6</v>
       </c>
       <c r="E317" s="4">
-        <v>72</v>
+        <v>34.9</v>
       </c>
       <c r="F317" s="4" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G317" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="318" spans="1:7">
       <c r="A318" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B318" s="4">
-        <v>74</v>
+        <v>0.46</v>
       </c>
       <c r="C318" s="4">
-        <v>74</v>
+        <v>0.46</v>
       </c>
       <c r="D318" s="4">
-        <v>74</v>
+        <v>0.46</v>
       </c>
       <c r="E318" s="4">
-        <v>74</v>
+        <v>0.46</v>
       </c>
       <c r="F318" s="4">
         <v>0</v>
@@ -10098,226 +10089,226 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B319" s="4">
-        <v>35.5</v>
+        <v>9.34</v>
       </c>
       <c r="C319" s="4">
-        <v>35.950000000000003</v>
+        <v>9.34</v>
       </c>
       <c r="D319" s="4">
-        <v>34.6</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="E319" s="4">
-        <v>34.9</v>
+        <v>9.25</v>
       </c>
       <c r="F319" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G319" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="320" spans="1:7">
       <c r="A320" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B320" s="4">
-        <v>0.46</v>
+        <v>1.72</v>
       </c>
       <c r="C320" s="4">
-        <v>0.46</v>
+        <v>1.72</v>
       </c>
       <c r="D320" s="4">
-        <v>0.46</v>
+        <v>1.7</v>
       </c>
       <c r="E320" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="F320" s="4">
-        <v>0</v>
-      </c>
-      <c r="G320" s="4">
-        <v>0</v>
+        <v>1.7</v>
+      </c>
+      <c r="F320" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G320" s="4" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="3" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B321" s="4">
-        <v>9.34</v>
+        <v>1.22</v>
       </c>
       <c r="C321" s="4">
-        <v>9.34</v>
+        <v>1.22</v>
       </c>
       <c r="D321" s="4">
-        <v>9.2100000000000009</v>
+        <v>1.19</v>
       </c>
       <c r="E321" s="4">
-        <v>9.25</v>
+        <v>1.2</v>
       </c>
       <c r="F321" s="4" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G321" s="4" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="3" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B322" s="4">
-        <v>1.72</v>
+        <v>0.8</v>
       </c>
       <c r="C322" s="4">
-        <v>1.72</v>
+        <v>0.8</v>
       </c>
       <c r="D322" s="4">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="E322" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="F322" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G322" s="4" t="s">
-        <v>687</v>
+        <v>0.8</v>
+      </c>
+      <c r="F322" s="4">
+        <v>0</v>
+      </c>
+      <c r="G322" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B323" s="4">
-        <v>1.22</v>
+        <v>1.52</v>
       </c>
       <c r="C323" s="4">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="D323" s="4">
-        <v>1.19</v>
+        <v>1.52</v>
       </c>
       <c r="E323" s="4">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="F323" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G323" s="4" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="324" spans="1:7">
       <c r="A324" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B324" s="4">
-        <v>0.8</v>
+        <v>1.44</v>
       </c>
       <c r="C324" s="4">
-        <v>0.8</v>
+        <v>1.48</v>
       </c>
       <c r="D324" s="4">
-        <v>0.8</v>
+        <v>1.44</v>
       </c>
       <c r="E324" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="F324" s="4">
-        <v>0</v>
-      </c>
-      <c r="G324" s="4">
-        <v>0</v>
+        <v>1.46</v>
+      </c>
+      <c r="F324" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="G324" s="4" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="325" spans="1:7">
       <c r="A325" s="3" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B325" s="4">
-        <v>1.52</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="C325" s="4">
-        <v>1.53</v>
+        <v>0.34</v>
       </c>
       <c r="D325" s="4">
-        <v>1.52</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="E325" s="4">
-        <v>1.52</v>
+        <v>0.34</v>
       </c>
       <c r="F325" s="4" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="G325" s="4" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="326" spans="1:7">
       <c r="A326" s="3" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B326" s="4">
-        <v>1.44</v>
+        <v>0.26</v>
       </c>
       <c r="C326" s="4">
-        <v>1.48</v>
+        <v>0.26</v>
       </c>
       <c r="D326" s="4">
-        <v>1.44</v>
+        <v>0.26</v>
       </c>
       <c r="E326" s="4">
-        <v>1.46</v>
-      </c>
-      <c r="F326" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="G326" s="4" t="s">
-        <v>697</v>
+        <v>0.26</v>
+      </c>
+      <c r="F326" s="4">
+        <v>0</v>
+      </c>
+      <c r="G326" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:7">
       <c r="A327" s="3" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B327" s="4">
-        <v>0.33500000000000002</v>
+        <v>2.84</v>
       </c>
       <c r="C327" s="4">
-        <v>0.34</v>
+        <v>2.98</v>
       </c>
       <c r="D327" s="4">
-        <v>0.33500000000000002</v>
+        <v>2.84</v>
       </c>
       <c r="E327" s="4">
-        <v>0.34</v>
+        <v>2.91</v>
       </c>
       <c r="F327" s="4" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G327" s="4" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="328" spans="1:7">
       <c r="A328" s="3" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B328" s="4">
-        <v>0.26</v>
+        <v>0.99</v>
       </c>
       <c r="C328" s="4">
-        <v>0.26</v>
+        <v>0.99</v>
       </c>
       <c r="D328" s="4">
-        <v>0.26</v>
+        <v>0.99</v>
       </c>
       <c r="E328" s="4">
-        <v>0.26</v>
+        <v>0.99</v>
       </c>
       <c r="F328" s="4">
         <v>0</v>
@@ -10328,22 +10319,22 @@
     </row>
     <row r="329" spans="1:7">
       <c r="A329" s="3" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B329" s="4">
-        <v>2.84</v>
+        <v>0.52</v>
       </c>
       <c r="C329" s="4">
-        <v>2.98</v>
+        <v>0.52</v>
       </c>
       <c r="D329" s="4">
-        <v>2.84</v>
+        <v>0.52</v>
       </c>
       <c r="E329" s="4">
-        <v>2.91</v>
+        <v>0.52</v>
       </c>
       <c r="F329" s="4" t="s">
-        <v>703</v>
+        <v>264</v>
       </c>
       <c r="G329" s="4" t="s">
         <v>704</v>
@@ -10354,114 +10345,114 @@
         <v>705</v>
       </c>
       <c r="B330" s="4">
-        <v>0.99</v>
+        <v>0.22</v>
       </c>
       <c r="C330" s="4">
-        <v>0.99</v>
+        <v>0.22</v>
       </c>
       <c r="D330" s="4">
-        <v>0.99</v>
+        <v>0.216</v>
       </c>
       <c r="E330" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="F330" s="4">
-        <v>0</v>
-      </c>
-      <c r="G330" s="4">
-        <v>0</v>
+        <v>0.216</v>
+      </c>
+      <c r="F330" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="G330" s="4" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="331" spans="1:7">
       <c r="A331" s="3" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B331" s="4">
-        <v>0.52</v>
+        <v>0.95</v>
       </c>
       <c r="C331" s="4">
-        <v>0.52</v>
+        <v>0.95</v>
       </c>
       <c r="D331" s="4">
-        <v>0.52</v>
+        <v>0.95</v>
       </c>
       <c r="E331" s="4">
-        <v>0.52</v>
+        <v>0.95</v>
       </c>
       <c r="F331" s="4" t="s">
-        <v>266</v>
+        <v>709</v>
       </c>
       <c r="G331" s="4" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="332" spans="1:7">
       <c r="A332" s="3" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B332" s="4">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="C332" s="4">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="D332" s="4">
-        <v>0.216</v>
+        <v>1</v>
       </c>
       <c r="E332" s="4">
-        <v>0.216</v>
-      </c>
-      <c r="F332" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="G332" s="4" t="s">
-        <v>710</v>
+        <v>1</v>
+      </c>
+      <c r="F332" s="4">
+        <v>0</v>
+      </c>
+      <c r="G332" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="3" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B333" s="4">
-        <v>0.95</v>
+        <v>52.8</v>
       </c>
       <c r="C333" s="4">
-        <v>0.95</v>
+        <v>52.8</v>
       </c>
       <c r="D333" s="4">
-        <v>0.95</v>
+        <v>52.8</v>
       </c>
       <c r="E333" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="F333" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="G333" s="4" t="s">
-        <v>713</v>
+        <v>52.8</v>
+      </c>
+      <c r="F333" s="4">
+        <v>0</v>
+      </c>
+      <c r="G333" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:7">
       <c r="A334" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="B334" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="C334" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="D334" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="E334" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="F334" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G334" s="4" t="s">
         <v>714</v>
-      </c>
-      <c r="B334" s="4">
-        <v>1</v>
-      </c>
-      <c r="C334" s="4">
-        <v>1</v>
-      </c>
-      <c r="D334" s="4">
-        <v>1</v>
-      </c>
-      <c r="E334" s="4">
-        <v>1</v>
-      </c>
-      <c r="F334" s="4">
-        <v>0</v>
-      </c>
-      <c r="G334" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -10469,111 +10460,111 @@
         <v>715</v>
       </c>
       <c r="B335" s="4">
-        <v>52.8</v>
+        <v>2.73</v>
       </c>
       <c r="C335" s="4">
-        <v>52.8</v>
+        <v>2.75</v>
       </c>
       <c r="D335" s="4">
-        <v>52.8</v>
+        <v>2.66</v>
       </c>
       <c r="E335" s="4">
-        <v>52.8</v>
-      </c>
-      <c r="F335" s="4">
-        <v>0</v>
-      </c>
-      <c r="G335" s="4">
-        <v>0</v>
+        <v>2.75</v>
+      </c>
+      <c r="F335" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="G335" s="4" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="336" spans="1:7">
       <c r="A336" s="3" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B336" s="4">
-        <v>52.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C336" s="4">
-        <v>52.5</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D336" s="4">
-        <v>52.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E336" s="4">
-        <v>52.5</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F336" s="4" t="s">
-        <v>438</v>
+        <v>719</v>
       </c>
       <c r="G336" s="4" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="337" spans="1:7">
       <c r="A337" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="B337" s="4">
-        <v>2.73</v>
-      </c>
-      <c r="C337" s="4">
-        <v>2.75</v>
-      </c>
-      <c r="D337" s="4">
-        <v>2.66</v>
-      </c>
-      <c r="E337" s="4">
-        <v>2.75</v>
+        <v>721</v>
+      </c>
+      <c r="B337" s="5">
+        <v>1279</v>
+      </c>
+      <c r="C337" s="5">
+        <v>1324</v>
+      </c>
+      <c r="D337" s="5">
+        <v>1276</v>
+      </c>
+      <c r="E337" s="5">
+        <v>1313</v>
       </c>
       <c r="F337" s="4" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="G337" s="4" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="3" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B338" s="4">
-        <v>0.55000000000000004</v>
+        <v>43.25</v>
       </c>
       <c r="C338" s="4">
-        <v>0.57999999999999996</v>
+        <v>43.25</v>
       </c>
       <c r="D338" s="4">
-        <v>0.55000000000000004</v>
+        <v>43.25</v>
       </c>
       <c r="E338" s="4">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F338" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="G338" s="4" t="s">
-        <v>723</v>
+        <v>43.25</v>
+      </c>
+      <c r="F338" s="4">
+        <v>0</v>
+      </c>
+      <c r="G338" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:7">
       <c r="A339" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="B339" s="5">
-        <v>1279</v>
-      </c>
-      <c r="C339" s="5">
-        <v>1324</v>
-      </c>
-      <c r="D339" s="5">
-        <v>1276</v>
-      </c>
-      <c r="E339" s="5">
-        <v>1313</v>
-      </c>
-      <c r="F339" s="4" t="s">
         <v>725</v>
+      </c>
+      <c r="B339" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="C339" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="D339" s="4">
+        <v>95</v>
+      </c>
+      <c r="E339" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="F339" s="4">
+        <v>150</v>
       </c>
       <c r="G339" s="4" t="s">
         <v>726</v>
@@ -10584,16 +10575,16 @@
         <v>727</v>
       </c>
       <c r="B340" s="4">
-        <v>43.25</v>
+        <v>10</v>
       </c>
       <c r="C340" s="4">
-        <v>43.25</v>
+        <v>10</v>
       </c>
       <c r="D340" s="4">
-        <v>43.25</v>
+        <v>10</v>
       </c>
       <c r="E340" s="4">
-        <v>43.25</v>
+        <v>10</v>
       </c>
       <c r="F340" s="4">
         <v>0</v>
@@ -10607,481 +10598,435 @@
         <v>728</v>
       </c>
       <c r="B341" s="4">
-        <v>95.5</v>
+        <v>10</v>
       </c>
       <c r="C341" s="4">
-        <v>95.5</v>
+        <v>10</v>
       </c>
       <c r="D341" s="4">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E341" s="4">
-        <v>95.5</v>
+        <v>10</v>
       </c>
       <c r="F341" s="4">
-        <v>150</v>
-      </c>
-      <c r="G341" s="4" t="s">
-        <v>729</v>
+        <v>0</v>
+      </c>
+      <c r="G341" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="B342" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="C342" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="D342" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E342" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="F342" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="B342" s="4">
-        <v>10</v>
-      </c>
-      <c r="C342" s="4">
-        <v>10</v>
-      </c>
-      <c r="D342" s="4">
-        <v>10</v>
-      </c>
-      <c r="E342" s="4">
-        <v>10</v>
-      </c>
-      <c r="F342" s="4">
-        <v>0</v>
-      </c>
-      <c r="G342" s="4">
-        <v>0</v>
+      <c r="G342" s="4" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="3" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B343" s="4">
-        <v>10</v>
+        <v>83.1</v>
       </c>
       <c r="C343" s="4">
-        <v>10</v>
+        <v>85.8</v>
       </c>
       <c r="D343" s="4">
-        <v>10</v>
+        <v>83.1</v>
       </c>
       <c r="E343" s="4">
-        <v>10</v>
-      </c>
-      <c r="F343" s="4">
-        <v>0</v>
-      </c>
-      <c r="G343" s="4">
-        <v>0</v>
+        <v>85.8</v>
+      </c>
+      <c r="F343" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="G343" s="4" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="3" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B344" s="4">
-        <v>0.92</v>
+        <v>0.246</v>
       </c>
       <c r="C344" s="4">
-        <v>0.92</v>
+        <v>0.246</v>
       </c>
       <c r="D344" s="4">
-        <v>0.9</v>
+        <v>0.246</v>
       </c>
       <c r="E344" s="4">
-        <v>0.92</v>
-      </c>
-      <c r="F344" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="G344" s="4" t="s">
-        <v>734</v>
+        <v>0.246</v>
+      </c>
+      <c r="F344" s="4">
+        <v>0</v>
+      </c>
+      <c r="G344" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:7">
       <c r="A345" s="3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B345" s="4">
-        <v>83.1</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="C345" s="4">
-        <v>85.8</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="D345" s="4">
-        <v>83.1</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="E345" s="4">
-        <v>85.8</v>
-      </c>
-      <c r="F345" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="G345" s="4" t="s">
-        <v>737</v>
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="F345" s="4">
+        <v>0</v>
+      </c>
+      <c r="G345" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:7">
       <c r="A346" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B346" s="4">
+        <v>134.4</v>
+      </c>
+      <c r="C346" s="4">
+        <v>138</v>
+      </c>
+      <c r="D346" s="4">
+        <v>134.4</v>
+      </c>
+      <c r="E346" s="4">
+        <v>136.5</v>
+      </c>
+      <c r="F346" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="B346" s="4">
-        <v>0.246</v>
-      </c>
-      <c r="C346" s="4">
-        <v>0.246</v>
-      </c>
-      <c r="D346" s="4">
-        <v>0.246</v>
-      </c>
-      <c r="E346" s="4">
-        <v>0.246</v>
-      </c>
-      <c r="F346" s="4">
-        <v>0</v>
-      </c>
-      <c r="G346" s="4">
-        <v>0</v>
+      <c r="G346" s="4" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="347" spans="1:7">
       <c r="A347" s="3" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B347" s="4">
-        <v>5.4000000000000003E-3</v>
+        <v>0.79</v>
       </c>
       <c r="C347" s="4">
-        <v>5.4000000000000003E-3</v>
+        <v>0.8</v>
       </c>
       <c r="D347" s="4">
-        <v>5.4000000000000003E-3</v>
+        <v>0.78</v>
       </c>
       <c r="E347" s="4">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="F347" s="4">
-        <v>0</v>
-      </c>
-      <c r="G347" s="4">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="F347" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="G347" s="4" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="348" spans="1:7">
       <c r="A348" s="3" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B348" s="4">
-        <v>134.4</v>
+        <v>0.59</v>
       </c>
       <c r="C348" s="4">
-        <v>138</v>
+        <v>0.6</v>
       </c>
       <c r="D348" s="4">
-        <v>134.4</v>
+        <v>0.59</v>
       </c>
       <c r="E348" s="4">
-        <v>136.5</v>
+        <v>0.59</v>
       </c>
       <c r="F348" s="4" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="G348" s="4" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="349" spans="1:7">
       <c r="A349" s="3" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B349" s="4">
-        <v>0.79</v>
+        <v>1.53</v>
       </c>
       <c r="C349" s="4">
-        <v>0.8</v>
+        <v>1.55</v>
       </c>
       <c r="D349" s="4">
-        <v>0.78</v>
+        <v>1.5</v>
       </c>
       <c r="E349" s="4">
-        <v>0.8</v>
+        <v>1.55</v>
       </c>
       <c r="F349" s="4" t="s">
-        <v>744</v>
+        <v>596</v>
       </c>
       <c r="G349" s="4" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="350" spans="1:7">
       <c r="A350" s="3" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B350" s="4">
-        <v>0.59</v>
+        <v>3</v>
       </c>
       <c r="C350" s="4">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="D350" s="4">
-        <v>0.59</v>
+        <v>2.98</v>
       </c>
       <c r="E350" s="4">
-        <v>0.59</v>
+        <v>2.98</v>
       </c>
       <c r="F350" s="4" t="s">
-        <v>747</v>
+        <v>416</v>
       </c>
       <c r="G350" s="4" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="351" spans="1:7">
       <c r="A351" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B351" s="4">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="C351" s="4">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="D351" s="4">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="E351" s="4">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="F351" s="4" t="s">
-        <v>599</v>
+        <v>751</v>
       </c>
       <c r="G351" s="4" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="352" spans="1:7">
       <c r="A352" s="3" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B352" s="4">
-        <v>3</v>
+        <v>0.83</v>
       </c>
       <c r="C352" s="4">
-        <v>3</v>
+        <v>0.83</v>
       </c>
       <c r="D352" s="4">
-        <v>2.98</v>
+        <v>0.8</v>
       </c>
       <c r="E352" s="4">
-        <v>2.98</v>
+        <v>0.8</v>
       </c>
       <c r="F352" s="4" t="s">
-        <v>418</v>
+        <v>754</v>
       </c>
       <c r="G352" s="4" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
     </row>
     <row r="353" spans="1:7">
       <c r="A353" s="3" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B353" s="4">
-        <v>1.59</v>
+        <v>15.9</v>
       </c>
       <c r="C353" s="4">
-        <v>1.63</v>
+        <v>15.9</v>
       </c>
       <c r="D353" s="4">
-        <v>1.59</v>
+        <v>15.9</v>
       </c>
       <c r="E353" s="4">
-        <v>1.61</v>
-      </c>
-      <c r="F353" s="4" t="s">
-        <v>754</v>
+        <v>15.9</v>
+      </c>
+      <c r="F353" s="4">
+        <v>400</v>
       </c>
       <c r="G353" s="4" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="354" spans="1:7">
       <c r="A354" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B354" s="4">
-        <v>0.83</v>
+        <v>2.52</v>
       </c>
       <c r="C354" s="4">
-        <v>0.83</v>
+        <v>2.66</v>
       </c>
       <c r="D354" s="4">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="E354" s="4">
-        <v>0.8</v>
+        <v>2.66</v>
       </c>
       <c r="F354" s="4" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="G354" s="4" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="355" spans="1:7">
       <c r="A355" s="3" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B355" s="4">
-        <v>15.9</v>
+        <v>0.23</v>
       </c>
       <c r="C355" s="4">
-        <v>15.9</v>
+        <v>0.23</v>
       </c>
       <c r="D355" s="4">
-        <v>15.9</v>
+        <v>0.23</v>
       </c>
       <c r="E355" s="4">
-        <v>15.9</v>
-      </c>
-      <c r="F355" s="4">
-        <v>400</v>
+        <v>0.23</v>
+      </c>
+      <c r="F355" s="4" t="s">
+        <v>506</v>
       </c>
       <c r="G355" s="4" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="356" spans="1:7">
       <c r="A356" s="3" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B356" s="4">
-        <v>2.52</v>
+        <v>29.2</v>
       </c>
       <c r="C356" s="4">
-        <v>2.66</v>
+        <v>29.25</v>
       </c>
       <c r="D356" s="4">
-        <v>2.5</v>
+        <v>28.65</v>
       </c>
       <c r="E356" s="4">
-        <v>2.66</v>
+        <v>29</v>
       </c>
       <c r="F356" s="4" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="G356" s="4" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="357" spans="1:7">
       <c r="A357" s="3" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B357" s="4">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
       <c r="C357" s="4">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
       <c r="D357" s="4">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
       <c r="E357" s="4">
-        <v>0.23</v>
-      </c>
-      <c r="F357" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="G357" s="4" t="s">
-        <v>765</v>
+        <v>0.45</v>
+      </c>
+      <c r="F357" s="4">
+        <v>0</v>
+      </c>
+      <c r="G357" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:7">
       <c r="A358" s="3" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B358" s="4">
-        <v>29.2</v>
+        <v>0.255</v>
       </c>
       <c r="C358" s="4">
-        <v>29.25</v>
+        <v>0.255</v>
       </c>
       <c r="D358" s="4">
-        <v>28.65</v>
+        <v>0.255</v>
       </c>
       <c r="E358" s="4">
-        <v>29</v>
+        <v>0.255</v>
       </c>
       <c r="F358" s="4" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G358" s="4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="359" spans="1:7">
       <c r="A359" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B359" s="4">
-        <v>0.45</v>
+        <v>0.13</v>
       </c>
       <c r="C359" s="4">
-        <v>0.45</v>
+        <v>0.13</v>
       </c>
       <c r="D359" s="4">
-        <v>0.45</v>
+        <v>0.13</v>
       </c>
       <c r="E359" s="4">
-        <v>0.45</v>
+        <v>0.13</v>
       </c>
       <c r="F359" s="4">
         <v>0</v>
       </c>
       <c r="G359" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7">
-      <c r="A360" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="B360" s="4">
-        <v>0.255</v>
-      </c>
-      <c r="C360" s="4">
-        <v>0.255</v>
-      </c>
-      <c r="D360" s="4">
-        <v>0.255</v>
-      </c>
-      <c r="E360" s="4">
-        <v>0.255</v>
-      </c>
-      <c r="F360" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="G360" s="4" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7">
-      <c r="A361" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="B361" s="4">
-        <v>0.13</v>
-      </c>
-      <c r="C361" s="4">
-        <v>0.13</v>
-      </c>
-      <c r="D361" s="4">
-        <v>0.13</v>
-      </c>
-      <c r="E361" s="4">
-        <v>0.13</v>
-      </c>
-      <c r="F361" s="4">
-        <v>0</v>
-      </c>
-      <c r="G361" s="4">
         <v>0</v>
       </c>
     </row>
